--- a/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241226)-발표자료.xlsx
+++ b/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241226)-발표자료.xlsx
@@ -8425,6 +8425,47 @@
     <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E23:E25"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D17:D19"/>
@@ -8441,47 +8482,6 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C23:C25"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="N23:N25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241226)-발표자료.xlsx
+++ b/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241226)-발표자료.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="8565" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="8565"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="213">
   <si>
     <t>시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,18 +397,6 @@
   </si>
   <si>
     <t>특이사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Javascript 기능을 배우지 않았으므로 HTML, CSS로 형태를 갖추어놓고 추후 진도에 따라 기능 추가 하기 바람.
-2. 원본 페이지에서는 유료 폰트를 사용하고 있으므로 스타일이 비슷한 무료 폰트 사용
-3. 인트로 페이지의 경우 따로두고 제작
-4. 화면 밝기 조절은 filter: brightness 
-5. 원본에 트랜지션을 주면 양방향이 된다.
-6. 개념 재정립
- margin: 0 auto / height 는 position: absolute에서 먹히지 않는다. 내용만큼 늘어나기 때문
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -824,32 +812,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 피드백 진행 후 반영하기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2. 미디어 쿼리 추천제품 영역부터 이어서 시작</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 메인페이지 미디어 쿼리 진행
 - About us 
 - Lookbook
@@ -1597,28 +1559,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. 미디어쿼리를 미리 해야하는 내용에 따라 파트별 작성 이후 미디어쿼리 진행
-2. 자바 스크립트 진도에 따라 배우는 기능들이 있어 필요한 기능을 넣기까지 기다려야하므로 나머지 HTML,CSS, 미디어쿼리 일정을 최대한 앞당겨서 작업 진행할 것
-3. 로딩 애니메이션은 메인페이지 완성 메인페이지 미디어쿼리 이후 진행
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4. 질문(12/13 피드백 진행)
-- 밑줄 애니메이션 오버 아웃시 밑줄이 오른쪽으로 가도록 변경하기
-- 상단영역 탑메뉴 SVG 색깔 바꾸기</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <strike/>
         <sz val="15"/>
@@ -1671,6 +1611,1043 @@
     <t>1. 메인페이지 등장 애니메이션 정리
 2. SHOP 페이지 추가
 3. 장바구니 서브페이지 미디어쿼리 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 전체 화면을 싸고 있는 박스를 하나 만들어서 aspect-ratio 이용
+3. 제이쿼리 애니메이션 이용 (Lookbook 페이지는 Css 애니메이션 이용)
+4. body class 적용하기 , 발표를 곧 해야하므로 만들어져있는 함수 연결
+5. 스스로 해결 완료
+6. CSS 애니메이션 적용
+7. 발표를 곧 해야하므로 선생님께서 적용시켜주심.
+이벤트 발생 후 재발생되지 않도록 변수 제어하기
+9. 스스로 해결 완료
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 탑 상단영역 로고 SVG 색상 셋팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 탑 상단영역 로고 SVG 색상 셋팅
+2. 탑 상단영역부터 미디어 쿼리 신속하게 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[인디케이터 아이디어]
+스크롤 하면서 메인페이지 각 영역마다 왼쪽 상단에 위치를 우선적으로 알려줄 수 있는 인디케이터를 놓으면 좋겠다는 생각.
+사용하고 있는 색감들과 너무 벗어나지 않는 범위 내의 스타일이면 좋을 듯.
+페이지 스크롤 내려가면서 영역 나뉠때마다 애니메이션 주면서 인디케이터 해당 페이지에 맞게 변환하면 될 듯.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-&gt; 미디어쿼리까지 마무리하고 서브페이지 넘어가기 전에 인디케이터 디자인 진행하고 넘어갈 것. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀 파일 저장 미흡으로 인해 피드백 내용 기록되지 않음. 깃허브 올리기 전에 저장 잘 되었는지 확인하고 푸쉬해야 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 오버시 색상 전환효과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 서브페이지-Shop으로 이동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 홈페이지 최초 로딩시 쿠키 알림 노출
+2. ACCEPT 버튼 오버시 색상 전환효과
+3. 클릭시 사라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 햄버거바/Shop/로고/장바구니 순으로 배치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 스크롤시 배경 색상에 따라 총 3가지 스타일로 반응</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(GNB 스타일 단일화로 결정)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* 원본 페이지보다 네비게이션 바의 요소들의 크기를 키울 계획</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 클릭시 아래쪽 방향으로 노출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 네비게이션 바깥 배경 투명도 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. 클릭 및 클릭 해제시 버튼 전환 애니메이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. 오버시 색상 전환효과</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 하위 카테고리 양방향 오버 밑줄 애니메이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 해당 페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 서브페이지-Shop으로 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 오버시 색상 전환효과</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 일부 애니메이션만 반영됨. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 스크롤시 이미지 &gt; 제목 &gt; 내용 순으로 아래쪽에서 위쪽으로
+페이드 인-아웃 되는 등장 애니메이션(추후 반영)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 스크롤시 제품명&gt;설명&gt;View product 순으로 아래쪽에서 위쪽으로
+페이드 인-아웃 되는 등장 애니메이션(추후 반영)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 오버시 색상 전환효과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 서브페이지-Shop-제품상세로 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 오버시 색상전환 및 왼쪽에서 오른쪽으로 밑줄 효과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 서브페이지-Lookbook 이동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 오버시 색상전환 및 왼쪽에서 오른쪽으로 밑줄 효과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 서브페이지-Shop 이동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 스크롤시 제목 &gt; 내용 순으로 아래쪽에서 위쪽으로
+페이드 인-아웃 되는 등장 애니메이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(해당 프로젝트에서 반영하지 않음)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+* 이번 프로젝트에서 기사 메인&amp;서브 상세페이지는 구현하지 않음.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 오버시 이미지 중심을 기준으로 약 10% 확대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 준비중 알림 출력</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 오버시 글자 색상 전환 효과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 준비중 알림 출력</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">서브페이지-Shop-최종구매
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(일정 교육과정 진행이후 제작)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 클릭시 메인 페이지 상단으로 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(추후 수정필요)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 제품 이미지가 하나씩 위에서 아래로 내려오는 애니메이션(구현 가능한 애니메이션으로 대체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 오버시 제품이미지를 중심으로 약10% 확대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 오른쪽에서 왼쪽으로 제품이미지 화면 노출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(화면만 제작 완료, 추후 수정 필요)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. 제품이미지 화면 바깥 화면 투명도 낮춤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. 바깥 화면 클릭시 제품 이미지 화면 닫힘(추후 반영)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">필터링
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(일정 교육과정 진행이후 제작)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 구현 가능한 부분까지 정리해서 발표자료 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-26 (화)</t>
+  </si>
+  <si>
+    <t>2024-12-27 (수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-2 (목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-3 (금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-30 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-31 (화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-10 (금)</t>
+  </si>
+  <si>
+    <t>2025-1-6 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-7 (화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-8 (수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-9 (목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-13 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-14 (화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-15 (수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-16 (목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-17 (금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-20 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-21 (화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-22 (수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-23 (목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-24 (금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 
+1. 첫 등장 애니메이션 이미지가 늦게 로딩되는 현상
+2. 서버에 들어가면 룩북 페이지가 이동되지 않는 현상
+3. 메인페이지 메인텍스트 아래에서 위로 올라오는 애니메이션
+4. SHOP , CONTACT 화면 비율줄이기 셋팅
+5. 여러 버튼들 클릭할 때 툭툭 잔여페이지?가 남는 현상해결
+6. 이미지 오버안에 오버하는 법
+7. 룩북 서브메뉴 광클금지 셋팅
+8. 모바일 애니메이션 쿼리 비율 셋팅?
+9. 모바일 로딩 너무 늦는것 같은데 ..
+10. 서브메뉴 양방향 트랜지션 설정하려면 .. !?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 피드백 반영 및 일정표 재정립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 프로젝트 발표
+2. 피드백 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 서브페이지 구성 및 추가
+2. 미디어 쿼리 상시 수정
+3. 발표까지 작업할 구역 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 발표자료 정리 및 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 미디어쿼리를 미리 해야하는 내용에 따라 파트별 작성 이후 미디어쿼리 진행
+2. 자바 스크립트 진도에 따라 배우는 기능들이 있어 필요한 기능을 넣기까지 기다려야하므로 나머지 HTML,CSS, 미디어쿼리 일정을 최대한 앞당겨서 작업 진행할 것
+3. 로딩 애니메이션은 메인페이지 완성 메인페이지 미디어쿼리 이후 진행
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. 질문(12/13 피드백 진행)
+- 밑줄 애니메이션 오버 아웃시 밑줄이 오른쪽으로 가도록 변경하기
+- 상단영역 탑메뉴 SVG 색깔 바꾸기</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Javascript 기능을 배우지 않았으므로 HTML, CSS로 형태를 갖추어놓고 추후 진도에 따라 기능 추가 하기 바람.
+2. 원본 페이지에서는 유료 폰트를 사용하고 있으므로 스타일이 비슷한 무료 폰트 사용
+3. 인트로 페이지의 경우 따로두고 제작
+4. 화면 밝기 조절은 filter: brightness 
+5. 원본에 트랜지션을 주면 양방향이 된다.
+6. 개념 다시 익히기
+ margin: 0 auto / height 는 position: absolute에서 먹히지 않는다. 내용만큼 늘어나기 때문
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 피드백 진행 후 반영하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 미디어 쿼리 추천제품 영역부터 이어서 시작</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 주말동안 서브페이지 최대한 구현해보고,
+월요일에 구현기능 및 영역 재정비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 월요일부터는 발표자료 작성하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. 월요일에는 피드백을 받는 것이 좋을 것 같음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. 스크롤 애니메이션 등 구현영역 축소 필요</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1688,59 +2665,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 서브페이지 구성 및 추가
-2. 미디어 쿼리 상시 수정
-3. 발표까지 작업할 구역 선정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 발표자료 정리 및 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 전체 화면을 싸고 있는 박스를 하나 만들어서 aspect-ratio 이용
-3. 제이쿼리 애니메이션 이용 (Lookbook 페이지는 Css 애니메이션 이용)
-4. body class 적용하기 , 발표를 곧 해야하므로 만들어져있는 함수 연결
-5. 스스로 해결 완료
-6. CSS 애니메이션 적용
-7. 발표를 곧 해야하므로 선생님께서 적용시켜주심.
-이벤트 발생 후 재발생되지 않도록 변수 제어하기
-9. 스스로 해결 완료
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 탑 상단영역 로고 SVG 색상 셋팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 탑 상단영역 로고 SVG 색상 셋팅
-2. 탑 상단영역부터 미디어 쿼리 신속하게 진행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[인디케이터 아이디어]
-스크롤 하면서 메인페이지 각 영역마다 왼쪽 상단에 위치를 우선적으로 알려줄 수 있는 인디케이터를 놓으면 좋겠다는 생각.
-사용하고 있는 색감들과 너무 벗어나지 않는 범위 내의 스타일이면 좋을 듯.
-페이지 스크롤 내려가면서 영역 나뉠때마다 애니메이션 주면서 인디케이터 해당 페이지에 맞게 변환하면 될 듯.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-&gt; 미디어쿼리까지 마무리하고 서브페이지 넘어가기 전에 인디케이터 디자인 진행하고 넘어갈 것. </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엑셀 파일 저장 미흡으로 인해 피드백 내용 기록되지 않음. 깃허브 올리기 전에 저장 잘 되었는지 확인하고 푸쉬해야 함.</t>
+    <t>추가 작업시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 작업종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1754,7 +2683,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1. 오버시 색상 전환효과</t>
+      <t>1. 클릭시 오른쪽 끝에서 왼쪽으로 장바구니 리스트 노출</t>
     </r>
     <r>
       <rPr>
@@ -1778,17 +2707,45 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2. 클릭시 서브페이지-Shop으로 이동</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 홈페이지 최초 로딩시 쿠키 알림 노출
-2. ACCEPT 버튼 오버시 색상 전환효과
-3. 클릭시 사라짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>2. Close 닫기 버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. + , - 기호 클릭시 상품 개수 수정(추후 반영)
+4. 장바구니 토탈 가격 안내(추후 반영)
+5. Proceed to checkout 버튼 클릭시 구매페이지 이동(추후 장바구니 교육받은 후 제작)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <r>
       <rPr>
         <strike/>
@@ -1799,7 +2756,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1. 햄버거바/Shop/로고/장바구니 순으로 배치</t>
+      <t>6. Continue shopping 버튼 클릭시 서브페이지-Shop으로 이동</t>
     </r>
     <r>
       <rPr>
@@ -1813,6 +2770,68 @@
       <t xml:space="preserve">
 </t>
     </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7. 제품명 오버시 색상 전환 및 클릭시 제품 상세페이지로 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8. 제품 이미지 클릭시 제품 상세페이지로 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9. 장바구니 리스트 화면 바깥 배경 투명도 낮춤</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <strike/>
@@ -1823,7 +2842,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2. 스크롤시 배경 색상에 따라 총 3가지 스타일로 반응</t>
+      <t>1. 제품 이미지 페이드 인-아웃-아웃 전환</t>
     </r>
     <r>
       <rPr>
@@ -1834,7 +2853,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(GNB 스타일 단일화로 결정)</t>
+      <t>(해당 프로젝트에서 적용 X)</t>
     </r>
     <r>
       <rPr>
@@ -1848,6 +2867,20 @@
       <t xml:space="preserve">
 </t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 제품명 클릭시 제품상세페이지 이동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <strike/>
@@ -1858,33 +2891,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>* 원본 페이지보다 네비게이션 바의 요소들의 크기를 키울 계획</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 제품 이미지 페이드 인-아웃-아웃 전환</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(해당 프로젝트에서 적용 X)</t>
+      <t>1. 오버시 색상 전환효과</t>
     </r>
     <r>
       <rPr>
@@ -1908,8 +2915,24 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2. 제품명 클릭시 제품상세페이지 이동</t>
-    </r>
+      <t xml:space="preserve">2. 클릭시 오른쪽 화면 끝에서 왼쪽으로 장바구니 리스트 노출
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. 장바구니에 제품 담길 때 개수 변경기능(추후 반영)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1923,7 +2946,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1. 클릭시 아래쪽 방향으로 노출</t>
+      <t>1. 오버시 왼쪽에서 오른쪽으로 밑줄 효과</t>
     </r>
     <r>
       <rPr>
@@ -1935,288 +2958,19 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 네비게이션 바깥 배경 투명도 50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3. 클릭 및 클릭 해제시 버튼 전환 애니메이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4. 오버시 색상 전환효과</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 하위 카테고리 양방향 오버 밑줄 애니메이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 해당 페이지로 이동</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 서브페이지-Shop으로 이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 오버시 색상 전환효과</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 클릭시 오른쪽 끝에서 왼쪽으로 장바구니 리스트 노출</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. Close 닫기 버튼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3. + , - 기호 클릭시 상품 개수 수정(추후 반영)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4. 장바구니 토탈 가격 안내(추후 반영)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5. Proceed to checkout 버튼 클릭시 구매페이지 이동(추후 장바구니 교육받은 후 제작)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6. Continue shopping 버튼 클릭시 서브페이지-Shop으로 이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+2. 클릭시 서브페이지-Shop-제품상세로 이동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 제품이미지 자동 페이드 인-아웃-아웃 전환 효과
+2. 미디어쿼리 수정 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 스크롤시 제목 &gt; 내용 순으로 아래쪽에서 위쪽으로
+페이드 인-아웃 되는 등장 애니메이션(추후 반영)
 </t>
     </r>
     <r>
@@ -2228,576 +2982,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7. 제품명 오버시 색상 전환 및 클릭시 제품 상세페이지로 이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8. 제품 이미지 클릭시 제품 상세페이지로 이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9. 장바구니 리스트 화면 바깥 배경 투명도 낮춤</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 색상 전환효과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 오른쪽 화면 끝에서 왼쪽으로 장바구니 리스트 노출</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">* 일부 애니메이션만 반영됨. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 스크롤시 이미지 &gt; 제목 &gt; 내용 순으로 아래쪽에서 위쪽으로
-페이드 인-아웃 되는 등장 애니메이션(추후 반영)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 스크롤시 제품명&gt;설명&gt;View product 순으로 아래쪽에서 위쪽으로
-페이드 인-아웃 되는 등장 애니메이션(추후 반영)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 색상 전환효과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 서브페이지-Shop-제품상세로 이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 왼쪽에서 오른쪽으로 밑줄 효과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2. 클릭시 서브페이지-Shop-제품상세로 이동</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 스크롤시 제목 &gt; 내용 순으로 아래쪽에서 위쪽으로
-페이드 인-아웃 되는 등장 애니메이션(추후 반영)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 색상전환 및 왼쪽에서 오른쪽으로 밑줄 효과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 서브페이지-Lookbook 이동</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 색상전환 및 왼쪽에서 오른쪽으로 밑줄 효과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 서브페이지-Shop 이동</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 제품이미지 자동 페이드 인-아웃-아웃 전환 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 스크롤시 제목 &gt; 내용 순으로 아래쪽에서 위쪽으로
-페이드 인-아웃 되는 등장 애니메이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(해당 프로젝트에서 반영하지 않음)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-* 이번 프로젝트에서 기사 메인&amp;서브 상세페이지는 구현하지 않음.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 이미지 중심을 기준으로 약 10% 확대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 준비중 알림 출력</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 글자 색상 전환 효과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 준비중 알림 출력</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">서브페이지-Shop-최종구매
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(일정 교육과정 진행이후 제작)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 클릭시 메인 페이지 상단으로 이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(추후 수정필요)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 제품 이미지가 하나씩 위에서 아래로 내려오는 애니메이션(구현 가능한 애니메이션으로 대체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 제품이미지를 중심으로 약10% 확대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 오른쪽에서 왼쪽으로 제품이미지 화면 노출</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(화면만 제작 완료, 추후 수정 필요)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3. 제품이미지 화면 바깥 화면 투명도 낮춤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4. 바깥 화면 클릭시 제품 이미지 화면 닫힘(추후 반영)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">필터링
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(일정 교육과정 진행이후 제작)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 구현 가능한 부분까지 정리해서 발표자료 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 주말동안 서브페이지 최대한 구현해보고,
-월요일에 구현기능 및 영역 재정비
-2. 월요일부터는 발표자료 작성하기
-3. 월요일에는 피드백을 받는 것이 좋을 것 같음
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4. 스크롤 애니메이션 등 구현영역 축소 필요</t>
+      <t>2. 해당 영역 미디어쿼리 수정필요</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2812,7 +2997,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3147,8 +3332,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="30"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3161,8 +3354,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -3545,13 +3744,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3801,6 +4032,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3877,13 +4156,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
@@ -3941,13 +4220,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
@@ -4005,13 +4284,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
@@ -4069,13 +4348,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4133,13 +4412,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4197,13 +4476,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4261,13 +4540,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4325,13 +4604,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4652,10 +4931,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:AD64"/>
+  <dimension ref="B1:BJ64"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AJ14" sqref="AJ14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4666,13 +4945,14 @@
     <col min="4" max="4" width="14.25" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.875" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.25" customWidth="1"/>
-    <col min="9" max="30" width="3.625" customWidth="1"/>
+    <col min="7" max="8" width="20.875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.25" customWidth="1"/>
+    <col min="11" max="62" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:30" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:62" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:62" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="62" t="s">
         <v>2</v>
       </c>
@@ -4680,26 +4960,30 @@
       <c r="D2" s="62"/>
       <c r="E2" s="14"/>
       <c r="F2" s="22"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="2:30" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:62" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="16">
         <f ca="1">TODAY()</f>
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="2:30" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:62" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="66" t="s">
         <v>84</v>
       </c>
@@ -4715,17 +4999,21 @@
       <c r="F4" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="75" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4" s="53">
+      <c r="K4" s="53">
         <v>45630</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
       <c r="L4" s="54"/>
       <c r="M4" s="54"/>
       <c r="N4" s="54"/>
@@ -4744,203 +5032,450 @@
       <c r="AA4" s="54"/>
       <c r="AB4" s="54"/>
       <c r="AC4" s="54"/>
-      <c r="AD4" s="55"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="54">
+        <v>45658</v>
+      </c>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="54"/>
+      <c r="AT4" s="54"/>
+      <c r="AU4" s="54"/>
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="54"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="54"/>
+      <c r="AZ4" s="54"/>
+      <c r="BA4" s="54"/>
+      <c r="BB4" s="54"/>
+      <c r="BC4" s="54"/>
+      <c r="BD4" s="54"/>
+      <c r="BE4" s="54"/>
+      <c r="BF4" s="54"/>
+      <c r="BG4" s="54"/>
+      <c r="BH4" s="54"/>
+      <c r="BI4" s="54"/>
+      <c r="BJ4" s="54"/>
     </row>
-    <row r="5" spans="2:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="67"/>
       <c r="C5" s="64"/>
       <c r="D5" s="70"/>
       <c r="E5" s="73"/>
       <c r="F5" s="57"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="20">
-        <f>I4</f>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="20">
+        <f>K4</f>
         <v>45630</v>
       </c>
-      <c r="J5" s="20">
-        <f>I5+1</f>
+      <c r="L5" s="20">
+        <f>K5+1</f>
         <v>45631</v>
       </c>
-      <c r="K5" s="20">
-        <f t="shared" ref="K5:AD6" si="0">J5+1</f>
+      <c r="M5" s="20">
+        <f t="shared" ref="M5:AE6" si="0">L5+1</f>
         <v>45632</v>
       </c>
-      <c r="L5" s="20">
+      <c r="N5" s="20">
         <f t="shared" si="0"/>
         <v>45633</v>
       </c>
-      <c r="M5" s="20">
+      <c r="O5" s="20">
         <f t="shared" si="0"/>
         <v>45634</v>
       </c>
-      <c r="N5" s="20">
+      <c r="P5" s="20">
         <f t="shared" si="0"/>
         <v>45635</v>
       </c>
-      <c r="O5" s="20">
+      <c r="Q5" s="20">
         <f t="shared" si="0"/>
         <v>45636</v>
       </c>
-      <c r="P5" s="20">
+      <c r="R5" s="20">
         <f t="shared" si="0"/>
         <v>45637</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="S5" s="20">
         <f t="shared" si="0"/>
         <v>45638</v>
       </c>
-      <c r="R5" s="20">
+      <c r="T5" s="20">
         <f t="shared" si="0"/>
         <v>45639</v>
       </c>
-      <c r="S5" s="20">
+      <c r="U5" s="20">
         <f t="shared" si="0"/>
         <v>45640</v>
       </c>
-      <c r="T5" s="20">
+      <c r="V5" s="20">
         <f t="shared" si="0"/>
         <v>45641</v>
       </c>
-      <c r="U5" s="20">
+      <c r="W5" s="20">
         <f t="shared" si="0"/>
         <v>45642</v>
       </c>
-      <c r="V5" s="20">
+      <c r="X5" s="20">
         <f t="shared" si="0"/>
         <v>45643</v>
       </c>
-      <c r="W5" s="20">
+      <c r="Y5" s="20">
         <f t="shared" si="0"/>
         <v>45644</v>
       </c>
-      <c r="X5" s="20">
+      <c r="Z5" s="20">
         <f t="shared" si="0"/>
         <v>45645</v>
       </c>
-      <c r="Y5" s="20">
+      <c r="AA5" s="20">
         <f t="shared" si="0"/>
         <v>45646</v>
       </c>
-      <c r="Z5" s="20">
+      <c r="AB5" s="20">
         <f t="shared" si="0"/>
         <v>45647</v>
       </c>
-      <c r="AA5" s="20">
+      <c r="AC5" s="20">
         <f t="shared" si="0"/>
         <v>45648</v>
       </c>
-      <c r="AB5" s="20">
+      <c r="AD5" s="20">
         <f t="shared" si="0"/>
         <v>45649</v>
       </c>
-      <c r="AC5" s="20">
+      <c r="AE5" s="20">
         <f t="shared" si="0"/>
         <v>45650</v>
       </c>
-      <c r="AD5" s="20">
-        <f t="shared" si="0"/>
-        <v>45651</v>
+      <c r="AF5" s="20">
+        <v>25</v>
+      </c>
+      <c r="AG5" s="20">
+        <v>26</v>
+      </c>
+      <c r="AH5" s="20">
+        <v>27</v>
+      </c>
+      <c r="AI5" s="20">
+        <v>28</v>
+      </c>
+      <c r="AJ5" s="20">
+        <v>29</v>
+      </c>
+      <c r="AK5" s="20">
+        <v>30</v>
+      </c>
+      <c r="AL5" s="20">
+        <v>31</v>
+      </c>
+      <c r="AM5" s="20">
+        <v>32</v>
+      </c>
+      <c r="AN5" s="20">
+        <v>33</v>
+      </c>
+      <c r="AO5" s="20">
+        <v>34</v>
+      </c>
+      <c r="AP5" s="20">
+        <v>35</v>
+      </c>
+      <c r="AQ5" s="20">
+        <v>36</v>
+      </c>
+      <c r="AR5" s="20">
+        <v>37</v>
+      </c>
+      <c r="AS5" s="20">
+        <v>38</v>
+      </c>
+      <c r="AT5" s="20">
+        <v>39</v>
+      </c>
+      <c r="AU5" s="20">
+        <v>40</v>
+      </c>
+      <c r="AV5" s="20">
+        <v>41</v>
+      </c>
+      <c r="AW5" s="20">
+        <v>42</v>
+      </c>
+      <c r="AX5" s="20">
+        <v>43</v>
+      </c>
+      <c r="AY5" s="20">
+        <v>44</v>
+      </c>
+      <c r="AZ5" s="20">
+        <v>45</v>
+      </c>
+      <c r="BA5" s="20">
+        <v>46</v>
+      </c>
+      <c r="BB5" s="20">
+        <v>47</v>
+      </c>
+      <c r="BC5" s="20">
+        <v>48</v>
+      </c>
+      <c r="BD5" s="20">
+        <v>49</v>
+      </c>
+      <c r="BE5" s="20">
+        <v>50</v>
+      </c>
+      <c r="BF5" s="20">
+        <v>51</v>
+      </c>
+      <c r="BG5" s="20">
+        <v>52</v>
+      </c>
+      <c r="BH5" s="20">
+        <v>53</v>
+      </c>
+      <c r="BI5" s="20">
+        <v>54</v>
+      </c>
+      <c r="BJ5" s="20">
+        <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:62" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="68"/>
       <c r="C6" s="65"/>
       <c r="D6" s="71"/>
       <c r="E6" s="74"/>
       <c r="F6" s="58"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="21">
-        <f>I5</f>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="21">
+        <f>K5</f>
         <v>45630</v>
       </c>
-      <c r="J6" s="21">
-        <f>I6+1</f>
+      <c r="L6" s="21">
+        <f>K6+1</f>
         <v>45631</v>
       </c>
-      <c r="K6" s="21">
+      <c r="M6" s="21">
         <f t="shared" si="0"/>
         <v>45632</v>
       </c>
-      <c r="L6" s="21">
+      <c r="N6" s="21">
         <f t="shared" si="0"/>
         <v>45633</v>
       </c>
-      <c r="M6" s="21">
+      <c r="O6" s="21">
         <f t="shared" si="0"/>
         <v>45634</v>
       </c>
-      <c r="N6" s="21">
+      <c r="P6" s="21">
         <f t="shared" si="0"/>
         <v>45635</v>
       </c>
-      <c r="O6" s="21">
+      <c r="Q6" s="21">
         <f t="shared" si="0"/>
         <v>45636</v>
       </c>
-      <c r="P6" s="21">
+      <c r="R6" s="21">
         <f t="shared" si="0"/>
         <v>45637</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="S6" s="21">
         <f t="shared" si="0"/>
         <v>45638</v>
       </c>
-      <c r="R6" s="21">
+      <c r="T6" s="21">
         <f t="shared" si="0"/>
         <v>45639</v>
       </c>
-      <c r="S6" s="21">
+      <c r="U6" s="21">
         <f t="shared" si="0"/>
         <v>45640</v>
       </c>
-      <c r="T6" s="21">
+      <c r="V6" s="21">
         <f t="shared" si="0"/>
         <v>45641</v>
       </c>
-      <c r="U6" s="21">
+      <c r="W6" s="21">
         <f t="shared" si="0"/>
         <v>45642</v>
       </c>
-      <c r="V6" s="21">
+      <c r="X6" s="21">
         <f t="shared" si="0"/>
         <v>45643</v>
       </c>
-      <c r="W6" s="21">
+      <c r="Y6" s="21">
         <f t="shared" si="0"/>
         <v>45644</v>
       </c>
-      <c r="X6" s="21">
+      <c r="Z6" s="21">
         <f t="shared" si="0"/>
         <v>45645</v>
       </c>
-      <c r="Y6" s="21">
+      <c r="AA6" s="21">
         <f t="shared" si="0"/>
         <v>45646</v>
       </c>
-      <c r="Z6" s="21">
+      <c r="AB6" s="21">
         <f t="shared" si="0"/>
         <v>45647</v>
       </c>
-      <c r="AA6" s="21">
+      <c r="AC6" s="21">
         <f t="shared" si="0"/>
         <v>45648</v>
       </c>
-      <c r="AB6" s="21">
+      <c r="AD6" s="21">
         <f t="shared" si="0"/>
         <v>45649</v>
       </c>
-      <c r="AC6" s="21">
+      <c r="AE6" s="21">
         <f t="shared" si="0"/>
         <v>45650</v>
       </c>
-      <c r="AD6" s="21">
-        <f t="shared" si="0"/>
+      <c r="AF6" s="21">
+        <f t="shared" ref="AF6" si="1">AE6+1</f>
         <v>45651</v>
       </c>
+      <c r="AG6" s="21">
+        <f t="shared" ref="AG6" si="2">AF6+1</f>
+        <v>45652</v>
+      </c>
+      <c r="AH6" s="21">
+        <f t="shared" ref="AH6" si="3">AG6+1</f>
+        <v>45653</v>
+      </c>
+      <c r="AI6" s="21">
+        <f t="shared" ref="AI6" si="4">AH6+1</f>
+        <v>45654</v>
+      </c>
+      <c r="AJ6" s="21">
+        <f t="shared" ref="AJ6" si="5">AI6+1</f>
+        <v>45655</v>
+      </c>
+      <c r="AK6" s="21">
+        <f t="shared" ref="AK6" si="6">AJ6+1</f>
+        <v>45656</v>
+      </c>
+      <c r="AL6" s="21">
+        <f t="shared" ref="AL6" si="7">AK6+1</f>
+        <v>45657</v>
+      </c>
+      <c r="AM6" s="21">
+        <f t="shared" ref="AM6" si="8">AL6+1</f>
+        <v>45658</v>
+      </c>
+      <c r="AN6" s="21">
+        <f t="shared" ref="AN6" si="9">AM6+1</f>
+        <v>45659</v>
+      </c>
+      <c r="AO6" s="21">
+        <f t="shared" ref="AO6" si="10">AN6+1</f>
+        <v>45660</v>
+      </c>
+      <c r="AP6" s="21">
+        <f t="shared" ref="AP6" si="11">AO6+1</f>
+        <v>45661</v>
+      </c>
+      <c r="AQ6" s="21">
+        <f t="shared" ref="AQ6" si="12">AP6+1</f>
+        <v>45662</v>
+      </c>
+      <c r="AR6" s="21">
+        <f t="shared" ref="AR6" si="13">AQ6+1</f>
+        <v>45663</v>
+      </c>
+      <c r="AS6" s="21">
+        <f t="shared" ref="AS6" si="14">AR6+1</f>
+        <v>45664</v>
+      </c>
+      <c r="AT6" s="21">
+        <f t="shared" ref="AT6" si="15">AS6+1</f>
+        <v>45665</v>
+      </c>
+      <c r="AU6" s="21">
+        <f t="shared" ref="AU6" si="16">AT6+1</f>
+        <v>45666</v>
+      </c>
+      <c r="AV6" s="21">
+        <f t="shared" ref="AV6" si="17">AU6+1</f>
+        <v>45667</v>
+      </c>
+      <c r="AW6" s="21">
+        <f t="shared" ref="AW6" si="18">AV6+1</f>
+        <v>45668</v>
+      </c>
+      <c r="AX6" s="21">
+        <f t="shared" ref="AX6" si="19">AW6+1</f>
+        <v>45669</v>
+      </c>
+      <c r="AY6" s="21">
+        <f t="shared" ref="AY6" si="20">AX6+1</f>
+        <v>45670</v>
+      </c>
+      <c r="AZ6" s="21">
+        <f t="shared" ref="AZ6" si="21">AY6+1</f>
+        <v>45671</v>
+      </c>
+      <c r="BA6" s="21">
+        <f t="shared" ref="BA6" si="22">AZ6+1</f>
+        <v>45672</v>
+      </c>
+      <c r="BB6" s="21">
+        <f t="shared" ref="BB6" si="23">BA6+1</f>
+        <v>45673</v>
+      </c>
+      <c r="BC6" s="21">
+        <f t="shared" ref="BC6" si="24">BB6+1</f>
+        <v>45674</v>
+      </c>
+      <c r="BD6" s="21">
+        <f t="shared" ref="BD6" si="25">BC6+1</f>
+        <v>45675</v>
+      </c>
+      <c r="BE6" s="21">
+        <f t="shared" ref="BE6" si="26">BD6+1</f>
+        <v>45676</v>
+      </c>
+      <c r="BF6" s="21">
+        <f t="shared" ref="BF6" si="27">BE6+1</f>
+        <v>45677</v>
+      </c>
+      <c r="BG6" s="21">
+        <f t="shared" ref="BG6" si="28">BF6+1</f>
+        <v>45678</v>
+      </c>
+      <c r="BH6" s="21">
+        <f t="shared" ref="BH6" si="29">BG6+1</f>
+        <v>45679</v>
+      </c>
+      <c r="BI6" s="21">
+        <f t="shared" ref="BI6" si="30">BH6+1</f>
+        <v>45680</v>
+      </c>
+      <c r="BJ6" s="21">
+        <f t="shared" ref="BJ6" si="31">BI6+1</f>
+        <v>45681</v>
+      </c>
     </row>
-    <row r="7" spans="2:30" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:62" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -4955,15 +5490,15 @@
         <f>IF(E7="","",E7+1-D7)</f>
         <v>6</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="18">
         <v>70</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="31"/>
+      <c r="K7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -4983,13 +5518,45 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="2"/>
     </row>
-    <row r="8" spans="2:30" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:62" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D8" s="12">
         <v>45630</v>
@@ -4998,15 +5565,19 @@
         <v>45635</v>
       </c>
       <c r="F8" s="24">
-        <f t="shared" ref="F8:F64" si="1">IF(E8="","",E8+1-D8)</f>
+        <f t="shared" ref="F8:F64" si="32">IF(E8="","",E8+1-D8)</f>
         <v>6</v>
       </c>
-      <c r="G8" s="19">
-        <v>50</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="G8" s="95">
+        <v>45660</v>
+      </c>
+      <c r="H8" s="95">
+        <v>45663</v>
+      </c>
+      <c r="I8" s="19">
+        <v>100</v>
+      </c>
+      <c r="J8" s="19"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -5027,13 +5598,45 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
     </row>
-    <row r="9" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="D9" s="12">
         <v>45630</v>
@@ -5042,15 +5645,19 @@
         <v>45635</v>
       </c>
       <c r="F9" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="95">
+        <v>45660</v>
+      </c>
+      <c r="H9" s="95">
+        <v>45663</v>
+      </c>
+      <c r="I9" s="19">
         <v>50</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -5071,13 +5678,45 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
     </row>
-    <row r="10" spans="2:30" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:62" ht="66" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D10" s="12">
         <v>45630</v>
@@ -5086,15 +5725,15 @@
         <v>45635</v>
       </c>
       <c r="F10" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="19">
         <v>100</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -5115,13 +5754,45 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
     </row>
-    <row r="11" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D11" s="12">
         <v>45630</v>
@@ -5130,15 +5801,15 @@
         <v>45635</v>
       </c>
       <c r="F11" s="24">
-        <f t="shared" ref="F11" si="2">IF(E11="","",E11+1-D11)</f>
+        <f t="shared" ref="F11" si="33">IF(E11="","",E11+1-D11)</f>
         <v>6</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="19">
         <v>100</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -5159,13 +5830,45 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
     </row>
-    <row r="12" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D12" s="12">
         <v>45630</v>
@@ -5174,15 +5877,15 @@
         <v>45635</v>
       </c>
       <c r="F12" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="19">
         <v>100</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -5203,12 +5906,44 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
     </row>
-    <row r="13" spans="2:30" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:62" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="46" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="12">
@@ -5218,15 +5953,15 @@
         <v>45635</v>
       </c>
       <c r="F13" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="19">
         <v>100</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -5247,13 +5982,45 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
     </row>
-    <row r="14" spans="2:30" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:62" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="D14" s="12">
         <v>45630</v>
@@ -5262,15 +6029,19 @@
         <v>45635</v>
       </c>
       <c r="F14" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="95">
+        <v>45660</v>
+      </c>
+      <c r="H14" s="95">
+        <v>45663</v>
+      </c>
+      <c r="I14" s="19">
         <v>50</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="19"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -5291,13 +6062,45 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
     </row>
-    <row r="15" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:62" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="D15" s="12">
         <v>45630</v>
@@ -5306,15 +6109,19 @@
         <v>45635</v>
       </c>
       <c r="F15" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="G15" s="19">
-        <v>100</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="G15" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="H15" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="I15" s="19">
+        <v>75</v>
+      </c>
+      <c r="J15" s="19"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -5335,8 +6142,40 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
     </row>
-    <row r="16" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:62" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
@@ -5350,15 +6189,15 @@
         <v>45638</v>
       </c>
       <c r="F16" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="19">
         <v>70</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="19"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -5379,13 +6218,45 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
     </row>
-    <row r="17" spans="2:30" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:62" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D17" s="12">
         <v>45636</v>
@@ -5394,15 +6265,19 @@
         <v>45638</v>
       </c>
       <c r="F17" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="95">
+        <v>45663</v>
+      </c>
+      <c r="H17" s="95">
+        <v>45664</v>
+      </c>
+      <c r="I17" s="19">
         <v>70</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="19"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -5423,13 +6298,45 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
     </row>
-    <row r="18" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D18" s="12">
         <v>45636</v>
@@ -5438,15 +6345,15 @@
         <v>45638</v>
       </c>
       <c r="F18" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G18" s="19">
-        <v>50</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="19">
+        <v>100</v>
+      </c>
+      <c r="J18" s="19"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -5467,13 +6374,45 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="1"/>
     </row>
-    <row r="19" spans="2:30" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:62" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B19" s="37" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D19" s="12">
         <v>45636</v>
@@ -5482,15 +6421,19 @@
         <v>45638</v>
       </c>
       <c r="F19" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="95">
+        <v>45663</v>
+      </c>
+      <c r="H19" s="95">
+        <v>45664</v>
+      </c>
+      <c r="I19" s="19">
         <v>0</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="19"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -5511,13 +6454,45 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
     </row>
-    <row r="20" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D20" s="12">
         <v>45636</v>
@@ -5526,15 +6501,19 @@
         <v>45638</v>
       </c>
       <c r="F20" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="95">
+        <v>45664</v>
+      </c>
+      <c r="H20" s="95">
+        <v>45665</v>
+      </c>
+      <c r="I20" s="19">
         <v>50</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="19"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -5555,13 +6534,45 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
     </row>
-    <row r="21" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D21" s="12">
         <v>45636</v>
@@ -5570,15 +6581,19 @@
         <v>45638</v>
       </c>
       <c r="F21" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="95">
+        <v>45664</v>
+      </c>
+      <c r="H21" s="95">
+        <v>45665</v>
+      </c>
+      <c r="I21" s="19">
         <v>50</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="19"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -5599,13 +6614,45 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
     </row>
-    <row r="22" spans="2:30" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:62" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D22" s="12">
         <v>45636</v>
@@ -5614,15 +6661,19 @@
         <v>45638</v>
       </c>
       <c r="F22" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="95">
+        <v>45664</v>
+      </c>
+      <c r="H22" s="95">
+        <v>45665</v>
+      </c>
+      <c r="I22" s="19">
         <v>50</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="19"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -5643,13 +6694,45 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="1"/>
     </row>
-    <row r="23" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="D23" s="12">
         <v>45636</v>
@@ -5658,15 +6741,19 @@
         <v>45638</v>
       </c>
       <c r="F23" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="95">
+        <v>45664</v>
+      </c>
+      <c r="H23" s="95">
+        <v>45665</v>
+      </c>
+      <c r="I23" s="19">
         <v>50</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="19"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -5687,8 +6774,40 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
     </row>
-    <row r="24" spans="2:30" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:62" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>20</v>
       </c>
@@ -5702,15 +6821,19 @@
         <v>45638</v>
       </c>
       <c r="F24" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="95">
+        <v>45664</v>
+      </c>
+      <c r="H24" s="95">
+        <v>45665</v>
+      </c>
+      <c r="I24" s="19">
         <v>50</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="19"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -5731,13 +6854,45 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1"/>
     </row>
-    <row r="25" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:62" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="D25" s="12">
         <v>45636</v>
@@ -5746,15 +6901,19 @@
         <v>45638</v>
       </c>
       <c r="F25" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="95">
+        <v>45665</v>
+      </c>
+      <c r="H25" s="95">
+        <v>45666</v>
+      </c>
+      <c r="I25" s="19">
         <v>50</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="19"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -5775,13 +6934,45 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
     </row>
-    <row r="26" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D26" s="12">
         <v>45636</v>
@@ -5790,15 +6981,15 @@
         <v>45638</v>
       </c>
       <c r="F26" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="19">
         <v>100</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="19"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -5819,13 +7010,45 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
     </row>
-    <row r="27" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D27" s="12">
         <v>45636</v>
@@ -5834,15 +7057,15 @@
         <v>45638</v>
       </c>
       <c r="F27" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="19">
         <v>100</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="19"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -5863,13 +7086,45 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="1"/>
     </row>
-    <row r="28" spans="2:30" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="D28" s="12">
         <v>45636</v>
@@ -5878,15 +7133,19 @@
         <v>45638</v>
       </c>
       <c r="F28" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G28" s="19">
-        <v>50</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="G28" s="95">
+        <v>45665</v>
+      </c>
+      <c r="H28" s="95">
+        <v>45666</v>
+      </c>
+      <c r="I28" s="19">
+        <v>90</v>
+      </c>
+      <c r="J28" s="19"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -5907,13 +7166,45 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1"/>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="1"/>
     </row>
-    <row r="29" spans="2:30" ht="66" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:62" ht="66" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D29" s="12">
         <v>45636</v>
@@ -5922,15 +7213,15 @@
         <v>45638</v>
       </c>
       <c r="F29" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="19">
         <v>75</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="19"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -5951,13 +7242,45 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="1"/>
     </row>
-    <row r="30" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D30" s="12">
         <v>45636</v>
@@ -5966,15 +7289,15 @@
         <v>45638</v>
       </c>
       <c r="F30" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="19">
         <v>75</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="19"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -5995,13 +7318,45 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
     </row>
-    <row r="31" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D31" s="12">
         <v>45636</v>
@@ -6010,15 +7365,15 @@
         <v>45638</v>
       </c>
       <c r="F31" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="19">
         <v>75</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="J31" s="19"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -6039,8 +7394,40 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
     </row>
-    <row r="32" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:62" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>12</v>
       </c>
@@ -6052,15 +7439,15 @@
         <v>45638</v>
       </c>
       <c r="F32" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="19">
         <v>100</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="19"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -6081,8 +7468,40 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="1"/>
     </row>
-    <row r="33" spans="2:30" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:62" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>28</v>
       </c>
@@ -6096,15 +7515,15 @@
         <v>45638</v>
       </c>
       <c r="F33" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="19">
         <v>100</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="J33" s="19"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -6125,13 +7544,45 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
     </row>
-    <row r="34" spans="2:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:62" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D34" s="12">
         <v>45636</v>
@@ -6140,15 +7591,15 @@
         <v>45638</v>
       </c>
       <c r="F34" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="19">
         <v>75</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="19"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -6169,13 +7620,45 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
     </row>
-    <row r="35" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:62" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D35" s="12">
         <v>45639</v>
@@ -6184,15 +7667,15 @@
         <v>45642</v>
       </c>
       <c r="F35" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="19">
         <v>75</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="19"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -6213,13 +7696,45 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
     </row>
-    <row r="36" spans="2:30" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:62" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D36" s="12">
         <v>45639</v>
@@ -6228,15 +7743,15 @@
         <v>45642</v>
       </c>
       <c r="F36" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="19">
         <v>50</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="19"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -6257,8 +7772,40 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1"/>
     </row>
-    <row r="37" spans="2:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:62" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>42</v>
       </c>
@@ -6272,15 +7819,15 @@
         <v>45642</v>
       </c>
       <c r="F37" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="19">
         <v>100</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="19"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -6301,8 +7848,40 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
+      <c r="BI37" s="1"/>
+      <c r="BJ37" s="1"/>
     </row>
-    <row r="38" spans="2:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:62" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>33</v>
       </c>
@@ -6314,15 +7893,15 @@
         <v>45642</v>
       </c>
       <c r="F38" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="19">
         <v>0</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="19"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -6343,8 +7922,40 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="1"/>
     </row>
-    <row r="39" spans="2:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:62" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>32</v>
       </c>
@@ -6358,15 +7969,15 @@
         <v>45642</v>
       </c>
       <c r="F39" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="19">
         <v>0</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="J39" s="19"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -6387,8 +7998,40 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="1"/>
     </row>
-    <row r="40" spans="2:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:62" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>34</v>
       </c>
@@ -6402,15 +8045,15 @@
         <v>45642</v>
       </c>
       <c r="F40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="19">
         <v>0</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="19"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -6431,8 +8074,40 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="1"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="1"/>
     </row>
-    <row r="41" spans="2:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:62" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>35</v>
       </c>
@@ -6446,15 +8121,15 @@
         <v>45642</v>
       </c>
       <c r="F41" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="19">
         <v>0</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="19"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -6475,8 +8150,40 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1"/>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="1"/>
     </row>
-    <row r="42" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:62" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>31</v>
       </c>
@@ -6490,15 +8197,15 @@
         <v>45644</v>
       </c>
       <c r="F42" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="19">
         <v>0</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="J42" s="19"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -6519,10 +8226,42 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1"/>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1"/>
+      <c r="AZ42" s="1"/>
+      <c r="BA42" s="1"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="1"/>
+      <c r="BE42" s="1"/>
+      <c r="BF42" s="1"/>
+      <c r="BG42" s="1"/>
+      <c r="BH42" s="1"/>
+      <c r="BI42" s="1"/>
+      <c r="BJ42" s="1"/>
     </row>
-    <row r="43" spans="2:30" ht="45" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:62" ht="45" x14ac:dyDescent="0.3">
       <c r="B43" s="51" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C43" s="39"/>
       <c r="D43" s="12">
@@ -6532,15 +8271,15 @@
         <v>45644</v>
       </c>
       <c r="F43" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="19">
         <v>0</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="J43" s="19"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -6561,8 +8300,40 @@
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="1"/>
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="1"/>
+      <c r="BH43" s="1"/>
+      <c r="BI43" s="1"/>
+      <c r="BJ43" s="1"/>
     </row>
-    <row r="44" spans="2:30" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:62" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="50" t="s">
         <v>36</v>
       </c>
@@ -6576,15 +8347,15 @@
         <v>45644</v>
       </c>
       <c r="F44" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="19">
         <v>0</v>
       </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="J44" s="19"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -6605,8 +8376,40 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1"/>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="1"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
+      <c r="BE44" s="1"/>
+      <c r="BF44" s="1"/>
+      <c r="BG44" s="1"/>
+      <c r="BH44" s="1"/>
+      <c r="BI44" s="1"/>
+      <c r="BJ44" s="1"/>
     </row>
-    <row r="45" spans="2:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:62" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="50" t="s">
         <v>37</v>
       </c>
@@ -6620,15 +8423,15 @@
         <v>45644</v>
       </c>
       <c r="F45" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="19">
         <v>0</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="J45" s="19"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -6649,8 +8452,40 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="1"/>
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="1"/>
+      <c r="BH45" s="1"/>
+      <c r="BI45" s="1"/>
+      <c r="BJ45" s="1"/>
     </row>
-    <row r="46" spans="2:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:62" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>38</v>
       </c>
@@ -6662,15 +8497,15 @@
         <v>45644</v>
       </c>
       <c r="F46" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="19">
         <v>0</v>
       </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="J46" s="19"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -6691,8 +8526,40 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1"/>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="1"/>
+      <c r="AX46" s="1"/>
+      <c r="AY46" s="1"/>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="1"/>
+      <c r="BB46" s="1"/>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="1"/>
+      <c r="BE46" s="1"/>
+      <c r="BF46" s="1"/>
+      <c r="BG46" s="1"/>
+      <c r="BH46" s="1"/>
+      <c r="BI46" s="1"/>
+      <c r="BJ46" s="1"/>
     </row>
-    <row r="47" spans="2:30" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:62" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>40</v>
       </c>
@@ -6706,15 +8573,15 @@
         <v>45644</v>
       </c>
       <c r="F47" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="19">
         <v>0</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="J47" s="19"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -6735,8 +8602,40 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="1"/>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="1"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="1"/>
+      <c r="BD47" s="1"/>
+      <c r="BE47" s="1"/>
+      <c r="BF47" s="1"/>
+      <c r="BG47" s="1"/>
+      <c r="BH47" s="1"/>
+      <c r="BI47" s="1"/>
+      <c r="BJ47" s="1"/>
     </row>
-    <row r="48" spans="2:30" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:62" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>39</v>
       </c>
@@ -6750,15 +8649,15 @@
         <v>45644</v>
       </c>
       <c r="F48" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G48" s="95"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="19">
         <v>0</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="J48" s="19"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -6779,8 +8678,40 @@
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1"/>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
+      <c r="BD48" s="1"/>
+      <c r="BE48" s="1"/>
+      <c r="BF48" s="1"/>
+      <c r="BG48" s="1"/>
+      <c r="BH48" s="1"/>
+      <c r="BI48" s="1"/>
+      <c r="BJ48" s="1"/>
     </row>
-    <row r="49" spans="2:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:62" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>41</v>
       </c>
@@ -6794,15 +8725,15 @@
         <v>45644</v>
       </c>
       <c r="F49" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="95"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="19">
         <v>0</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="J49" s="19"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -6823,8 +8754,40 @@
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="1"/>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="1"/>
+      <c r="BB49" s="1"/>
+      <c r="BC49" s="1"/>
+      <c r="BD49" s="1"/>
+      <c r="BE49" s="1"/>
+      <c r="BF49" s="1"/>
+      <c r="BG49" s="1"/>
+      <c r="BH49" s="1"/>
+      <c r="BI49" s="1"/>
+      <c r="BJ49" s="1"/>
     </row>
-    <row r="50" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:62" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B50" s="52" t="s">
         <v>47</v>
       </c>
@@ -6836,15 +8799,15 @@
         <v>45644</v>
       </c>
       <c r="F50" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="19">
         <v>0</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="J50" s="19"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -6865,8 +8828,40 @@
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+      <c r="AT50" s="1"/>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="1"/>
+      <c r="AX50" s="1"/>
+      <c r="AY50" s="1"/>
+      <c r="AZ50" s="1"/>
+      <c r="BA50" s="1"/>
+      <c r="BB50" s="1"/>
+      <c r="BC50" s="1"/>
+      <c r="BD50" s="1"/>
+      <c r="BE50" s="1"/>
+      <c r="BF50" s="1"/>
+      <c r="BG50" s="1"/>
+      <c r="BH50" s="1"/>
+      <c r="BI50" s="1"/>
+      <c r="BJ50" s="1"/>
     </row>
-    <row r="51" spans="2:30" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:62" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>65</v>
       </c>
@@ -6880,15 +8875,15 @@
         <v>45644</v>
       </c>
       <c r="F51" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="19">
         <v>0</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="J51" s="19"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -6909,8 +8904,40 @@
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="1"/>
+      <c r="BD51" s="1"/>
+      <c r="BE51" s="1"/>
+      <c r="BF51" s="1"/>
+      <c r="BG51" s="1"/>
+      <c r="BH51" s="1"/>
+      <c r="BI51" s="1"/>
+      <c r="BJ51" s="1"/>
     </row>
-    <row r="52" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:62" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>48</v>
       </c>
@@ -6924,15 +8951,15 @@
         <v>45644</v>
       </c>
       <c r="F52" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G52" s="95"/>
+      <c r="H52" s="95"/>
+      <c r="I52" s="19">
         <v>0</v>
       </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="J52" s="19"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -6953,8 +8980,40 @@
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
+      <c r="BD52" s="1"/>
+      <c r="BE52" s="1"/>
+      <c r="BF52" s="1"/>
+      <c r="BG52" s="1"/>
+      <c r="BH52" s="1"/>
+      <c r="BI52" s="1"/>
+      <c r="BJ52" s="1"/>
     </row>
-    <row r="53" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:62" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>49</v>
       </c>
@@ -6968,15 +9027,15 @@
         <v>45644</v>
       </c>
       <c r="F53" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="95"/>
+      <c r="H53" s="95"/>
+      <c r="I53" s="19">
         <v>0</v>
       </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="J53" s="19"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -6997,10 +9056,42 @@
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+      <c r="AT53" s="1"/>
+      <c r="AU53" s="1"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="1"/>
+      <c r="AX53" s="1"/>
+      <c r="AY53" s="1"/>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="1"/>
+      <c r="BB53" s="1"/>
+      <c r="BC53" s="1"/>
+      <c r="BD53" s="1"/>
+      <c r="BE53" s="1"/>
+      <c r="BF53" s="1"/>
+      <c r="BG53" s="1"/>
+      <c r="BH53" s="1"/>
+      <c r="BI53" s="1"/>
+      <c r="BJ53" s="1"/>
     </row>
-    <row r="54" spans="2:30" ht="66" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:62" ht="66" x14ac:dyDescent="0.3">
       <c r="B54" s="44" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C54" s="40" t="s">
         <v>69</v>
@@ -7012,15 +9103,15 @@
         <v>45646</v>
       </c>
       <c r="F54" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G54" s="43">
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="43">
         <v>0</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="J54" s="19"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -7041,8 +9132,40 @@
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1"/>
+      <c r="AO54" s="1"/>
+      <c r="AP54" s="1"/>
+      <c r="AQ54" s="1"/>
+      <c r="AR54" s="1"/>
+      <c r="AS54" s="1"/>
+      <c r="AT54" s="1"/>
+      <c r="AU54" s="1"/>
+      <c r="AV54" s="1"/>
+      <c r="AW54" s="1"/>
+      <c r="AX54" s="1"/>
+      <c r="AY54" s="1"/>
+      <c r="AZ54" s="1"/>
+      <c r="BA54" s="1"/>
+      <c r="BB54" s="1"/>
+      <c r="BC54" s="1"/>
+      <c r="BD54" s="1"/>
+      <c r="BE54" s="1"/>
+      <c r="BF54" s="1"/>
+      <c r="BG54" s="1"/>
+      <c r="BH54" s="1"/>
+      <c r="BI54" s="1"/>
+      <c r="BJ54" s="1"/>
     </row>
-    <row r="55" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:62" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>71</v>
       </c>
@@ -7053,15 +9176,15 @@
         <v>45646</v>
       </c>
       <c r="F55" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="95"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="19">
         <v>0</v>
       </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="J55" s="19"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -7082,8 +9205,40 @@
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
+      <c r="AO55" s="1"/>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+      <c r="AT55" s="1"/>
+      <c r="AU55" s="1"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="1"/>
+      <c r="AX55" s="1"/>
+      <c r="AY55" s="1"/>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="1"/>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1"/>
+      <c r="BD55" s="1"/>
+      <c r="BE55" s="1"/>
+      <c r="BF55" s="1"/>
+      <c r="BG55" s="1"/>
+      <c r="BH55" s="1"/>
+      <c r="BI55" s="1"/>
+      <c r="BJ55" s="1"/>
     </row>
-    <row r="56" spans="2:30" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:62" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>72</v>
       </c>
@@ -7097,15 +9252,15 @@
         <v>45646</v>
       </c>
       <c r="F56" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G56" s="95"/>
+      <c r="H56" s="95"/>
+      <c r="I56" s="19">
         <v>0</v>
       </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="J56" s="19"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -7126,8 +9281,40 @@
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="1"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="1"/>
+      <c r="AO56" s="1"/>
+      <c r="AP56" s="1"/>
+      <c r="AQ56" s="1"/>
+      <c r="AR56" s="1"/>
+      <c r="AS56" s="1"/>
+      <c r="AT56" s="1"/>
+      <c r="AU56" s="1"/>
+      <c r="AV56" s="1"/>
+      <c r="AW56" s="1"/>
+      <c r="AX56" s="1"/>
+      <c r="AY56" s="1"/>
+      <c r="AZ56" s="1"/>
+      <c r="BA56" s="1"/>
+      <c r="BB56" s="1"/>
+      <c r="BC56" s="1"/>
+      <c r="BD56" s="1"/>
+      <c r="BE56" s="1"/>
+      <c r="BF56" s="1"/>
+      <c r="BG56" s="1"/>
+      <c r="BH56" s="1"/>
+      <c r="BI56" s="1"/>
+      <c r="BJ56" s="1"/>
     </row>
-    <row r="57" spans="2:30" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:62" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>73</v>
       </c>
@@ -7141,15 +9328,15 @@
         <v>45646</v>
       </c>
       <c r="F57" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G57" s="95"/>
+      <c r="H57" s="95"/>
+      <c r="I57" s="19">
         <v>0</v>
       </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="J57" s="19"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -7170,8 +9357,40 @@
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="1"/>
+      <c r="AM57" s="1"/>
+      <c r="AN57" s="1"/>
+      <c r="AO57" s="1"/>
+      <c r="AP57" s="1"/>
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="1"/>
+      <c r="AT57" s="1"/>
+      <c r="AU57" s="1"/>
+      <c r="AV57" s="1"/>
+      <c r="AW57" s="1"/>
+      <c r="AX57" s="1"/>
+      <c r="AY57" s="1"/>
+      <c r="AZ57" s="1"/>
+      <c r="BA57" s="1"/>
+      <c r="BB57" s="1"/>
+      <c r="BC57" s="1"/>
+      <c r="BD57" s="1"/>
+      <c r="BE57" s="1"/>
+      <c r="BF57" s="1"/>
+      <c r="BG57" s="1"/>
+      <c r="BH57" s="1"/>
+      <c r="BI57" s="1"/>
+      <c r="BJ57" s="1"/>
     </row>
-    <row r="58" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:62" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B58" s="6" t="s">
         <v>43</v>
       </c>
@@ -7185,15 +9404,15 @@
         <v>45646</v>
       </c>
       <c r="F58" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G58" s="95"/>
+      <c r="H58" s="95"/>
+      <c r="I58" s="19">
         <v>0</v>
       </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="J58" s="19"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -7214,8 +9433,40 @@
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="1"/>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="1"/>
+      <c r="AO58" s="1"/>
+      <c r="AP58" s="1"/>
+      <c r="AQ58" s="1"/>
+      <c r="AR58" s="1"/>
+      <c r="AS58" s="1"/>
+      <c r="AT58" s="1"/>
+      <c r="AU58" s="1"/>
+      <c r="AV58" s="1"/>
+      <c r="AW58" s="1"/>
+      <c r="AX58" s="1"/>
+      <c r="AY58" s="1"/>
+      <c r="AZ58" s="1"/>
+      <c r="BA58" s="1"/>
+      <c r="BB58" s="1"/>
+      <c r="BC58" s="1"/>
+      <c r="BD58" s="1"/>
+      <c r="BE58" s="1"/>
+      <c r="BF58" s="1"/>
+      <c r="BG58" s="1"/>
+      <c r="BH58" s="1"/>
+      <c r="BI58" s="1"/>
+      <c r="BJ58" s="1"/>
     </row>
-    <row r="59" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:62" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>44</v>
       </c>
@@ -7229,15 +9480,15 @@
         <v>45646</v>
       </c>
       <c r="F59" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G59" s="95"/>
+      <c r="H59" s="95"/>
+      <c r="I59" s="19">
         <v>0</v>
       </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="J59" s="19"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -7258,8 +9509,40 @@
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="1"/>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="1"/>
+      <c r="AO59" s="1"/>
+      <c r="AP59" s="1"/>
+      <c r="AQ59" s="1"/>
+      <c r="AR59" s="1"/>
+      <c r="AS59" s="1"/>
+      <c r="AT59" s="1"/>
+      <c r="AU59" s="1"/>
+      <c r="AV59" s="1"/>
+      <c r="AW59" s="1"/>
+      <c r="AX59" s="1"/>
+      <c r="AY59" s="1"/>
+      <c r="AZ59" s="1"/>
+      <c r="BA59" s="1"/>
+      <c r="BB59" s="1"/>
+      <c r="BC59" s="1"/>
+      <c r="BD59" s="1"/>
+      <c r="BE59" s="1"/>
+      <c r="BF59" s="1"/>
+      <c r="BG59" s="1"/>
+      <c r="BH59" s="1"/>
+      <c r="BI59" s="1"/>
+      <c r="BJ59" s="1"/>
     </row>
-    <row r="60" spans="2:30" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:62" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>76</v>
       </c>
@@ -7273,15 +9556,15 @@
         <v>45646</v>
       </c>
       <c r="F60" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G60" s="19">
+      <c r="G60" s="95"/>
+      <c r="H60" s="95"/>
+      <c r="I60" s="19">
         <v>0</v>
       </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="J60" s="19"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -7302,10 +9585,42 @@
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="1"/>
+      <c r="AO60" s="1"/>
+      <c r="AP60" s="1"/>
+      <c r="AQ60" s="1"/>
+      <c r="AR60" s="1"/>
+      <c r="AS60" s="1"/>
+      <c r="AT60" s="1"/>
+      <c r="AU60" s="1"/>
+      <c r="AV60" s="1"/>
+      <c r="AW60" s="1"/>
+      <c r="AX60" s="1"/>
+      <c r="AY60" s="1"/>
+      <c r="AZ60" s="1"/>
+      <c r="BA60" s="1"/>
+      <c r="BB60" s="1"/>
+      <c r="BC60" s="1"/>
+      <c r="BD60" s="1"/>
+      <c r="BE60" s="1"/>
+      <c r="BF60" s="1"/>
+      <c r="BG60" s="1"/>
+      <c r="BH60" s="1"/>
+      <c r="BI60" s="1"/>
+      <c r="BJ60" s="1"/>
     </row>
-    <row r="61" spans="2:30" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:62" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="12">
@@ -7318,12 +9633,12 @@
         <f>IF(E61="","",E61+1-D61)</f>
         <v>5</v>
       </c>
-      <c r="G61" s="19">
+      <c r="G61" s="95"/>
+      <c r="H61" s="95"/>
+      <c r="I61" s="19">
         <v>10</v>
       </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="J61" s="19"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -7344,8 +9659,40 @@
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="1"/>
+      <c r="AI61" s="1"/>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="1"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="1"/>
+      <c r="AO61" s="1"/>
+      <c r="AP61" s="1"/>
+      <c r="AQ61" s="1"/>
+      <c r="AR61" s="1"/>
+      <c r="AS61" s="1"/>
+      <c r="AT61" s="1"/>
+      <c r="AU61" s="1"/>
+      <c r="AV61" s="1"/>
+      <c r="AW61" s="1"/>
+      <c r="AX61" s="1"/>
+      <c r="AY61" s="1"/>
+      <c r="AZ61" s="1"/>
+      <c r="BA61" s="1"/>
+      <c r="BB61" s="1"/>
+      <c r="BC61" s="1"/>
+      <c r="BD61" s="1"/>
+      <c r="BE61" s="1"/>
+      <c r="BF61" s="1"/>
+      <c r="BG61" s="1"/>
+      <c r="BH61" s="1"/>
+      <c r="BI61" s="1"/>
+      <c r="BJ61" s="1"/>
     </row>
-    <row r="62" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:62" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>79</v>
       </c>
@@ -7357,15 +9704,15 @@
         <v>45650</v>
       </c>
       <c r="F62" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
-      <c r="G62" s="19">
+      <c r="G62" s="95"/>
+      <c r="H62" s="95"/>
+      <c r="I62" s="19">
         <v>0</v>
       </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="J62" s="19"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -7386,8 +9733,40 @@
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1"/>
+      <c r="AH62" s="1"/>
+      <c r="AI62" s="1"/>
+      <c r="AJ62" s="1"/>
+      <c r="AK62" s="1"/>
+      <c r="AL62" s="1"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="1"/>
+      <c r="AO62" s="1"/>
+      <c r="AP62" s="1"/>
+      <c r="AQ62" s="1"/>
+      <c r="AR62" s="1"/>
+      <c r="AS62" s="1"/>
+      <c r="AT62" s="1"/>
+      <c r="AU62" s="1"/>
+      <c r="AV62" s="1"/>
+      <c r="AW62" s="1"/>
+      <c r="AX62" s="1"/>
+      <c r="AY62" s="1"/>
+      <c r="AZ62" s="1"/>
+      <c r="BA62" s="1"/>
+      <c r="BB62" s="1"/>
+      <c r="BC62" s="1"/>
+      <c r="BD62" s="1"/>
+      <c r="BE62" s="1"/>
+      <c r="BF62" s="1"/>
+      <c r="BG62" s="1"/>
+      <c r="BH62" s="1"/>
+      <c r="BI62" s="1"/>
+      <c r="BJ62" s="1"/>
     </row>
-    <row r="63" spans="2:30" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:62" ht="52.5" x14ac:dyDescent="0.3">
       <c r="B63" s="17" t="s">
         <v>64</v>
       </c>
@@ -7399,15 +9778,15 @@
         <v>45650</v>
       </c>
       <c r="F63" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
-      <c r="G63" s="19">
+      <c r="G63" s="95"/>
+      <c r="H63" s="95"/>
+      <c r="I63" s="19">
         <v>0</v>
       </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="J63" s="19"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -7428,8 +9807,40 @@
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
       <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="1"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+      <c r="AT63" s="1"/>
+      <c r="AU63" s="1"/>
+      <c r="AV63" s="1"/>
+      <c r="AW63" s="1"/>
+      <c r="AX63" s="1"/>
+      <c r="AY63" s="1"/>
+      <c r="AZ63" s="1"/>
+      <c r="BA63" s="1"/>
+      <c r="BB63" s="1"/>
+      <c r="BC63" s="1"/>
+      <c r="BD63" s="1"/>
+      <c r="BE63" s="1"/>
+      <c r="BF63" s="1"/>
+      <c r="BG63" s="1"/>
+      <c r="BH63" s="1"/>
+      <c r="BI63" s="1"/>
+      <c r="BJ63" s="1"/>
     </row>
-    <row r="64" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:62" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>78</v>
       </c>
@@ -7438,18 +9849,18 @@
         <v>45646</v>
       </c>
       <c r="E64" s="12">
-        <v>45650</v>
+        <v>45681</v>
       </c>
       <c r="F64" s="24">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G64" s="19">
+        <f t="shared" si="32"/>
+        <v>36</v>
+      </c>
+      <c r="G64" s="95"/>
+      <c r="H64" s="95"/>
+      <c r="I64" s="19">
         <v>0</v>
       </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="J64" s="19"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -7470,31 +9881,66 @@
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="1"/>
+      <c r="AO64" s="1"/>
+      <c r="AP64" s="1"/>
+      <c r="AQ64" s="1"/>
+      <c r="AR64" s="1"/>
+      <c r="AS64" s="1"/>
+      <c r="AT64" s="1"/>
+      <c r="AU64" s="1"/>
+      <c r="AV64" s="1"/>
+      <c r="AW64" s="1"/>
+      <c r="AX64" s="1"/>
+      <c r="AY64" s="1"/>
+      <c r="AZ64" s="1"/>
+      <c r="BA64" s="1"/>
+      <c r="BB64" s="1"/>
+      <c r="BC64" s="1"/>
+      <c r="BD64" s="1"/>
+      <c r="BE64" s="1"/>
+      <c r="BF64" s="1"/>
+      <c r="BG64" s="1"/>
+      <c r="BH64" s="1"/>
+      <c r="BI64" s="1"/>
+      <c r="BJ64" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="I4:AD4"/>
+  <mergeCells count="12">
+    <mergeCell ref="K4:AL4"/>
+    <mergeCell ref="AM4:BJ4"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
     <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="I4:I6"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:E6"/>
-    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="J4:J6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I7:AD64">
+  <conditionalFormatting sqref="K7:BJ64">
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>AND(I$5&gt;=$D7,I$5&lt;=$E7)</formula>
+      <formula>AND(K$5&gt;=$D7,K$5&lt;=$E7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:AD64">
+  <conditionalFormatting sqref="K5:BJ64">
     <cfRule type="expression" dxfId="0" priority="6">
-      <formula>I$5=$E$3</formula>
+      <formula>K$5=$E$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:H64">
+  <conditionalFormatting sqref="I7:J64">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -7521,16 +9967,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:rowOff>409575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7543,16 +9989,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:rowOff>85725</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7565,16 +10011,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:rowOff>409575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7587,13 +10033,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7609,13 +10055,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7631,13 +10077,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>49</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>50</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7653,13 +10099,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>54</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7675,13 +10121,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7708,7 +10154,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G7:H64</xm:sqref>
+          <xm:sqref>I7:J64</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7719,12 +10165,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:AI30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="M27" sqref="M27"/>
+      <selection pane="topRight" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7741,27 +10187,32 @@
     <col min="11" max="11" width="42.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="50.625" customWidth="1"/>
     <col min="13" max="13" width="65.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39" customWidth="1"/>
+    <col min="14" max="14" width="53.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="63.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="16" max="35" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:35" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
       <c r="D2" s="14"/>
       <c r="E2" s="22"/>
       <c r="F2" s="3"/>
+      <c r="O2" s="94" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="16">
         <f ca="1">TODAY()</f>
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>3</v>
@@ -7770,7 +10221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="79"/>
       <c r="B4" s="78" t="s">
         <v>87</v>
@@ -7811,8 +10262,71 @@
       <c r="N4" s="78" t="s">
         <v>85</v>
       </c>
+      <c r="O4" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="S4" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="T4" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="W4" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="X4" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y4" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z4" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA4" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB4" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC4" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD4" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE4" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF4" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG4" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH4" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI4" s="78" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="80"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
@@ -7827,8 +10341,29 @@
       <c r="L5" s="60"/>
       <c r="M5" s="60"/>
       <c r="N5" s="60"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
     </row>
-    <row r="6" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="81"/>
       <c r="B6" s="61"/>
       <c r="C6" s="61"/>
@@ -7843,96 +10378,203 @@
       <c r="L6" s="61"/>
       <c r="M6" s="61"/>
       <c r="N6" s="61"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="61"/>
     </row>
-    <row r="7" spans="1:14" ht="27" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q7" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="R7" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="U7" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="V7" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W7" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="X7" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y7" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z7" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA7" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB7" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC7" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD7" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE7" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF7" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG7" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH7" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI7" s="28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="360" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="28" t="s">
+      <c r="B8" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>118</v>
-      </c>
+      <c r="G8" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="O8" s="88" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
     </row>
-    <row r="8" spans="1:14" ht="360" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="M8" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="N8" s="26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -7943,12 +10585,34 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
     </row>
-    <row r="10" spans="1:14" s="13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" s="13" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10"/>
+      <c r="O10" s="89"/>
     </row>
-    <row r="11" spans="1:14" s="13" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" s="13" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="79"/>
       <c r="B11" s="78" t="s">
         <v>85</v>
@@ -7989,8 +10653,71 @@
       <c r="N11" s="78" t="s">
         <v>85</v>
       </c>
+      <c r="O11" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="S11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="T11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="U11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="V11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="W11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="X11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI11" s="78" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="80"/>
       <c r="B12" s="60"/>
       <c r="C12" s="60"/>
@@ -8005,8 +10732,29 @@
       <c r="L12" s="60"/>
       <c r="M12" s="60"/>
       <c r="N12" s="60"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="60"/>
+      <c r="AI12" s="60"/>
     </row>
-    <row r="13" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="81"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -8021,91 +10769,200 @@
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="61"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="61"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="61"/>
+      <c r="AI13" s="61"/>
     </row>
-    <row r="14" spans="1:14" s="13" customFormat="1" ht="27" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" s="13" customFormat="1" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>86</v>
       </c>
       <c r="B14" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>92</v>
-      </c>
       <c r="D14" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="H14" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K14" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="M14" s="28" t="s">
+      <c r="N14" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="N14" s="28" t="s">
-        <v>118</v>
+      <c r="O14" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q14" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="S14" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="T14" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="U14" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="V14" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W14" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="X14" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y14" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z14" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA14" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB14" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC14" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD14" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE14" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF14" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG14" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH14" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI14" s="28" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="13" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" s="13" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J15" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="K15" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>140</v>
-      </c>
       <c r="M15" s="26" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="N15" s="26"/>
+      <c r="O15" s="88" t="s">
+        <v>194</v>
+      </c>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
     </row>
-    <row r="16" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:14" s="13" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O16" s="89"/>
+    </row>
+    <row r="17" spans="1:35" s="13" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="79"/>
       <c r="B17" s="78" t="s">
         <v>87</v>
@@ -8146,8 +11003,71 @@
       <c r="N17" s="78" t="s">
         <v>85</v>
       </c>
+      <c r="O17" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="R17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="S17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="T17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="U17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="V17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="W17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="X17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI17" s="78" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="18" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="80"/>
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
@@ -8162,8 +11082,29 @@
       <c r="L18" s="60"/>
       <c r="M18" s="60"/>
       <c r="N18" s="60"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="60"/>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="60"/>
+      <c r="AD18" s="60"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="60"/>
+      <c r="AG18" s="60"/>
+      <c r="AH18" s="60"/>
+      <c r="AI18" s="60"/>
     </row>
-    <row r="19" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="81"/>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
@@ -8178,93 +11119,202 @@
       <c r="L19" s="61"/>
       <c r="M19" s="61"/>
       <c r="N19" s="61"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="61"/>
+      <c r="AI19" s="61"/>
     </row>
-    <row r="20" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>96</v>
-      </c>
       <c r="D20" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F20" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="H20" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K20" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="28" t="s">
+      <c r="N20" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="N20" s="28" t="s">
-        <v>118</v>
+      <c r="O20" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q20" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="R20" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="S20" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="T20" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="U20" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="V20" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W20" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="X20" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y20" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z20" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA20" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB20" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC20" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD20" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE20" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF20" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG20" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH20" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI20" s="28" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="13" customFormat="1" ht="264" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" s="13" customFormat="1" ht="264" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="E21" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="E21" s="30" t="s">
-        <v>127</v>
-      </c>
       <c r="F21" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="M21" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="N21" s="26" t="s">
-        <v>151</v>
-      </c>
+      <c r="L21" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
     </row>
-    <row r="22" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O22" s="89"/>
+    </row>
+    <row r="23" spans="1:35" s="13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="79"/>
       <c r="B23" s="78" t="s">
         <v>87</v>
@@ -8305,8 +11355,71 @@
       <c r="N23" s="78" t="s">
         <v>85</v>
       </c>
+      <c r="O23" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q23" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="R23" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="S23" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="T23" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="U23" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="V23" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="W23" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="X23" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y23" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z23" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA23" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB23" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC23" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD23" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE23" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF23" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG23" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH23" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI23" s="78" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="24" spans="1:14" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="80"/>
       <c r="B24" s="60"/>
       <c r="C24" s="76"/>
@@ -8321,8 +11434,29 @@
       <c r="L24" s="60"/>
       <c r="M24" s="60"/>
       <c r="N24" s="60"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="60"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="60"/>
+      <c r="AI24" s="60"/>
     </row>
-    <row r="25" spans="1:14" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="81"/>
       <c r="B25" s="61"/>
       <c r="C25" s="77"/>
@@ -8337,135 +11471,283 @@
       <c r="L25" s="61"/>
       <c r="M25" s="61"/>
       <c r="N25" s="61"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="61"/>
+      <c r="AH25" s="61"/>
+      <c r="AI25" s="61"/>
     </row>
-    <row r="26" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>86</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="28" t="s">
-        <v>94</v>
-      </c>
       <c r="E26" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="H26" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="M26" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="H26" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K26" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="L26" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="M26" s="28" t="s">
+      <c r="N26" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="N26" s="28" t="s">
-        <v>118</v>
+      <c r="O26" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q26" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="R26" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="S26" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="T26" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="U26" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="V26" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W26" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="X26" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y26" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z26" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA26" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB26" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC26" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD26" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE26" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF26" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG26" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH26" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI26" s="28" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="13" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" s="13" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>88</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K27" s="29"/>
       <c r="L27" s="29" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="N27" s="29" t="s">
-        <v>183</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="O27" s="90"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
     </row>
-    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:35" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E23:E25"/>
+  <mergeCells count="141">
+    <mergeCell ref="AH23:AH25"/>
+    <mergeCell ref="AI23:AI25"/>
+    <mergeCell ref="AC23:AC25"/>
+    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="AE23:AE25"/>
+    <mergeCell ref="AF23:AF25"/>
+    <mergeCell ref="AG23:AG25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="U23:U25"/>
+    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="W23:W25"/>
+    <mergeCell ref="X23:X25"/>
+    <mergeCell ref="Y23:Y25"/>
+    <mergeCell ref="Z23:Z25"/>
+    <mergeCell ref="AA23:AA25"/>
+    <mergeCell ref="AB23:AB25"/>
+    <mergeCell ref="AH17:AH19"/>
+    <mergeCell ref="AI17:AI19"/>
+    <mergeCell ref="AC17:AC19"/>
+    <mergeCell ref="AD17:AD19"/>
+    <mergeCell ref="AE17:AE19"/>
+    <mergeCell ref="AF17:AF19"/>
+    <mergeCell ref="AG17:AG19"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="V17:V19"/>
+    <mergeCell ref="W17:W19"/>
+    <mergeCell ref="X17:X19"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="Z17:Z19"/>
+    <mergeCell ref="AA17:AA19"/>
+    <mergeCell ref="AB17:AB19"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="AI11:AI13"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AD11:AD13"/>
+    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="AF11:AF13"/>
+    <mergeCell ref="AG11:AG13"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="AB11:AB13"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="AE4:AE6"/>
+    <mergeCell ref="AF4:AF6"/>
+    <mergeCell ref="AG4:AG6"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="Z4:Z6"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="R4:R6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D17:D19"/>
@@ -8482,6 +11764,47 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C23:C25"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="N23:N25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241226)-발표자료.xlsx
+++ b/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241226)-발표자료.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="8565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="8565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="185">
   <si>
     <t>시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,6 +397,18 @@
   </si>
   <si>
     <t>특이사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Javascript 기능을 배우지 않았으므로 HTML, CSS로 형태를 갖추어놓고 추후 진도에 따라 기능 추가 하기 바람.
+2. 원본 페이지에서는 유료 폰트를 사용하고 있으므로 스타일이 비슷한 무료 폰트 사용
+3. 인트로 페이지의 경우 따로두고 제작
+4. 화면 밝기 조절은 filter: brightness 
+5. 원본에 트랜지션을 주면 양방향이 된다.
+6. 개념 재정립
+ margin: 0 auto / height 는 position: absolute에서 먹히지 않는다. 내용만큼 늘어나기 때문
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -812,6 +824,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 피드백 진행 후 반영하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. 미디어 쿼리 추천제품 영역부터 이어서 시작</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 메인페이지 미디어 쿼리 진행
 - About us 
 - Lookbook
@@ -1559,6 +1597,28 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">1. 미디어쿼리를 미리 해야하는 내용에 따라 파트별 작성 이후 미디어쿼리 진행
+2. 자바 스크립트 진도에 따라 배우는 기능들이 있어 필요한 기능을 넣기까지 기다려야하므로 나머지 HTML,CSS, 미디어쿼리 일정을 최대한 앞당겨서 작업 진행할 것
+3. 로딩 애니메이션은 메인페이지 완성 메인페이지 미디어쿼리 이후 진행
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. 질문(12/13 피드백 진행)
+- 밑줄 애니메이션 오버 아웃시 밑줄이 오른쪽으로 가도록 변경하기
+- 상단영역 탑메뉴 SVG 색깔 바꾸기</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <strike/>
         <sz val="15"/>
@@ -1611,1043 +1671,6 @@
     <t>1. 메인페이지 등장 애니메이션 정리
 2. SHOP 페이지 추가
 3. 장바구니 서브페이지 미디어쿼리 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 전체 화면을 싸고 있는 박스를 하나 만들어서 aspect-ratio 이용
-3. 제이쿼리 애니메이션 이용 (Lookbook 페이지는 Css 애니메이션 이용)
-4. body class 적용하기 , 발표를 곧 해야하므로 만들어져있는 함수 연결
-5. 스스로 해결 완료
-6. CSS 애니메이션 적용
-7. 발표를 곧 해야하므로 선생님께서 적용시켜주심.
-이벤트 발생 후 재발생되지 않도록 변수 제어하기
-9. 스스로 해결 완료
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 탑 상단영역 로고 SVG 색상 셋팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 탑 상단영역 로고 SVG 색상 셋팅
-2. 탑 상단영역부터 미디어 쿼리 신속하게 진행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[인디케이터 아이디어]
-스크롤 하면서 메인페이지 각 영역마다 왼쪽 상단에 위치를 우선적으로 알려줄 수 있는 인디케이터를 놓으면 좋겠다는 생각.
-사용하고 있는 색감들과 너무 벗어나지 않는 범위 내의 스타일이면 좋을 듯.
-페이지 스크롤 내려가면서 영역 나뉠때마다 애니메이션 주면서 인디케이터 해당 페이지에 맞게 변환하면 될 듯.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-&gt; 미디어쿼리까지 마무리하고 서브페이지 넘어가기 전에 인디케이터 디자인 진행하고 넘어갈 것. </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엑셀 파일 저장 미흡으로 인해 피드백 내용 기록되지 않음. 깃허브 올리기 전에 저장 잘 되었는지 확인하고 푸쉬해야 함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 색상 전환효과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 서브페이지-Shop으로 이동</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 홈페이지 최초 로딩시 쿠키 알림 노출
-2. ACCEPT 버튼 오버시 색상 전환효과
-3. 클릭시 사라짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 햄버거바/Shop/로고/장바구니 순으로 배치</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 스크롤시 배경 색상에 따라 총 3가지 스타일로 반응</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(GNB 스타일 단일화로 결정)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* 원본 페이지보다 네비게이션 바의 요소들의 크기를 키울 계획</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 클릭시 아래쪽 방향으로 노출</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 네비게이션 바깥 배경 투명도 50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3. 클릭 및 클릭 해제시 버튼 전환 애니메이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4. 오버시 색상 전환효과</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 하위 카테고리 양방향 오버 밑줄 애니메이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 해당 페이지로 이동</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 서브페이지-Shop으로 이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 오버시 색상 전환효과</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">* 일부 애니메이션만 반영됨. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 스크롤시 이미지 &gt; 제목 &gt; 내용 순으로 아래쪽에서 위쪽으로
-페이드 인-아웃 되는 등장 애니메이션(추후 반영)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 스크롤시 제품명&gt;설명&gt;View product 순으로 아래쪽에서 위쪽으로
-페이드 인-아웃 되는 등장 애니메이션(추후 반영)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 색상 전환효과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 서브페이지-Shop-제품상세로 이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 색상전환 및 왼쪽에서 오른쪽으로 밑줄 효과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 서브페이지-Lookbook 이동</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 색상전환 및 왼쪽에서 오른쪽으로 밑줄 효과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 서브페이지-Shop 이동</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 스크롤시 제목 &gt; 내용 순으로 아래쪽에서 위쪽으로
-페이드 인-아웃 되는 등장 애니메이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(해당 프로젝트에서 반영하지 않음)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-* 이번 프로젝트에서 기사 메인&amp;서브 상세페이지는 구현하지 않음.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 이미지 중심을 기준으로 약 10% 확대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 준비중 알림 출력</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 글자 색상 전환 효과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 준비중 알림 출력</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">서브페이지-Shop-최종구매
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(일정 교육과정 진행이후 제작)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 클릭시 메인 페이지 상단으로 이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(추후 수정필요)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 제품 이미지가 하나씩 위에서 아래로 내려오는 애니메이션(구현 가능한 애니메이션으로 대체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 제품이미지를 중심으로 약10% 확대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 오른쪽에서 왼쪽으로 제품이미지 화면 노출</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(화면만 제작 완료, 추후 수정 필요)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3. 제품이미지 화면 바깥 화면 투명도 낮춤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4. 바깥 화면 클릭시 제품 이미지 화면 닫힘(추후 반영)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">필터링
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(일정 교육과정 진행이후 제작)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 구현 가능한 부분까지 정리해서 발표자료 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-12-26 (화)</t>
-  </si>
-  <si>
-    <t>2024-12-27 (수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-1-2 (목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-1-3 (금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-12-30 (월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-12-31 (화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-1-10 (금)</t>
-  </si>
-  <si>
-    <t>2025-1-6 (월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-1-7 (화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-1-8 (수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-1-9 (목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-1-13 (월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-1-14 (화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-1-15 (수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-1-16 (목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-1-17 (금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-1-20 (월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-1-21 (화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-1-22 (수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-1-23 (목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-1-24 (금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발표일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 
-1. 첫 등장 애니메이션 이미지가 늦게 로딩되는 현상
-2. 서버에 들어가면 룩북 페이지가 이동되지 않는 현상
-3. 메인페이지 메인텍스트 아래에서 위로 올라오는 애니메이션
-4. SHOP , CONTACT 화면 비율줄이기 셋팅
-5. 여러 버튼들 클릭할 때 툭툭 잔여페이지?가 남는 현상해결
-6. 이미지 오버안에 오버하는 법
-7. 룩북 서브메뉴 광클금지 셋팅
-8. 모바일 애니메이션 쿼리 비율 셋팅?
-9. 모바일 로딩 너무 늦는것 같은데 ..
-10. 서브메뉴 양방향 트랜지션 설정하려면 .. !?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 피드백 반영 및 일정표 재정립</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 프로젝트 발표
-2. 피드백 진행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 서브페이지 구성 및 추가
-2. 미디어 쿼리 상시 수정
-3. 발표까지 작업할 구역 선정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 발표자료 정리 및 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 미디어쿼리를 미리 해야하는 내용에 따라 파트별 작성 이후 미디어쿼리 진행
-2. 자바 스크립트 진도에 따라 배우는 기능들이 있어 필요한 기능을 넣기까지 기다려야하므로 나머지 HTML,CSS, 미디어쿼리 일정을 최대한 앞당겨서 작업 진행할 것
-3. 로딩 애니메이션은 메인페이지 완성 메인페이지 미디어쿼리 이후 진행
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4. 질문(12/13 피드백 진행)
-- 밑줄 애니메이션 오버 아웃시 밑줄이 오른쪽으로 가도록 변경하기
-- 상단영역 탑메뉴 SVG 색깔 바꾸기</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Javascript 기능을 배우지 않았으므로 HTML, CSS로 형태를 갖추어놓고 추후 진도에 따라 기능 추가 하기 바람.
-2. 원본 페이지에서는 유료 폰트를 사용하고 있으므로 스타일이 비슷한 무료 폰트 사용
-3. 인트로 페이지의 경우 따로두고 제작
-4. 화면 밝기 조절은 filter: brightness 
-5. 원본에 트랜지션을 주면 양방향이 된다.
-6. 개념 다시 익히기
- margin: 0 auto / height 는 position: absolute에서 먹히지 않는다. 내용만큼 늘어나기 때문
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 피드백 진행 후 반영하기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 미디어 쿼리 추천제품 영역부터 이어서 시작</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 주말동안 서브페이지 최대한 구현해보고,
-월요일에 구현기능 및 영역 재정비</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 월요일부터는 발표자료 작성하기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3. 월요일에는 피드백을 받는 것이 좋을 것 같음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4. 스크롤 애니메이션 등 구현영역 축소 필요</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2665,11 +1688,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추가 작업시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가 작업종료</t>
+    <t>1. 서브페이지 구성 및 추가
+2. 미디어 쿼리 상시 수정
+3. 발표까지 작업할 구역 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 발표자료 정리 및 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 전체 화면을 싸고 있는 박스를 하나 만들어서 aspect-ratio 이용
+3. 제이쿼리 애니메이션 이용 (Lookbook 페이지는 Css 애니메이션 이용)
+4. body class 적용하기 , 발표를 곧 해야하므로 만들어져있는 함수 연결
+5. 스스로 해결 완료
+6. CSS 애니메이션 적용
+7. 발표를 곧 해야하므로 선생님께서 적용시켜주심.
+이벤트 발생 후 재발생되지 않도록 변수 제어하기
+9. 스스로 해결 완료
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 탑 상단영역 로고 SVG 색상 셋팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 탑 상단영역 로고 SVG 색상 셋팅
+2. 탑 상단영역부터 미디어 쿼리 신속하게 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[인디케이터 아이디어]
+스크롤 하면서 메인페이지 각 영역마다 왼쪽 상단에 위치를 우선적으로 알려줄 수 있는 인디케이터를 놓으면 좋겠다는 생각.
+사용하고 있는 색감들과 너무 벗어나지 않는 범위 내의 스타일이면 좋을 듯.
+페이지 스크롤 내려가면서 영역 나뉠때마다 애니메이션 주면서 인디케이터 해당 페이지에 맞게 변환하면 될 듯.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-&gt; 미디어쿼리까지 마무리하고 서브페이지 넘어가기 전에 인디케이터 디자인 진행하고 넘어갈 것. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀 파일 저장 미흡으로 인해 피드백 내용 기록되지 않음. 깃허브 올리기 전에 저장 잘 되었는지 확인하고 푸쉬해야 함.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2683,7 +1754,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1. 클릭시 오른쪽 끝에서 왼쪽으로 장바구니 리스트 노출</t>
+      <t>1. 오버시 색상 전환효과</t>
     </r>
     <r>
       <rPr>
@@ -2707,7 +1778,28 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2. Close 닫기 버튼</t>
+      <t>2. 클릭시 서브페이지-Shop으로 이동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 홈페이지 최초 로딩시 쿠키 알림 노출
+2. ACCEPT 버튼 오버시 색상 전환효과
+3. 클릭시 사라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 햄버거바/Shop/로고/장바구니 순으로 배치</t>
     </r>
     <r>
       <rPr>
@@ -2721,117 +1813,6 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3. + , - 기호 클릭시 상품 개수 수정(추후 반영)
-4. 장바구니 토탈 가격 안내(추후 반영)
-5. Proceed to checkout 버튼 클릭시 구매페이지 이동(추후 장바구니 교육받은 후 제작)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6. Continue shopping 버튼 클릭시 서브페이지-Shop으로 이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7. 제품명 오버시 색상 전환 및 클릭시 제품 상세페이지로 이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8. 제품 이미지 클릭시 제품 상세페이지로 이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9. 장바구니 리스트 화면 바깥 배경 투명도 낮춤</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <strike/>
@@ -2842,7 +1823,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1. 제품 이미지 페이드 인-아웃-아웃 전환</t>
+      <t>2. 스크롤시 배경 색상에 따라 총 3가지 스타일로 반응</t>
     </r>
     <r>
       <rPr>
@@ -2853,7 +1834,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(해당 프로젝트에서 적용 X)</t>
+      <t>(GNB 스타일 단일화로 결정)</t>
     </r>
     <r>
       <rPr>
@@ -2869,20 +1850,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 제품명 클릭시 제품상세페이지 이동</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <strike/>
         <sz val="11"/>
         <color theme="1"/>
@@ -2891,7 +1858,33 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1. 오버시 색상 전환효과</t>
+      <t>* 원본 페이지보다 네비게이션 바의 요소들의 크기를 키울 계획</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 제품 이미지 페이드 인-아웃-아웃 전환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(해당 프로젝트에서 적용 X)</t>
     </r>
     <r>
       <rPr>
@@ -2915,7 +1908,222 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">2. 클릭시 오른쪽 화면 끝에서 왼쪽으로 장바구니 리스트 노출
+      <t>2. 제품명 클릭시 제품상세페이지 이동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 클릭시 아래쪽 방향으로 노출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 네비게이션 바깥 배경 투명도 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. 클릭 및 클릭 해제시 버튼 전환 애니메이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. 오버시 색상 전환효과</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 하위 카테고리 양방향 오버 밑줄 애니메이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 해당 페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 서브페이지-Shop으로 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 오버시 색상 전환효과</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 클릭시 오른쪽 끝에서 왼쪽으로 장바구니 리스트 노출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Close 닫기 버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -2927,15 +2135,66 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3. 장바구니에 제품 담길 때 개수 변경기능(추후 반영)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>3. + , - 기호 클릭시 상품 개수 수정(추후 반영)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. 장바구니 토탈 가격 안내(추후 반영)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5. Proceed to checkout 버튼 클릭시 구매페이지 이동(추후 장바구니 교육받은 후 제작)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <r>
       <rPr>
         <strike/>
@@ -2946,6 +2205,194 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
+      <t>6. Continue shopping 버튼 클릭시 서브페이지-Shop으로 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7. 제품명 오버시 색상 전환 및 클릭시 제품 상세페이지로 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8. 제품 이미지 클릭시 제품 상세페이지로 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9. 장바구니 리스트 화면 바깥 배경 투명도 낮춤</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 오버시 색상 전환효과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 오른쪽 화면 끝에서 왼쪽으로 장바구니 리스트 노출</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 일부 애니메이션만 반영됨. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 스크롤시 이미지 &gt; 제목 &gt; 내용 순으로 아래쪽에서 위쪽으로
+페이드 인-아웃 되는 등장 애니메이션(추후 반영)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 스크롤시 제품명&gt;설명&gt;View product 순으로 아래쪽에서 위쪽으로
+페이드 인-아웃 되는 등장 애니메이션(추후 반영)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 오버시 색상 전환효과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 서브페이지-Shop-제품상세로 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1. 오버시 왼쪽에서 오른쪽으로 밑줄 효과</t>
     </r>
     <r>
@@ -2963,14 +2410,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 제품이미지 자동 페이드 인-아웃-아웃 전환 효과
-2. 미디어쿼리 수정 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 스크롤시 제목 &gt; 내용 순으로 아래쪽에서 위쪽으로
-페이드 인-아웃 되는 등장 애니메이션(추후 반영)
+    <t>1. 스크롤시 제목 &gt; 내용 순으로 아래쪽에서 위쪽으로
+페이드 인-아웃 되는 등장 애니메이션(추후 반영)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 오버시 색상전환 및 왼쪽에서 오른쪽으로 밑줄 효과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 서브페이지-Lookbook 이동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 오버시 색상전환 및 왼쪽에서 오른쪽으로 밑줄 효과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 서브페이지-Shop 이동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 제품이미지 자동 페이드 인-아웃-아웃 전환 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 스크롤시 제목 &gt; 내용 순으로 아래쪽에서 위쪽으로
+페이드 인-아웃 되는 등장 애니메이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(해당 프로젝트에서 반영하지 않음)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+* 이번 프로젝트에서 기사 메인&amp;서브 상세페이지는 구현하지 않음.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 오버시 이미지 중심을 기준으로 약 10% 확대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -2982,7 +2569,235 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2. 해당 영역 미디어쿼리 수정필요</t>
+      <t>2. 클릭시 준비중 알림 출력</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 오버시 글자 색상 전환 효과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 준비중 알림 출력</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">서브페이지-Shop-최종구매
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(일정 교육과정 진행이후 제작)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 클릭시 메인 페이지 상단으로 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(추후 수정필요)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 제품 이미지가 하나씩 위에서 아래로 내려오는 애니메이션(구현 가능한 애니메이션으로 대체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 오버시 제품이미지를 중심으로 약10% 확대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 오른쪽에서 왼쪽으로 제품이미지 화면 노출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(화면만 제작 완료, 추후 수정 필요)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. 제품이미지 화면 바깥 화면 투명도 낮춤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. 바깥 화면 클릭시 제품 이미지 화면 닫힘(추후 반영)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">필터링
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(일정 교육과정 진행이후 제작)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 구현 가능한 부분까지 정리해서 발표자료 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 주말동안 서브페이지 최대한 구현해보고,
+월요일에 구현기능 및 영역 재정비
+2. 월요일부터는 발표자료 작성하기
+3. 월요일에는 피드백을 받는 것이 좋을 것 같음
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. 스크롤 애니메이션 등 구현영역 축소 필요</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2997,7 +2812,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3332,16 +3147,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="30"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3354,14 +3161,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="34">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -3744,45 +3545,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </diagonal>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4032,54 +3801,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4156,13 +3877,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
@@ -4220,13 +3941,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
@@ -4284,13 +4005,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
@@ -4348,13 +4069,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4412,13 +4133,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4476,13 +4197,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4540,13 +4261,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4604,13 +4325,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4931,10 +4652,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:BJ64"/>
+  <dimension ref="B1:AD64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4945,14 +4666,13 @@
     <col min="4" max="4" width="14.25" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.875" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.25" customWidth="1"/>
-    <col min="11" max="62" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.25" customWidth="1"/>
+    <col min="9" max="30" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:62" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:62" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:30" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:30" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="62" t="s">
         <v>2</v>
       </c>
@@ -4960,30 +4680,26 @@
       <c r="D2" s="62"/>
       <c r="E2" s="14"/>
       <c r="F2" s="22"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="2:62" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:30" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="16">
         <f ca="1">TODAY()</f>
-        <v>45652</v>
+        <v>45650</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="2:62" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="2:30" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="66" t="s">
         <v>84</v>
       </c>
@@ -4999,21 +4715,17 @@
       <c r="F4" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="72" t="s">
-        <v>204</v>
-      </c>
-      <c r="H4" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="I4" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="J4" s="75" t="s">
+      <c r="G4" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="K4" s="53">
+      <c r="H4" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="53">
         <v>45630</v>
       </c>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="54"/>
       <c r="M4" s="54"/>
       <c r="N4" s="54"/>
@@ -5032,450 +4744,203 @@
       <c r="AA4" s="54"/>
       <c r="AB4" s="54"/>
       <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="54">
-        <v>45658</v>
-      </c>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="54"/>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="54"/>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54"/>
-      <c r="AY4" s="54"/>
-      <c r="AZ4" s="54"/>
-      <c r="BA4" s="54"/>
-      <c r="BB4" s="54"/>
-      <c r="BC4" s="54"/>
-      <c r="BD4" s="54"/>
-      <c r="BE4" s="54"/>
-      <c r="BF4" s="54"/>
-      <c r="BG4" s="54"/>
-      <c r="BH4" s="54"/>
-      <c r="BI4" s="54"/>
-      <c r="BJ4" s="54"/>
-    </row>
-    <row r="5" spans="2:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD4" s="55"/>
+    </row>
+    <row r="5" spans="2:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="67"/>
       <c r="C5" s="64"/>
       <c r="D5" s="70"/>
       <c r="E5" s="73"/>
       <c r="F5" s="57"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="76"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="20">
+        <f>I4</f>
+        <v>45630</v>
+      </c>
+      <c r="J5" s="20">
+        <f>I5+1</f>
+        <v>45631</v>
+      </c>
       <c r="K5" s="20">
-        <f>K4</f>
-        <v>45630</v>
+        <f t="shared" ref="K5:AD6" si="0">J5+1</f>
+        <v>45632</v>
       </c>
       <c r="L5" s="20">
-        <f>K5+1</f>
-        <v>45631</v>
+        <f t="shared" si="0"/>
+        <v>45633</v>
       </c>
       <c r="M5" s="20">
-        <f t="shared" ref="M5:AE6" si="0">L5+1</f>
-        <v>45632</v>
+        <f t="shared" si="0"/>
+        <v>45634</v>
       </c>
       <c r="N5" s="20">
         <f t="shared" si="0"/>
-        <v>45633</v>
+        <v>45635</v>
       </c>
       <c r="O5" s="20">
         <f t="shared" si="0"/>
-        <v>45634</v>
+        <v>45636</v>
       </c>
       <c r="P5" s="20">
         <f t="shared" si="0"/>
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="Q5" s="20">
         <f t="shared" si="0"/>
-        <v>45636</v>
+        <v>45638</v>
       </c>
       <c r="R5" s="20">
         <f t="shared" si="0"/>
-        <v>45637</v>
+        <v>45639</v>
       </c>
       <c r="S5" s="20">
         <f t="shared" si="0"/>
-        <v>45638</v>
+        <v>45640</v>
       </c>
       <c r="T5" s="20">
         <f t="shared" si="0"/>
-        <v>45639</v>
+        <v>45641</v>
       </c>
       <c r="U5" s="20">
         <f t="shared" si="0"/>
-        <v>45640</v>
+        <v>45642</v>
       </c>
       <c r="V5" s="20">
         <f t="shared" si="0"/>
-        <v>45641</v>
+        <v>45643</v>
       </c>
       <c r="W5" s="20">
         <f t="shared" si="0"/>
-        <v>45642</v>
+        <v>45644</v>
       </c>
       <c r="X5" s="20">
         <f t="shared" si="0"/>
-        <v>45643</v>
+        <v>45645</v>
       </c>
       <c r="Y5" s="20">
         <f t="shared" si="0"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="Z5" s="20">
         <f t="shared" si="0"/>
-        <v>45645</v>
+        <v>45647</v>
       </c>
       <c r="AA5" s="20">
         <f t="shared" si="0"/>
-        <v>45646</v>
+        <v>45648</v>
       </c>
       <c r="AB5" s="20">
         <f t="shared" si="0"/>
-        <v>45647</v>
+        <v>45649</v>
       </c>
       <c r="AC5" s="20">
         <f t="shared" si="0"/>
-        <v>45648</v>
+        <v>45650</v>
       </c>
       <c r="AD5" s="20">
         <f t="shared" si="0"/>
-        <v>45649</v>
-      </c>
-      <c r="AE5" s="20">
-        <f t="shared" si="0"/>
-        <v>45650</v>
-      </c>
-      <c r="AF5" s="20">
-        <v>25</v>
-      </c>
-      <c r="AG5" s="20">
-        <v>26</v>
-      </c>
-      <c r="AH5" s="20">
-        <v>27</v>
-      </c>
-      <c r="AI5" s="20">
-        <v>28</v>
-      </c>
-      <c r="AJ5" s="20">
-        <v>29</v>
-      </c>
-      <c r="AK5" s="20">
-        <v>30</v>
-      </c>
-      <c r="AL5" s="20">
-        <v>31</v>
-      </c>
-      <c r="AM5" s="20">
-        <v>32</v>
-      </c>
-      <c r="AN5" s="20">
-        <v>33</v>
-      </c>
-      <c r="AO5" s="20">
-        <v>34</v>
-      </c>
-      <c r="AP5" s="20">
-        <v>35</v>
-      </c>
-      <c r="AQ5" s="20">
-        <v>36</v>
-      </c>
-      <c r="AR5" s="20">
-        <v>37</v>
-      </c>
-      <c r="AS5" s="20">
-        <v>38</v>
-      </c>
-      <c r="AT5" s="20">
-        <v>39</v>
-      </c>
-      <c r="AU5" s="20">
-        <v>40</v>
-      </c>
-      <c r="AV5" s="20">
-        <v>41</v>
-      </c>
-      <c r="AW5" s="20">
-        <v>42</v>
-      </c>
-      <c r="AX5" s="20">
-        <v>43</v>
-      </c>
-      <c r="AY5" s="20">
-        <v>44</v>
-      </c>
-      <c r="AZ5" s="20">
-        <v>45</v>
-      </c>
-      <c r="BA5" s="20">
-        <v>46</v>
-      </c>
-      <c r="BB5" s="20">
-        <v>47</v>
-      </c>
-      <c r="BC5" s="20">
-        <v>48</v>
-      </c>
-      <c r="BD5" s="20">
-        <v>49</v>
-      </c>
-      <c r="BE5" s="20">
-        <v>50</v>
-      </c>
-      <c r="BF5" s="20">
-        <v>51</v>
-      </c>
-      <c r="BG5" s="20">
-        <v>52</v>
-      </c>
-      <c r="BH5" s="20">
-        <v>53</v>
-      </c>
-      <c r="BI5" s="20">
-        <v>54</v>
-      </c>
-      <c r="BJ5" s="20">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="2:62" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="68"/>
       <c r="C6" s="65"/>
       <c r="D6" s="71"/>
       <c r="E6" s="74"/>
       <c r="F6" s="58"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="77"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="21">
+        <f>I5</f>
+        <v>45630</v>
+      </c>
+      <c r="J6" s="21">
+        <f>I6+1</f>
+        <v>45631</v>
+      </c>
       <c r="K6" s="21">
-        <f>K5</f>
-        <v>45630</v>
+        <f t="shared" si="0"/>
+        <v>45632</v>
       </c>
       <c r="L6" s="21">
-        <f>K6+1</f>
-        <v>45631</v>
+        <f t="shared" si="0"/>
+        <v>45633</v>
       </c>
       <c r="M6" s="21">
         <f t="shared" si="0"/>
-        <v>45632</v>
+        <v>45634</v>
       </c>
       <c r="N6" s="21">
         <f t="shared" si="0"/>
-        <v>45633</v>
+        <v>45635</v>
       </c>
       <c r="O6" s="21">
         <f t="shared" si="0"/>
-        <v>45634</v>
+        <v>45636</v>
       </c>
       <c r="P6" s="21">
         <f t="shared" si="0"/>
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="Q6" s="21">
         <f t="shared" si="0"/>
-        <v>45636</v>
+        <v>45638</v>
       </c>
       <c r="R6" s="21">
         <f t="shared" si="0"/>
-        <v>45637</v>
+        <v>45639</v>
       </c>
       <c r="S6" s="21">
         <f t="shared" si="0"/>
-        <v>45638</v>
+        <v>45640</v>
       </c>
       <c r="T6" s="21">
         <f t="shared" si="0"/>
-        <v>45639</v>
+        <v>45641</v>
       </c>
       <c r="U6" s="21">
         <f t="shared" si="0"/>
-        <v>45640</v>
+        <v>45642</v>
       </c>
       <c r="V6" s="21">
         <f t="shared" si="0"/>
-        <v>45641</v>
+        <v>45643</v>
       </c>
       <c r="W6" s="21">
         <f t="shared" si="0"/>
-        <v>45642</v>
+        <v>45644</v>
       </c>
       <c r="X6" s="21">
         <f t="shared" si="0"/>
-        <v>45643</v>
+        <v>45645</v>
       </c>
       <c r="Y6" s="21">
         <f t="shared" si="0"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="Z6" s="21">
         <f t="shared" si="0"/>
-        <v>45645</v>
+        <v>45647</v>
       </c>
       <c r="AA6" s="21">
         <f t="shared" si="0"/>
-        <v>45646</v>
+        <v>45648</v>
       </c>
       <c r="AB6" s="21">
         <f t="shared" si="0"/>
-        <v>45647</v>
+        <v>45649</v>
       </c>
       <c r="AC6" s="21">
         <f t="shared" si="0"/>
-        <v>45648</v>
+        <v>45650</v>
       </c>
       <c r="AD6" s="21">
         <f t="shared" si="0"/>
-        <v>45649</v>
-      </c>
-      <c r="AE6" s="21">
-        <f t="shared" si="0"/>
-        <v>45650</v>
-      </c>
-      <c r="AF6" s="21">
-        <f t="shared" ref="AF6" si="1">AE6+1</f>
         <v>45651</v>
       </c>
-      <c r="AG6" s="21">
-        <f t="shared" ref="AG6" si="2">AF6+1</f>
-        <v>45652</v>
-      </c>
-      <c r="AH6" s="21">
-        <f t="shared" ref="AH6" si="3">AG6+1</f>
-        <v>45653</v>
-      </c>
-      <c r="AI6" s="21">
-        <f t="shared" ref="AI6" si="4">AH6+1</f>
-        <v>45654</v>
-      </c>
-      <c r="AJ6" s="21">
-        <f t="shared" ref="AJ6" si="5">AI6+1</f>
-        <v>45655</v>
-      </c>
-      <c r="AK6" s="21">
-        <f t="shared" ref="AK6" si="6">AJ6+1</f>
-        <v>45656</v>
-      </c>
-      <c r="AL6" s="21">
-        <f t="shared" ref="AL6" si="7">AK6+1</f>
-        <v>45657</v>
-      </c>
-      <c r="AM6" s="21">
-        <f t="shared" ref="AM6" si="8">AL6+1</f>
-        <v>45658</v>
-      </c>
-      <c r="AN6" s="21">
-        <f t="shared" ref="AN6" si="9">AM6+1</f>
-        <v>45659</v>
-      </c>
-      <c r="AO6" s="21">
-        <f t="shared" ref="AO6" si="10">AN6+1</f>
-        <v>45660</v>
-      </c>
-      <c r="AP6" s="21">
-        <f t="shared" ref="AP6" si="11">AO6+1</f>
-        <v>45661</v>
-      </c>
-      <c r="AQ6" s="21">
-        <f t="shared" ref="AQ6" si="12">AP6+1</f>
-        <v>45662</v>
-      </c>
-      <c r="AR6" s="21">
-        <f t="shared" ref="AR6" si="13">AQ6+1</f>
-        <v>45663</v>
-      </c>
-      <c r="AS6" s="21">
-        <f t="shared" ref="AS6" si="14">AR6+1</f>
-        <v>45664</v>
-      </c>
-      <c r="AT6" s="21">
-        <f t="shared" ref="AT6" si="15">AS6+1</f>
-        <v>45665</v>
-      </c>
-      <c r="AU6" s="21">
-        <f t="shared" ref="AU6" si="16">AT6+1</f>
-        <v>45666</v>
-      </c>
-      <c r="AV6" s="21">
-        <f t="shared" ref="AV6" si="17">AU6+1</f>
-        <v>45667</v>
-      </c>
-      <c r="AW6" s="21">
-        <f t="shared" ref="AW6" si="18">AV6+1</f>
-        <v>45668</v>
-      </c>
-      <c r="AX6" s="21">
-        <f t="shared" ref="AX6" si="19">AW6+1</f>
-        <v>45669</v>
-      </c>
-      <c r="AY6" s="21">
-        <f t="shared" ref="AY6" si="20">AX6+1</f>
-        <v>45670</v>
-      </c>
-      <c r="AZ6" s="21">
-        <f t="shared" ref="AZ6" si="21">AY6+1</f>
-        <v>45671</v>
-      </c>
-      <c r="BA6" s="21">
-        <f t="shared" ref="BA6" si="22">AZ6+1</f>
-        <v>45672</v>
-      </c>
-      <c r="BB6" s="21">
-        <f t="shared" ref="BB6" si="23">BA6+1</f>
-        <v>45673</v>
-      </c>
-      <c r="BC6" s="21">
-        <f t="shared" ref="BC6" si="24">BB6+1</f>
-        <v>45674</v>
-      </c>
-      <c r="BD6" s="21">
-        <f t="shared" ref="BD6" si="25">BC6+1</f>
-        <v>45675</v>
-      </c>
-      <c r="BE6" s="21">
-        <f t="shared" ref="BE6" si="26">BD6+1</f>
-        <v>45676</v>
-      </c>
-      <c r="BF6" s="21">
-        <f t="shared" ref="BF6" si="27">BE6+1</f>
-        <v>45677</v>
-      </c>
-      <c r="BG6" s="21">
-        <f t="shared" ref="BG6" si="28">BF6+1</f>
-        <v>45678</v>
-      </c>
-      <c r="BH6" s="21">
-        <f t="shared" ref="BH6" si="29">BG6+1</f>
-        <v>45679</v>
-      </c>
-      <c r="BI6" s="21">
-        <f t="shared" ref="BI6" si="30">BH6+1</f>
-        <v>45680</v>
-      </c>
-      <c r="BJ6" s="21">
-        <f t="shared" ref="BJ6" si="31">BI6+1</f>
-        <v>45681</v>
-      </c>
-    </row>
-    <row r="7" spans="2:62" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:30" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -5490,15 +4955,15 @@
         <f>IF(E7="","",E7+1-D7)</f>
         <v>6</v>
       </c>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="18">
+      <c r="G7" s="18">
         <v>70</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="2" t="s">
+      <c r="H7" s="31"/>
+      <c r="I7" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -5518,45 +4983,13 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2"/>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
-      <c r="AY7" s="2"/>
-      <c r="AZ7" s="2"/>
-      <c r="BA7" s="2"/>
-      <c r="BB7" s="2"/>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
-      <c r="BF7" s="2"/>
-      <c r="BG7" s="2"/>
-      <c r="BH7" s="2"/>
-      <c r="BI7" s="2"/>
-      <c r="BJ7" s="2"/>
-    </row>
-    <row r="8" spans="2:62" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:30" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D8" s="12">
         <v>45630</v>
@@ -5565,19 +4998,15 @@
         <v>45635</v>
       </c>
       <c r="F8" s="24">
-        <f t="shared" ref="F8:F64" si="32">IF(E8="","",E8+1-D8)</f>
+        <f t="shared" ref="F8:F64" si="1">IF(E8="","",E8+1-D8)</f>
         <v>6</v>
       </c>
-      <c r="G8" s="95">
-        <v>45660</v>
-      </c>
-      <c r="H8" s="95">
-        <v>45663</v>
-      </c>
-      <c r="I8" s="19">
-        <v>100</v>
-      </c>
-      <c r="J8" s="19"/>
+      <c r="G8" s="19">
+        <v>50</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -5598,45 +5027,13 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
-      <c r="AU8" s="1"/>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="1"/>
-      <c r="AX8" s="1"/>
-      <c r="AY8" s="1"/>
-      <c r="AZ8" s="1"/>
-      <c r="BA8" s="1"/>
-      <c r="BB8" s="1"/>
-      <c r="BC8" s="1"/>
-      <c r="BD8" s="1"/>
-      <c r="BE8" s="1"/>
-      <c r="BF8" s="1"/>
-      <c r="BG8" s="1"/>
-      <c r="BH8" s="1"/>
-      <c r="BI8" s="1"/>
-      <c r="BJ8" s="1"/>
-    </row>
-    <row r="9" spans="2:62" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="D9" s="12">
         <v>45630</v>
@@ -5645,19 +5042,15 @@
         <v>45635</v>
       </c>
       <c r="F9" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G9" s="95">
-        <v>45660</v>
-      </c>
-      <c r="H9" s="95">
-        <v>45663</v>
-      </c>
-      <c r="I9" s="19">
+      <c r="G9" s="19">
         <v>50</v>
       </c>
-      <c r="J9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -5678,45 +5071,13 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
-      <c r="AZ9" s="1"/>
-      <c r="BA9" s="1"/>
-      <c r="BB9" s="1"/>
-      <c r="BC9" s="1"/>
-      <c r="BD9" s="1"/>
-      <c r="BE9" s="1"/>
-      <c r="BF9" s="1"/>
-      <c r="BG9" s="1"/>
-      <c r="BH9" s="1"/>
-      <c r="BI9" s="1"/>
-      <c r="BJ9" s="1"/>
-    </row>
-    <row r="10" spans="2:62" ht="66" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:30" ht="66" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D10" s="12">
         <v>45630</v>
@@ -5725,15 +5086,15 @@
         <v>45635</v>
       </c>
       <c r="F10" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="19">
+      <c r="G10" s="19">
         <v>100</v>
       </c>
-      <c r="J10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -5754,45 +5115,13 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
-      <c r="BC10" s="1"/>
-      <c r="BD10" s="1"/>
-      <c r="BE10" s="1"/>
-      <c r="BF10" s="1"/>
-      <c r="BG10" s="1"/>
-      <c r="BH10" s="1"/>
-      <c r="BI10" s="1"/>
-      <c r="BJ10" s="1"/>
-    </row>
-    <row r="11" spans="2:62" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D11" s="12">
         <v>45630</v>
@@ -5801,15 +5130,15 @@
         <v>45635</v>
       </c>
       <c r="F11" s="24">
-        <f t="shared" ref="F11" si="33">IF(E11="","",E11+1-D11)</f>
+        <f t="shared" ref="F11" si="2">IF(E11="","",E11+1-D11)</f>
         <v>6</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="19">
+      <c r="G11" s="19">
         <v>100</v>
       </c>
-      <c r="J11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -5830,45 +5159,13 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-      <c r="BC11" s="1"/>
-      <c r="BD11" s="1"/>
-      <c r="BE11" s="1"/>
-      <c r="BF11" s="1"/>
-      <c r="BG11" s="1"/>
-      <c r="BH11" s="1"/>
-      <c r="BI11" s="1"/>
-      <c r="BJ11" s="1"/>
-    </row>
-    <row r="12" spans="2:62" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D12" s="12">
         <v>45630</v>
@@ -5877,15 +5174,15 @@
         <v>45635</v>
       </c>
       <c r="F12" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="19">
+      <c r="G12" s="19">
         <v>100</v>
       </c>
-      <c r="J12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -5906,44 +5203,12 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="1"/>
-      <c r="AZ12" s="1"/>
-      <c r="BA12" s="1"/>
-      <c r="BB12" s="1"/>
-      <c r="BC12" s="1"/>
-      <c r="BD12" s="1"/>
-      <c r="BE12" s="1"/>
-      <c r="BF12" s="1"/>
-      <c r="BG12" s="1"/>
-      <c r="BH12" s="1"/>
-      <c r="BI12" s="1"/>
-      <c r="BJ12" s="1"/>
-    </row>
-    <row r="13" spans="2:62" ht="26.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:30" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="12">
@@ -5953,15 +5218,15 @@
         <v>45635</v>
       </c>
       <c r="F13" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="19">
+      <c r="G13" s="19">
         <v>100</v>
       </c>
-      <c r="J13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -5982,45 +5247,13 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
-      <c r="BE13" s="1"/>
-      <c r="BF13" s="1"/>
-      <c r="BG13" s="1"/>
-      <c r="BH13" s="1"/>
-      <c r="BI13" s="1"/>
-      <c r="BJ13" s="1"/>
-    </row>
-    <row r="14" spans="2:62" ht="148.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:30" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="D14" s="12">
         <v>45630</v>
@@ -6029,19 +5262,15 @@
         <v>45635</v>
       </c>
       <c r="F14" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G14" s="95">
-        <v>45660</v>
-      </c>
-      <c r="H14" s="95">
-        <v>45663</v>
-      </c>
-      <c r="I14" s="19">
+      <c r="G14" s="19">
         <v>50</v>
       </c>
-      <c r="J14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -6062,45 +5291,13 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
-      <c r="AX14" s="1"/>
-      <c r="AY14" s="1"/>
-      <c r="AZ14" s="1"/>
-      <c r="BA14" s="1"/>
-      <c r="BB14" s="1"/>
-      <c r="BC14" s="1"/>
-      <c r="BD14" s="1"/>
-      <c r="BE14" s="1"/>
-      <c r="BF14" s="1"/>
-      <c r="BG14" s="1"/>
-      <c r="BH14" s="1"/>
-      <c r="BI14" s="1"/>
-      <c r="BJ14" s="1"/>
-    </row>
-    <row r="15" spans="2:62" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="D15" s="12">
         <v>45630</v>
@@ -6109,19 +5306,15 @@
         <v>45635</v>
       </c>
       <c r="F15" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G15" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="H15" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="I15" s="19">
-        <v>75</v>
-      </c>
-      <c r="J15" s="19"/>
+      <c r="G15" s="19">
+        <v>100</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -6142,40 +5335,8 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
-      <c r="BC15" s="1"/>
-      <c r="BD15" s="1"/>
-      <c r="BE15" s="1"/>
-      <c r="BF15" s="1"/>
-      <c r="BG15" s="1"/>
-      <c r="BH15" s="1"/>
-      <c r="BI15" s="1"/>
-      <c r="BJ15" s="1"/>
-    </row>
-    <row r="16" spans="2:62" ht="37.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
@@ -6189,15 +5350,15 @@
         <v>45638</v>
       </c>
       <c r="F16" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="19">
+      <c r="G16" s="19">
         <v>70</v>
       </c>
-      <c r="J16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -6218,45 +5379,13 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="1"/>
-      <c r="AS16" s="1"/>
-      <c r="AT16" s="1"/>
-      <c r="AU16" s="1"/>
-      <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
-      <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="1"/>
-      <c r="BB16" s="1"/>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
-      <c r="BE16" s="1"/>
-      <c r="BF16" s="1"/>
-      <c r="BG16" s="1"/>
-      <c r="BH16" s="1"/>
-      <c r="BI16" s="1"/>
-      <c r="BJ16" s="1"/>
-    </row>
-    <row r="17" spans="2:62" ht="31.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:30" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D17" s="12">
         <v>45636</v>
@@ -6265,19 +5394,15 @@
         <v>45638</v>
       </c>
       <c r="F17" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G17" s="95">
-        <v>45663</v>
-      </c>
-      <c r="H17" s="95">
-        <v>45664</v>
-      </c>
-      <c r="I17" s="19">
+      <c r="G17" s="19">
         <v>70</v>
       </c>
-      <c r="J17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -6298,45 +5423,13 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
-      <c r="AO17" s="1"/>
-      <c r="AP17" s="1"/>
-      <c r="AQ17" s="1"/>
-      <c r="AR17" s="1"/>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="1"/>
-      <c r="AU17" s="1"/>
-      <c r="AV17" s="1"/>
-      <c r="AW17" s="1"/>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
-      <c r="AZ17" s="1"/>
-      <c r="BA17" s="1"/>
-      <c r="BB17" s="1"/>
-      <c r="BC17" s="1"/>
-      <c r="BD17" s="1"/>
-      <c r="BE17" s="1"/>
-      <c r="BF17" s="1"/>
-      <c r="BG17" s="1"/>
-      <c r="BH17" s="1"/>
-      <c r="BI17" s="1"/>
-      <c r="BJ17" s="1"/>
-    </row>
-    <row r="18" spans="2:62" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D18" s="12">
         <v>45636</v>
@@ -6345,15 +5438,15 @@
         <v>45638</v>
       </c>
       <c r="F18" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="19">
-        <v>100</v>
-      </c>
-      <c r="J18" s="19"/>
+      <c r="G18" s="19">
+        <v>50</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -6374,45 +5467,13 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="1"/>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
-      <c r="AQ18" s="1"/>
-      <c r="AR18" s="1"/>
-      <c r="AS18" s="1"/>
-      <c r="AT18" s="1"/>
-      <c r="AU18" s="1"/>
-      <c r="AV18" s="1"/>
-      <c r="AW18" s="1"/>
-      <c r="AX18" s="1"/>
-      <c r="AY18" s="1"/>
-      <c r="AZ18" s="1"/>
-      <c r="BA18" s="1"/>
-      <c r="BB18" s="1"/>
-      <c r="BC18" s="1"/>
-      <c r="BD18" s="1"/>
-      <c r="BE18" s="1"/>
-      <c r="BF18" s="1"/>
-      <c r="BG18" s="1"/>
-      <c r="BH18" s="1"/>
-      <c r="BI18" s="1"/>
-      <c r="BJ18" s="1"/>
-    </row>
-    <row r="19" spans="2:62" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:30" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B19" s="37" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D19" s="12">
         <v>45636</v>
@@ -6421,19 +5482,15 @@
         <v>45638</v>
       </c>
       <c r="F19" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G19" s="95">
-        <v>45663</v>
-      </c>
-      <c r="H19" s="95">
-        <v>45664</v>
-      </c>
-      <c r="I19" s="19">
+      <c r="G19" s="19">
         <v>0</v>
       </c>
-      <c r="J19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -6454,45 +5511,13 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="1"/>
-      <c r="AR19" s="1"/>
-      <c r="AS19" s="1"/>
-      <c r="AT19" s="1"/>
-      <c r="AU19" s="1"/>
-      <c r="AV19" s="1"/>
-      <c r="AW19" s="1"/>
-      <c r="AX19" s="1"/>
-      <c r="AY19" s="1"/>
-      <c r="AZ19" s="1"/>
-      <c r="BA19" s="1"/>
-      <c r="BB19" s="1"/>
-      <c r="BC19" s="1"/>
-      <c r="BD19" s="1"/>
-      <c r="BE19" s="1"/>
-      <c r="BF19" s="1"/>
-      <c r="BG19" s="1"/>
-      <c r="BH19" s="1"/>
-      <c r="BI19" s="1"/>
-      <c r="BJ19" s="1"/>
-    </row>
-    <row r="20" spans="2:62" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D20" s="12">
         <v>45636</v>
@@ -6501,19 +5526,15 @@
         <v>45638</v>
       </c>
       <c r="F20" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G20" s="95">
-        <v>45664</v>
-      </c>
-      <c r="H20" s="95">
-        <v>45665</v>
-      </c>
-      <c r="I20" s="19">
+      <c r="G20" s="19">
         <v>50</v>
       </c>
-      <c r="J20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -6534,45 +5555,13 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="1"/>
-      <c r="AO20" s="1"/>
-      <c r="AP20" s="1"/>
-      <c r="AQ20" s="1"/>
-      <c r="AR20" s="1"/>
-      <c r="AS20" s="1"/>
-      <c r="AT20" s="1"/>
-      <c r="AU20" s="1"/>
-      <c r="AV20" s="1"/>
-      <c r="AW20" s="1"/>
-      <c r="AX20" s="1"/>
-      <c r="AY20" s="1"/>
-      <c r="AZ20" s="1"/>
-      <c r="BA20" s="1"/>
-      <c r="BB20" s="1"/>
-      <c r="BC20" s="1"/>
-      <c r="BD20" s="1"/>
-      <c r="BE20" s="1"/>
-      <c r="BF20" s="1"/>
-      <c r="BG20" s="1"/>
-      <c r="BH20" s="1"/>
-      <c r="BI20" s="1"/>
-      <c r="BJ20" s="1"/>
-    </row>
-    <row r="21" spans="2:62" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D21" s="12">
         <v>45636</v>
@@ -6581,19 +5570,15 @@
         <v>45638</v>
       </c>
       <c r="F21" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G21" s="95">
-        <v>45664</v>
-      </c>
-      <c r="H21" s="95">
-        <v>45665</v>
-      </c>
-      <c r="I21" s="19">
+      <c r="G21" s="19">
         <v>50</v>
       </c>
-      <c r="J21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -6614,45 +5599,13 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
-      <c r="AP21" s="1"/>
-      <c r="AQ21" s="1"/>
-      <c r="AR21" s="1"/>
-      <c r="AS21" s="1"/>
-      <c r="AT21" s="1"/>
-      <c r="AU21" s="1"/>
-      <c r="AV21" s="1"/>
-      <c r="AW21" s="1"/>
-      <c r="AX21" s="1"/>
-      <c r="AY21" s="1"/>
-      <c r="AZ21" s="1"/>
-      <c r="BA21" s="1"/>
-      <c r="BB21" s="1"/>
-      <c r="BC21" s="1"/>
-      <c r="BD21" s="1"/>
-      <c r="BE21" s="1"/>
-      <c r="BF21" s="1"/>
-      <c r="BG21" s="1"/>
-      <c r="BH21" s="1"/>
-      <c r="BI21" s="1"/>
-      <c r="BJ21" s="1"/>
-    </row>
-    <row r="22" spans="2:62" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:30" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D22" s="12">
         <v>45636</v>
@@ -6661,19 +5614,15 @@
         <v>45638</v>
       </c>
       <c r="F22" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G22" s="95">
-        <v>45664</v>
-      </c>
-      <c r="H22" s="95">
-        <v>45665</v>
-      </c>
-      <c r="I22" s="19">
+      <c r="G22" s="19">
         <v>50</v>
       </c>
-      <c r="J22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -6694,45 +5643,13 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
-      <c r="AR22" s="1"/>
-      <c r="AS22" s="1"/>
-      <c r="AT22" s="1"/>
-      <c r="AU22" s="1"/>
-      <c r="AV22" s="1"/>
-      <c r="AW22" s="1"/>
-      <c r="AX22" s="1"/>
-      <c r="AY22" s="1"/>
-      <c r="AZ22" s="1"/>
-      <c r="BA22" s="1"/>
-      <c r="BB22" s="1"/>
-      <c r="BC22" s="1"/>
-      <c r="BD22" s="1"/>
-      <c r="BE22" s="1"/>
-      <c r="BF22" s="1"/>
-      <c r="BG22" s="1"/>
-      <c r="BH22" s="1"/>
-      <c r="BI22" s="1"/>
-      <c r="BJ22" s="1"/>
-    </row>
-    <row r="23" spans="2:62" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="D23" s="12">
         <v>45636</v>
@@ -6741,19 +5658,15 @@
         <v>45638</v>
       </c>
       <c r="F23" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G23" s="95">
-        <v>45664</v>
-      </c>
-      <c r="H23" s="95">
-        <v>45665</v>
-      </c>
-      <c r="I23" s="19">
+      <c r="G23" s="19">
         <v>50</v>
       </c>
-      <c r="J23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -6774,40 +5687,8 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="1"/>
-      <c r="AR23" s="1"/>
-      <c r="AS23" s="1"/>
-      <c r="AT23" s="1"/>
-      <c r="AU23" s="1"/>
-      <c r="AV23" s="1"/>
-      <c r="AW23" s="1"/>
-      <c r="AX23" s="1"/>
-      <c r="AY23" s="1"/>
-      <c r="AZ23" s="1"/>
-      <c r="BA23" s="1"/>
-      <c r="BB23" s="1"/>
-      <c r="BC23" s="1"/>
-      <c r="BD23" s="1"/>
-      <c r="BE23" s="1"/>
-      <c r="BF23" s="1"/>
-      <c r="BG23" s="1"/>
-      <c r="BH23" s="1"/>
-      <c r="BI23" s="1"/>
-      <c r="BJ23" s="1"/>
-    </row>
-    <row r="24" spans="2:62" ht="26.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:30" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>20</v>
       </c>
@@ -6821,19 +5702,15 @@
         <v>45638</v>
       </c>
       <c r="F24" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G24" s="95">
-        <v>45664</v>
-      </c>
-      <c r="H24" s="95">
-        <v>45665</v>
-      </c>
-      <c r="I24" s="19">
+      <c r="G24" s="19">
         <v>50</v>
       </c>
-      <c r="J24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -6854,45 +5731,13 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
-      <c r="AP24" s="1"/>
-      <c r="AQ24" s="1"/>
-      <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
-      <c r="AT24" s="1"/>
-      <c r="AU24" s="1"/>
-      <c r="AV24" s="1"/>
-      <c r="AW24" s="1"/>
-      <c r="AX24" s="1"/>
-      <c r="AY24" s="1"/>
-      <c r="AZ24" s="1"/>
-      <c r="BA24" s="1"/>
-      <c r="BB24" s="1"/>
-      <c r="BC24" s="1"/>
-      <c r="BD24" s="1"/>
-      <c r="BE24" s="1"/>
-      <c r="BF24" s="1"/>
-      <c r="BG24" s="1"/>
-      <c r="BH24" s="1"/>
-      <c r="BI24" s="1"/>
-      <c r="BJ24" s="1"/>
-    </row>
-    <row r="25" spans="2:62" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="D25" s="12">
         <v>45636</v>
@@ -6901,19 +5746,15 @@
         <v>45638</v>
       </c>
       <c r="F25" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G25" s="95">
-        <v>45665</v>
-      </c>
-      <c r="H25" s="95">
-        <v>45666</v>
-      </c>
-      <c r="I25" s="19">
+      <c r="G25" s="19">
         <v>50</v>
       </c>
-      <c r="J25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -6934,45 +5775,13 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
-      <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
-      <c r="AX25" s="1"/>
-      <c r="AY25" s="1"/>
-      <c r="AZ25" s="1"/>
-      <c r="BA25" s="1"/>
-      <c r="BB25" s="1"/>
-      <c r="BC25" s="1"/>
-      <c r="BD25" s="1"/>
-      <c r="BE25" s="1"/>
-      <c r="BF25" s="1"/>
-      <c r="BG25" s="1"/>
-      <c r="BH25" s="1"/>
-      <c r="BI25" s="1"/>
-      <c r="BJ25" s="1"/>
-    </row>
-    <row r="26" spans="2:62" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D26" s="12">
         <v>45636</v>
@@ -6981,15 +5790,15 @@
         <v>45638</v>
       </c>
       <c r="F26" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="19">
+      <c r="G26" s="19">
         <v>100</v>
       </c>
-      <c r="J26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -7010,45 +5819,13 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
-      <c r="AO26" s="1"/>
-      <c r="AP26" s="1"/>
-      <c r="AQ26" s="1"/>
-      <c r="AR26" s="1"/>
-      <c r="AS26" s="1"/>
-      <c r="AT26" s="1"/>
-      <c r="AU26" s="1"/>
-      <c r="AV26" s="1"/>
-      <c r="AW26" s="1"/>
-      <c r="AX26" s="1"/>
-      <c r="AY26" s="1"/>
-      <c r="AZ26" s="1"/>
-      <c r="BA26" s="1"/>
-      <c r="BB26" s="1"/>
-      <c r="BC26" s="1"/>
-      <c r="BD26" s="1"/>
-      <c r="BE26" s="1"/>
-      <c r="BF26" s="1"/>
-      <c r="BG26" s="1"/>
-      <c r="BH26" s="1"/>
-      <c r="BI26" s="1"/>
-      <c r="BJ26" s="1"/>
-    </row>
-    <row r="27" spans="2:62" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D27" s="12">
         <v>45636</v>
@@ -7057,15 +5834,15 @@
         <v>45638</v>
       </c>
       <c r="F27" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="19">
+      <c r="G27" s="19">
         <v>100</v>
       </c>
-      <c r="J27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -7086,45 +5863,13 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
-      <c r="AO27" s="1"/>
-      <c r="AP27" s="1"/>
-      <c r="AQ27" s="1"/>
-      <c r="AR27" s="1"/>
-      <c r="AS27" s="1"/>
-      <c r="AT27" s="1"/>
-      <c r="AU27" s="1"/>
-      <c r="AV27" s="1"/>
-      <c r="AW27" s="1"/>
-      <c r="AX27" s="1"/>
-      <c r="AY27" s="1"/>
-      <c r="AZ27" s="1"/>
-      <c r="BA27" s="1"/>
-      <c r="BB27" s="1"/>
-      <c r="BC27" s="1"/>
-      <c r="BD27" s="1"/>
-      <c r="BE27" s="1"/>
-      <c r="BF27" s="1"/>
-      <c r="BG27" s="1"/>
-      <c r="BH27" s="1"/>
-      <c r="BI27" s="1"/>
-      <c r="BJ27" s="1"/>
-    </row>
-    <row r="28" spans="2:62" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:30" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="D28" s="12">
         <v>45636</v>
@@ -7133,19 +5878,15 @@
         <v>45638</v>
       </c>
       <c r="F28" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G28" s="95">
-        <v>45665</v>
-      </c>
-      <c r="H28" s="95">
-        <v>45666</v>
-      </c>
-      <c r="I28" s="19">
-        <v>90</v>
-      </c>
-      <c r="J28" s="19"/>
+      <c r="G28" s="19">
+        <v>50</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -7166,45 +5907,13 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="1"/>
-      <c r="AP28" s="1"/>
-      <c r="AQ28" s="1"/>
-      <c r="AR28" s="1"/>
-      <c r="AS28" s="1"/>
-      <c r="AT28" s="1"/>
-      <c r="AU28" s="1"/>
-      <c r="AV28" s="1"/>
-      <c r="AW28" s="1"/>
-      <c r="AX28" s="1"/>
-      <c r="AY28" s="1"/>
-      <c r="AZ28" s="1"/>
-      <c r="BA28" s="1"/>
-      <c r="BB28" s="1"/>
-      <c r="BC28" s="1"/>
-      <c r="BD28" s="1"/>
-      <c r="BE28" s="1"/>
-      <c r="BF28" s="1"/>
-      <c r="BG28" s="1"/>
-      <c r="BH28" s="1"/>
-      <c r="BI28" s="1"/>
-      <c r="BJ28" s="1"/>
-    </row>
-    <row r="29" spans="2:62" ht="66" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:30" ht="66" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D29" s="12">
         <v>45636</v>
@@ -7213,15 +5922,15 @@
         <v>45638</v>
       </c>
       <c r="F29" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="19">
+      <c r="G29" s="19">
         <v>75</v>
       </c>
-      <c r="J29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -7242,45 +5951,13 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
-      <c r="AM29" s="1"/>
-      <c r="AN29" s="1"/>
-      <c r="AO29" s="1"/>
-      <c r="AP29" s="1"/>
-      <c r="AQ29" s="1"/>
-      <c r="AR29" s="1"/>
-      <c r="AS29" s="1"/>
-      <c r="AT29" s="1"/>
-      <c r="AU29" s="1"/>
-      <c r="AV29" s="1"/>
-      <c r="AW29" s="1"/>
-      <c r="AX29" s="1"/>
-      <c r="AY29" s="1"/>
-      <c r="AZ29" s="1"/>
-      <c r="BA29" s="1"/>
-      <c r="BB29" s="1"/>
-      <c r="BC29" s="1"/>
-      <c r="BD29" s="1"/>
-      <c r="BE29" s="1"/>
-      <c r="BF29" s="1"/>
-      <c r="BG29" s="1"/>
-      <c r="BH29" s="1"/>
-      <c r="BI29" s="1"/>
-      <c r="BJ29" s="1"/>
-    </row>
-    <row r="30" spans="2:62" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D30" s="12">
         <v>45636</v>
@@ -7289,15 +5966,15 @@
         <v>45638</v>
       </c>
       <c r="F30" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="19">
+      <c r="G30" s="19">
         <v>75</v>
       </c>
-      <c r="J30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -7318,45 +5995,13 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="1"/>
-      <c r="AQ30" s="1"/>
-      <c r="AR30" s="1"/>
-      <c r="AS30" s="1"/>
-      <c r="AT30" s="1"/>
-      <c r="AU30" s="1"/>
-      <c r="AV30" s="1"/>
-      <c r="AW30" s="1"/>
-      <c r="AX30" s="1"/>
-      <c r="AY30" s="1"/>
-      <c r="AZ30" s="1"/>
-      <c r="BA30" s="1"/>
-      <c r="BB30" s="1"/>
-      <c r="BC30" s="1"/>
-      <c r="BD30" s="1"/>
-      <c r="BE30" s="1"/>
-      <c r="BF30" s="1"/>
-      <c r="BG30" s="1"/>
-      <c r="BH30" s="1"/>
-      <c r="BI30" s="1"/>
-      <c r="BJ30" s="1"/>
-    </row>
-    <row r="31" spans="2:62" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D31" s="12">
         <v>45636</v>
@@ -7365,15 +6010,15 @@
         <v>45638</v>
       </c>
       <c r="F31" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="19">
+      <c r="G31" s="19">
         <v>75</v>
       </c>
-      <c r="J31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -7394,40 +6039,8 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
-      <c r="AT31" s="1"/>
-      <c r="AU31" s="1"/>
-      <c r="AV31" s="1"/>
-      <c r="AW31" s="1"/>
-      <c r="AX31" s="1"/>
-      <c r="AY31" s="1"/>
-      <c r="AZ31" s="1"/>
-      <c r="BA31" s="1"/>
-      <c r="BB31" s="1"/>
-      <c r="BC31" s="1"/>
-      <c r="BD31" s="1"/>
-      <c r="BE31" s="1"/>
-      <c r="BF31" s="1"/>
-      <c r="BG31" s="1"/>
-      <c r="BH31" s="1"/>
-      <c r="BI31" s="1"/>
-      <c r="BJ31" s="1"/>
-    </row>
-    <row r="32" spans="2:62" ht="37.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>12</v>
       </c>
@@ -7439,15 +6052,15 @@
         <v>45638</v>
       </c>
       <c r="F32" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="19">
+      <c r="G32" s="19">
         <v>100</v>
       </c>
-      <c r="J32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -7468,40 +6081,8 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="1"/>
-      <c r="AP32" s="1"/>
-      <c r="AQ32" s="1"/>
-      <c r="AR32" s="1"/>
-      <c r="AS32" s="1"/>
-      <c r="AT32" s="1"/>
-      <c r="AU32" s="1"/>
-      <c r="AV32" s="1"/>
-      <c r="AW32" s="1"/>
-      <c r="AX32" s="1"/>
-      <c r="AY32" s="1"/>
-      <c r="AZ32" s="1"/>
-      <c r="BA32" s="1"/>
-      <c r="BB32" s="1"/>
-      <c r="BC32" s="1"/>
-      <c r="BD32" s="1"/>
-      <c r="BE32" s="1"/>
-      <c r="BF32" s="1"/>
-      <c r="BG32" s="1"/>
-      <c r="BH32" s="1"/>
-      <c r="BI32" s="1"/>
-      <c r="BJ32" s="1"/>
-    </row>
-    <row r="33" spans="2:62" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:30" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>28</v>
       </c>
@@ -7515,15 +6096,15 @@
         <v>45638</v>
       </c>
       <c r="F33" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="19">
+      <c r="G33" s="19">
         <v>100</v>
       </c>
-      <c r="J33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -7544,45 +6125,13 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="1"/>
-      <c r="AO33" s="1"/>
-      <c r="AP33" s="1"/>
-      <c r="AQ33" s="1"/>
-      <c r="AR33" s="1"/>
-      <c r="AS33" s="1"/>
-      <c r="AT33" s="1"/>
-      <c r="AU33" s="1"/>
-      <c r="AV33" s="1"/>
-      <c r="AW33" s="1"/>
-      <c r="AX33" s="1"/>
-      <c r="AY33" s="1"/>
-      <c r="AZ33" s="1"/>
-      <c r="BA33" s="1"/>
-      <c r="BB33" s="1"/>
-      <c r="BC33" s="1"/>
-      <c r="BD33" s="1"/>
-      <c r="BE33" s="1"/>
-      <c r="BF33" s="1"/>
-      <c r="BG33" s="1"/>
-      <c r="BH33" s="1"/>
-      <c r="BI33" s="1"/>
-      <c r="BJ33" s="1"/>
-    </row>
-    <row r="34" spans="2:62" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D34" s="12">
         <v>45636</v>
@@ -7591,15 +6140,15 @@
         <v>45638</v>
       </c>
       <c r="F34" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="19">
+      <c r="G34" s="19">
         <v>75</v>
       </c>
-      <c r="J34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -7620,45 +6169,13 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="1"/>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
-      <c r="AQ34" s="1"/>
-      <c r="AR34" s="1"/>
-      <c r="AS34" s="1"/>
-      <c r="AT34" s="1"/>
-      <c r="AU34" s="1"/>
-      <c r="AV34" s="1"/>
-      <c r="AW34" s="1"/>
-      <c r="AX34" s="1"/>
-      <c r="AY34" s="1"/>
-      <c r="AZ34" s="1"/>
-      <c r="BA34" s="1"/>
-      <c r="BB34" s="1"/>
-      <c r="BC34" s="1"/>
-      <c r="BD34" s="1"/>
-      <c r="BE34" s="1"/>
-      <c r="BF34" s="1"/>
-      <c r="BG34" s="1"/>
-      <c r="BH34" s="1"/>
-      <c r="BI34" s="1"/>
-      <c r="BJ34" s="1"/>
-    </row>
-    <row r="35" spans="2:62" ht="37.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D35" s="12">
         <v>45639</v>
@@ -7667,15 +6184,15 @@
         <v>45642</v>
       </c>
       <c r="F35" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="19">
+      <c r="G35" s="19">
         <v>75</v>
       </c>
-      <c r="J35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -7696,45 +6213,13 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="1"/>
-      <c r="AM35" s="1"/>
-      <c r="AN35" s="1"/>
-      <c r="AO35" s="1"/>
-      <c r="AP35" s="1"/>
-      <c r="AQ35" s="1"/>
-      <c r="AR35" s="1"/>
-      <c r="AS35" s="1"/>
-      <c r="AT35" s="1"/>
-      <c r="AU35" s="1"/>
-      <c r="AV35" s="1"/>
-      <c r="AW35" s="1"/>
-      <c r="AX35" s="1"/>
-      <c r="AY35" s="1"/>
-      <c r="AZ35" s="1"/>
-      <c r="BA35" s="1"/>
-      <c r="BB35" s="1"/>
-      <c r="BC35" s="1"/>
-      <c r="BD35" s="1"/>
-      <c r="BE35" s="1"/>
-      <c r="BF35" s="1"/>
-      <c r="BG35" s="1"/>
-      <c r="BH35" s="1"/>
-      <c r="BI35" s="1"/>
-      <c r="BJ35" s="1"/>
-    </row>
-    <row r="36" spans="2:62" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:30" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D36" s="12">
         <v>45639</v>
@@ -7743,15 +6228,15 @@
         <v>45642</v>
       </c>
       <c r="F36" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="19">
+      <c r="G36" s="19">
         <v>50</v>
       </c>
-      <c r="J36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -7772,40 +6257,8 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
-      <c r="AM36" s="1"/>
-      <c r="AN36" s="1"/>
-      <c r="AO36" s="1"/>
-      <c r="AP36" s="1"/>
-      <c r="AQ36" s="1"/>
-      <c r="AR36" s="1"/>
-      <c r="AS36" s="1"/>
-      <c r="AT36" s="1"/>
-      <c r="AU36" s="1"/>
-      <c r="AV36" s="1"/>
-      <c r="AW36" s="1"/>
-      <c r="AX36" s="1"/>
-      <c r="AY36" s="1"/>
-      <c r="AZ36" s="1"/>
-      <c r="BA36" s="1"/>
-      <c r="BB36" s="1"/>
-      <c r="BC36" s="1"/>
-      <c r="BD36" s="1"/>
-      <c r="BE36" s="1"/>
-      <c r="BF36" s="1"/>
-      <c r="BG36" s="1"/>
-      <c r="BH36" s="1"/>
-      <c r="BI36" s="1"/>
-      <c r="BJ36" s="1"/>
-    </row>
-    <row r="37" spans="2:62" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>42</v>
       </c>
@@ -7819,15 +6272,15 @@
         <v>45642</v>
       </c>
       <c r="F37" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="19">
+      <c r="G37" s="19">
         <v>100</v>
       </c>
-      <c r="J37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -7848,40 +6301,8 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
-      <c r="AG37" s="1"/>
-      <c r="AH37" s="1"/>
-      <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
-      <c r="AK37" s="1"/>
-      <c r="AL37" s="1"/>
-      <c r="AM37" s="1"/>
-      <c r="AN37" s="1"/>
-      <c r="AO37" s="1"/>
-      <c r="AP37" s="1"/>
-      <c r="AQ37" s="1"/>
-      <c r="AR37" s="1"/>
-      <c r="AS37" s="1"/>
-      <c r="AT37" s="1"/>
-      <c r="AU37" s="1"/>
-      <c r="AV37" s="1"/>
-      <c r="AW37" s="1"/>
-      <c r="AX37" s="1"/>
-      <c r="AY37" s="1"/>
-      <c r="AZ37" s="1"/>
-      <c r="BA37" s="1"/>
-      <c r="BB37" s="1"/>
-      <c r="BC37" s="1"/>
-      <c r="BD37" s="1"/>
-      <c r="BE37" s="1"/>
-      <c r="BF37" s="1"/>
-      <c r="BG37" s="1"/>
-      <c r="BH37" s="1"/>
-      <c r="BI37" s="1"/>
-      <c r="BJ37" s="1"/>
-    </row>
-    <row r="38" spans="2:62" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>33</v>
       </c>
@@ -7893,15 +6314,15 @@
         <v>45642</v>
       </c>
       <c r="F38" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="19">
+      <c r="G38" s="19">
         <v>0</v>
       </c>
-      <c r="J38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -7922,40 +6343,8 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
-      <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="1"/>
-      <c r="AM38" s="1"/>
-      <c r="AN38" s="1"/>
-      <c r="AO38" s="1"/>
-      <c r="AP38" s="1"/>
-      <c r="AQ38" s="1"/>
-      <c r="AR38" s="1"/>
-      <c r="AS38" s="1"/>
-      <c r="AT38" s="1"/>
-      <c r="AU38" s="1"/>
-      <c r="AV38" s="1"/>
-      <c r="AW38" s="1"/>
-      <c r="AX38" s="1"/>
-      <c r="AY38" s="1"/>
-      <c r="AZ38" s="1"/>
-      <c r="BA38" s="1"/>
-      <c r="BB38" s="1"/>
-      <c r="BC38" s="1"/>
-      <c r="BD38" s="1"/>
-      <c r="BE38" s="1"/>
-      <c r="BF38" s="1"/>
-      <c r="BG38" s="1"/>
-      <c r="BH38" s="1"/>
-      <c r="BI38" s="1"/>
-      <c r="BJ38" s="1"/>
-    </row>
-    <row r="39" spans="2:62" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>32</v>
       </c>
@@ -7969,15 +6358,15 @@
         <v>45642</v>
       </c>
       <c r="F39" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="19">
+      <c r="G39" s="19">
         <v>0</v>
       </c>
-      <c r="J39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -7998,40 +6387,8 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="1"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1"/>
-      <c r="AQ39" s="1"/>
-      <c r="AR39" s="1"/>
-      <c r="AS39" s="1"/>
-      <c r="AT39" s="1"/>
-      <c r="AU39" s="1"/>
-      <c r="AV39" s="1"/>
-      <c r="AW39" s="1"/>
-      <c r="AX39" s="1"/>
-      <c r="AY39" s="1"/>
-      <c r="AZ39" s="1"/>
-      <c r="BA39" s="1"/>
-      <c r="BB39" s="1"/>
-      <c r="BC39" s="1"/>
-      <c r="BD39" s="1"/>
-      <c r="BE39" s="1"/>
-      <c r="BF39" s="1"/>
-      <c r="BG39" s="1"/>
-      <c r="BH39" s="1"/>
-      <c r="BI39" s="1"/>
-      <c r="BJ39" s="1"/>
-    </row>
-    <row r="40" spans="2:62" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>34</v>
       </c>
@@ -8045,15 +6402,15 @@
         <v>45642</v>
       </c>
       <c r="F40" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="19">
+      <c r="G40" s="19">
         <v>0</v>
       </c>
-      <c r="J40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -8074,40 +6431,8 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
-      <c r="AE40" s="1"/>
-      <c r="AF40" s="1"/>
-      <c r="AG40" s="1"/>
-      <c r="AH40" s="1"/>
-      <c r="AI40" s="1"/>
-      <c r="AJ40" s="1"/>
-      <c r="AK40" s="1"/>
-      <c r="AL40" s="1"/>
-      <c r="AM40" s="1"/>
-      <c r="AN40" s="1"/>
-      <c r="AO40" s="1"/>
-      <c r="AP40" s="1"/>
-      <c r="AQ40" s="1"/>
-      <c r="AR40" s="1"/>
-      <c r="AS40" s="1"/>
-      <c r="AT40" s="1"/>
-      <c r="AU40" s="1"/>
-      <c r="AV40" s="1"/>
-      <c r="AW40" s="1"/>
-      <c r="AX40" s="1"/>
-      <c r="AY40" s="1"/>
-      <c r="AZ40" s="1"/>
-      <c r="BA40" s="1"/>
-      <c r="BB40" s="1"/>
-      <c r="BC40" s="1"/>
-      <c r="BD40" s="1"/>
-      <c r="BE40" s="1"/>
-      <c r="BF40" s="1"/>
-      <c r="BG40" s="1"/>
-      <c r="BH40" s="1"/>
-      <c r="BI40" s="1"/>
-      <c r="BJ40" s="1"/>
-    </row>
-    <row r="41" spans="2:62" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>35</v>
       </c>
@@ -8121,15 +6446,15 @@
         <v>45642</v>
       </c>
       <c r="F41" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G41" s="95"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="19">
+      <c r="G41" s="19">
         <v>0</v>
       </c>
-      <c r="J41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -8150,40 +6475,8 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
-      <c r="AI41" s="1"/>
-      <c r="AJ41" s="1"/>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="1"/>
-      <c r="AM41" s="1"/>
-      <c r="AN41" s="1"/>
-      <c r="AO41" s="1"/>
-      <c r="AP41" s="1"/>
-      <c r="AQ41" s="1"/>
-      <c r="AR41" s="1"/>
-      <c r="AS41" s="1"/>
-      <c r="AT41" s="1"/>
-      <c r="AU41" s="1"/>
-      <c r="AV41" s="1"/>
-      <c r="AW41" s="1"/>
-      <c r="AX41" s="1"/>
-      <c r="AY41" s="1"/>
-      <c r="AZ41" s="1"/>
-      <c r="BA41" s="1"/>
-      <c r="BB41" s="1"/>
-      <c r="BC41" s="1"/>
-      <c r="BD41" s="1"/>
-      <c r="BE41" s="1"/>
-      <c r="BF41" s="1"/>
-      <c r="BG41" s="1"/>
-      <c r="BH41" s="1"/>
-      <c r="BI41" s="1"/>
-      <c r="BJ41" s="1"/>
-    </row>
-    <row r="42" spans="2:62" ht="37.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>31</v>
       </c>
@@ -8197,15 +6490,15 @@
         <v>45644</v>
       </c>
       <c r="F42" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="19">
+      <c r="G42" s="19">
         <v>0</v>
       </c>
-      <c r="J42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -8226,42 +6519,10 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
-      <c r="AE42" s="1"/>
-      <c r="AF42" s="1"/>
-      <c r="AG42" s="1"/>
-      <c r="AH42" s="1"/>
-      <c r="AI42" s="1"/>
-      <c r="AJ42" s="1"/>
-      <c r="AK42" s="1"/>
-      <c r="AL42" s="1"/>
-      <c r="AM42" s="1"/>
-      <c r="AN42" s="1"/>
-      <c r="AO42" s="1"/>
-      <c r="AP42" s="1"/>
-      <c r="AQ42" s="1"/>
-      <c r="AR42" s="1"/>
-      <c r="AS42" s="1"/>
-      <c r="AT42" s="1"/>
-      <c r="AU42" s="1"/>
-      <c r="AV42" s="1"/>
-      <c r="AW42" s="1"/>
-      <c r="AX42" s="1"/>
-      <c r="AY42" s="1"/>
-      <c r="AZ42" s="1"/>
-      <c r="BA42" s="1"/>
-      <c r="BB42" s="1"/>
-      <c r="BC42" s="1"/>
-      <c r="BD42" s="1"/>
-      <c r="BE42" s="1"/>
-      <c r="BF42" s="1"/>
-      <c r="BG42" s="1"/>
-      <c r="BH42" s="1"/>
-      <c r="BI42" s="1"/>
-      <c r="BJ42" s="1"/>
-    </row>
-    <row r="43" spans="2:62" ht="45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:30" ht="45" x14ac:dyDescent="0.3">
       <c r="B43" s="51" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C43" s="39"/>
       <c r="D43" s="12">
@@ -8271,15 +6532,15 @@
         <v>45644</v>
       </c>
       <c r="F43" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="19">
+      <c r="G43" s="19">
         <v>0</v>
       </c>
-      <c r="J43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -8300,40 +6561,8 @@
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1"/>
-      <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
-      <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
-      <c r="AM43" s="1"/>
-      <c r="AN43" s="1"/>
-      <c r="AO43" s="1"/>
-      <c r="AP43" s="1"/>
-      <c r="AQ43" s="1"/>
-      <c r="AR43" s="1"/>
-      <c r="AS43" s="1"/>
-      <c r="AT43" s="1"/>
-      <c r="AU43" s="1"/>
-      <c r="AV43" s="1"/>
-      <c r="AW43" s="1"/>
-      <c r="AX43" s="1"/>
-      <c r="AY43" s="1"/>
-      <c r="AZ43" s="1"/>
-      <c r="BA43" s="1"/>
-      <c r="BB43" s="1"/>
-      <c r="BC43" s="1"/>
-      <c r="BD43" s="1"/>
-      <c r="BE43" s="1"/>
-      <c r="BF43" s="1"/>
-      <c r="BG43" s="1"/>
-      <c r="BH43" s="1"/>
-      <c r="BI43" s="1"/>
-      <c r="BJ43" s="1"/>
-    </row>
-    <row r="44" spans="2:62" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:30" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="50" t="s">
         <v>36</v>
       </c>
@@ -8347,15 +6576,15 @@
         <v>45644</v>
       </c>
       <c r="F44" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="19">
+      <c r="G44" s="19">
         <v>0</v>
       </c>
-      <c r="J44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -8376,40 +6605,8 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
-      <c r="AE44" s="1"/>
-      <c r="AF44" s="1"/>
-      <c r="AG44" s="1"/>
-      <c r="AH44" s="1"/>
-      <c r="AI44" s="1"/>
-      <c r="AJ44" s="1"/>
-      <c r="AK44" s="1"/>
-      <c r="AL44" s="1"/>
-      <c r="AM44" s="1"/>
-      <c r="AN44" s="1"/>
-      <c r="AO44" s="1"/>
-      <c r="AP44" s="1"/>
-      <c r="AQ44" s="1"/>
-      <c r="AR44" s="1"/>
-      <c r="AS44" s="1"/>
-      <c r="AT44" s="1"/>
-      <c r="AU44" s="1"/>
-      <c r="AV44" s="1"/>
-      <c r="AW44" s="1"/>
-      <c r="AX44" s="1"/>
-      <c r="AY44" s="1"/>
-      <c r="AZ44" s="1"/>
-      <c r="BA44" s="1"/>
-      <c r="BB44" s="1"/>
-      <c r="BC44" s="1"/>
-      <c r="BD44" s="1"/>
-      <c r="BE44" s="1"/>
-      <c r="BF44" s="1"/>
-      <c r="BG44" s="1"/>
-      <c r="BH44" s="1"/>
-      <c r="BI44" s="1"/>
-      <c r="BJ44" s="1"/>
-    </row>
-    <row r="45" spans="2:62" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="50" t="s">
         <v>37</v>
       </c>
@@ -8423,15 +6620,15 @@
         <v>45644</v>
       </c>
       <c r="F45" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="19">
+      <c r="G45" s="19">
         <v>0</v>
       </c>
-      <c r="J45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -8452,40 +6649,8 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
-      <c r="AF45" s="1"/>
-      <c r="AG45" s="1"/>
-      <c r="AH45" s="1"/>
-      <c r="AI45" s="1"/>
-      <c r="AJ45" s="1"/>
-      <c r="AK45" s="1"/>
-      <c r="AL45" s="1"/>
-      <c r="AM45" s="1"/>
-      <c r="AN45" s="1"/>
-      <c r="AO45" s="1"/>
-      <c r="AP45" s="1"/>
-      <c r="AQ45" s="1"/>
-      <c r="AR45" s="1"/>
-      <c r="AS45" s="1"/>
-      <c r="AT45" s="1"/>
-      <c r="AU45" s="1"/>
-      <c r="AV45" s="1"/>
-      <c r="AW45" s="1"/>
-      <c r="AX45" s="1"/>
-      <c r="AY45" s="1"/>
-      <c r="AZ45" s="1"/>
-      <c r="BA45" s="1"/>
-      <c r="BB45" s="1"/>
-      <c r="BC45" s="1"/>
-      <c r="BD45" s="1"/>
-      <c r="BE45" s="1"/>
-      <c r="BF45" s="1"/>
-      <c r="BG45" s="1"/>
-      <c r="BH45" s="1"/>
-      <c r="BI45" s="1"/>
-      <c r="BJ45" s="1"/>
-    </row>
-    <row r="46" spans="2:62" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>38</v>
       </c>
@@ -8497,15 +6662,15 @@
         <v>45644</v>
       </c>
       <c r="F46" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="19">
+      <c r="G46" s="19">
         <v>0</v>
       </c>
-      <c r="J46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -8526,40 +6691,8 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
-      <c r="AE46" s="1"/>
-      <c r="AF46" s="1"/>
-      <c r="AG46" s="1"/>
-      <c r="AH46" s="1"/>
-      <c r="AI46" s="1"/>
-      <c r="AJ46" s="1"/>
-      <c r="AK46" s="1"/>
-      <c r="AL46" s="1"/>
-      <c r="AM46" s="1"/>
-      <c r="AN46" s="1"/>
-      <c r="AO46" s="1"/>
-      <c r="AP46" s="1"/>
-      <c r="AQ46" s="1"/>
-      <c r="AR46" s="1"/>
-      <c r="AS46" s="1"/>
-      <c r="AT46" s="1"/>
-      <c r="AU46" s="1"/>
-      <c r="AV46" s="1"/>
-      <c r="AW46" s="1"/>
-      <c r="AX46" s="1"/>
-      <c r="AY46" s="1"/>
-      <c r="AZ46" s="1"/>
-      <c r="BA46" s="1"/>
-      <c r="BB46" s="1"/>
-      <c r="BC46" s="1"/>
-      <c r="BD46" s="1"/>
-      <c r="BE46" s="1"/>
-      <c r="BF46" s="1"/>
-      <c r="BG46" s="1"/>
-      <c r="BH46" s="1"/>
-      <c r="BI46" s="1"/>
-      <c r="BJ46" s="1"/>
-    </row>
-    <row r="47" spans="2:62" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:30" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>40</v>
       </c>
@@ -8573,15 +6706,15 @@
         <v>45644</v>
       </c>
       <c r="F47" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G47" s="95"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="19">
+      <c r="G47" s="19">
         <v>0</v>
       </c>
-      <c r="J47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -8602,40 +6735,8 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
-      <c r="AE47" s="1"/>
-      <c r="AF47" s="1"/>
-      <c r="AG47" s="1"/>
-      <c r="AH47" s="1"/>
-      <c r="AI47" s="1"/>
-      <c r="AJ47" s="1"/>
-      <c r="AK47" s="1"/>
-      <c r="AL47" s="1"/>
-      <c r="AM47" s="1"/>
-      <c r="AN47" s="1"/>
-      <c r="AO47" s="1"/>
-      <c r="AP47" s="1"/>
-      <c r="AQ47" s="1"/>
-      <c r="AR47" s="1"/>
-      <c r="AS47" s="1"/>
-      <c r="AT47" s="1"/>
-      <c r="AU47" s="1"/>
-      <c r="AV47" s="1"/>
-      <c r="AW47" s="1"/>
-      <c r="AX47" s="1"/>
-      <c r="AY47" s="1"/>
-      <c r="AZ47" s="1"/>
-      <c r="BA47" s="1"/>
-      <c r="BB47" s="1"/>
-      <c r="BC47" s="1"/>
-      <c r="BD47" s="1"/>
-      <c r="BE47" s="1"/>
-      <c r="BF47" s="1"/>
-      <c r="BG47" s="1"/>
-      <c r="BH47" s="1"/>
-      <c r="BI47" s="1"/>
-      <c r="BJ47" s="1"/>
-    </row>
-    <row r="48" spans="2:62" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:30" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>39</v>
       </c>
@@ -8649,15 +6750,15 @@
         <v>45644</v>
       </c>
       <c r="F48" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G48" s="95"/>
-      <c r="H48" s="95"/>
-      <c r="I48" s="19">
+      <c r="G48" s="19">
         <v>0</v>
       </c>
-      <c r="J48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -8678,40 +6779,8 @@
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
-      <c r="AG48" s="1"/>
-      <c r="AH48" s="1"/>
-      <c r="AI48" s="1"/>
-      <c r="AJ48" s="1"/>
-      <c r="AK48" s="1"/>
-      <c r="AL48" s="1"/>
-      <c r="AM48" s="1"/>
-      <c r="AN48" s="1"/>
-      <c r="AO48" s="1"/>
-      <c r="AP48" s="1"/>
-      <c r="AQ48" s="1"/>
-      <c r="AR48" s="1"/>
-      <c r="AS48" s="1"/>
-      <c r="AT48" s="1"/>
-      <c r="AU48" s="1"/>
-      <c r="AV48" s="1"/>
-      <c r="AW48" s="1"/>
-      <c r="AX48" s="1"/>
-      <c r="AY48" s="1"/>
-      <c r="AZ48" s="1"/>
-      <c r="BA48" s="1"/>
-      <c r="BB48" s="1"/>
-      <c r="BC48" s="1"/>
-      <c r="BD48" s="1"/>
-      <c r="BE48" s="1"/>
-      <c r="BF48" s="1"/>
-      <c r="BG48" s="1"/>
-      <c r="BH48" s="1"/>
-      <c r="BI48" s="1"/>
-      <c r="BJ48" s="1"/>
-    </row>
-    <row r="49" spans="2:62" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>41</v>
       </c>
@@ -8725,15 +6794,15 @@
         <v>45644</v>
       </c>
       <c r="F49" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G49" s="95"/>
-      <c r="H49" s="95"/>
-      <c r="I49" s="19">
+      <c r="G49" s="19">
         <v>0</v>
       </c>
-      <c r="J49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -8754,40 +6823,8 @@
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="1"/>
-      <c r="AH49" s="1"/>
-      <c r="AI49" s="1"/>
-      <c r="AJ49" s="1"/>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="1"/>
-      <c r="AM49" s="1"/>
-      <c r="AN49" s="1"/>
-      <c r="AO49" s="1"/>
-      <c r="AP49" s="1"/>
-      <c r="AQ49" s="1"/>
-      <c r="AR49" s="1"/>
-      <c r="AS49" s="1"/>
-      <c r="AT49" s="1"/>
-      <c r="AU49" s="1"/>
-      <c r="AV49" s="1"/>
-      <c r="AW49" s="1"/>
-      <c r="AX49" s="1"/>
-      <c r="AY49" s="1"/>
-      <c r="AZ49" s="1"/>
-      <c r="BA49" s="1"/>
-      <c r="BB49" s="1"/>
-      <c r="BC49" s="1"/>
-      <c r="BD49" s="1"/>
-      <c r="BE49" s="1"/>
-      <c r="BF49" s="1"/>
-      <c r="BG49" s="1"/>
-      <c r="BH49" s="1"/>
-      <c r="BI49" s="1"/>
-      <c r="BJ49" s="1"/>
-    </row>
-    <row r="50" spans="2:62" ht="37.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B50" s="52" t="s">
         <v>47</v>
       </c>
@@ -8799,15 +6836,15 @@
         <v>45644</v>
       </c>
       <c r="F50" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G50" s="95"/>
-      <c r="H50" s="95"/>
-      <c r="I50" s="19">
+      <c r="G50" s="19">
         <v>0</v>
       </c>
-      <c r="J50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -8828,40 +6865,8 @@
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
-      <c r="AH50" s="1"/>
-      <c r="AI50" s="1"/>
-      <c r="AJ50" s="1"/>
-      <c r="AK50" s="1"/>
-      <c r="AL50" s="1"/>
-      <c r="AM50" s="1"/>
-      <c r="AN50" s="1"/>
-      <c r="AO50" s="1"/>
-      <c r="AP50" s="1"/>
-      <c r="AQ50" s="1"/>
-      <c r="AR50" s="1"/>
-      <c r="AS50" s="1"/>
-      <c r="AT50" s="1"/>
-      <c r="AU50" s="1"/>
-      <c r="AV50" s="1"/>
-      <c r="AW50" s="1"/>
-      <c r="AX50" s="1"/>
-      <c r="AY50" s="1"/>
-      <c r="AZ50" s="1"/>
-      <c r="BA50" s="1"/>
-      <c r="BB50" s="1"/>
-      <c r="BC50" s="1"/>
-      <c r="BD50" s="1"/>
-      <c r="BE50" s="1"/>
-      <c r="BF50" s="1"/>
-      <c r="BG50" s="1"/>
-      <c r="BH50" s="1"/>
-      <c r="BI50" s="1"/>
-      <c r="BJ50" s="1"/>
-    </row>
-    <row r="51" spans="2:62" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:30" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>65</v>
       </c>
@@ -8875,15 +6880,15 @@
         <v>45644</v>
       </c>
       <c r="F51" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="19">
+      <c r="G51" s="19">
         <v>0</v>
       </c>
-      <c r="J51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -8904,40 +6909,8 @@
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
-      <c r="AE51" s="1"/>
-      <c r="AF51" s="1"/>
-      <c r="AG51" s="1"/>
-      <c r="AH51" s="1"/>
-      <c r="AI51" s="1"/>
-      <c r="AJ51" s="1"/>
-      <c r="AK51" s="1"/>
-      <c r="AL51" s="1"/>
-      <c r="AM51" s="1"/>
-      <c r="AN51" s="1"/>
-      <c r="AO51" s="1"/>
-      <c r="AP51" s="1"/>
-      <c r="AQ51" s="1"/>
-      <c r="AR51" s="1"/>
-      <c r="AS51" s="1"/>
-      <c r="AT51" s="1"/>
-      <c r="AU51" s="1"/>
-      <c r="AV51" s="1"/>
-      <c r="AW51" s="1"/>
-      <c r="AX51" s="1"/>
-      <c r="AY51" s="1"/>
-      <c r="AZ51" s="1"/>
-      <c r="BA51" s="1"/>
-      <c r="BB51" s="1"/>
-      <c r="BC51" s="1"/>
-      <c r="BD51" s="1"/>
-      <c r="BE51" s="1"/>
-      <c r="BF51" s="1"/>
-      <c r="BG51" s="1"/>
-      <c r="BH51" s="1"/>
-      <c r="BI51" s="1"/>
-      <c r="BJ51" s="1"/>
-    </row>
-    <row r="52" spans="2:62" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>48</v>
       </c>
@@ -8951,15 +6924,15 @@
         <v>45644</v>
       </c>
       <c r="F52" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G52" s="95"/>
-      <c r="H52" s="95"/>
-      <c r="I52" s="19">
+      <c r="G52" s="19">
         <v>0</v>
       </c>
-      <c r="J52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -8980,40 +6953,8 @@
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
-      <c r="AG52" s="1"/>
-      <c r="AH52" s="1"/>
-      <c r="AI52" s="1"/>
-      <c r="AJ52" s="1"/>
-      <c r="AK52" s="1"/>
-      <c r="AL52" s="1"/>
-      <c r="AM52" s="1"/>
-      <c r="AN52" s="1"/>
-      <c r="AO52" s="1"/>
-      <c r="AP52" s="1"/>
-      <c r="AQ52" s="1"/>
-      <c r="AR52" s="1"/>
-      <c r="AS52" s="1"/>
-      <c r="AT52" s="1"/>
-      <c r="AU52" s="1"/>
-      <c r="AV52" s="1"/>
-      <c r="AW52" s="1"/>
-      <c r="AX52" s="1"/>
-      <c r="AY52" s="1"/>
-      <c r="AZ52" s="1"/>
-      <c r="BA52" s="1"/>
-      <c r="BB52" s="1"/>
-      <c r="BC52" s="1"/>
-      <c r="BD52" s="1"/>
-      <c r="BE52" s="1"/>
-      <c r="BF52" s="1"/>
-      <c r="BG52" s="1"/>
-      <c r="BH52" s="1"/>
-      <c r="BI52" s="1"/>
-      <c r="BJ52" s="1"/>
-    </row>
-    <row r="53" spans="2:62" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>49</v>
       </c>
@@ -9027,15 +6968,15 @@
         <v>45644</v>
       </c>
       <c r="F53" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G53" s="95"/>
-      <c r="H53" s="95"/>
-      <c r="I53" s="19">
+      <c r="G53" s="19">
         <v>0</v>
       </c>
-      <c r="J53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -9056,42 +6997,10 @@
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
-      <c r="AE53" s="1"/>
-      <c r="AF53" s="1"/>
-      <c r="AG53" s="1"/>
-      <c r="AH53" s="1"/>
-      <c r="AI53" s="1"/>
-      <c r="AJ53" s="1"/>
-      <c r="AK53" s="1"/>
-      <c r="AL53" s="1"/>
-      <c r="AM53" s="1"/>
-      <c r="AN53" s="1"/>
-      <c r="AO53" s="1"/>
-      <c r="AP53" s="1"/>
-      <c r="AQ53" s="1"/>
-      <c r="AR53" s="1"/>
-      <c r="AS53" s="1"/>
-      <c r="AT53" s="1"/>
-      <c r="AU53" s="1"/>
-      <c r="AV53" s="1"/>
-      <c r="AW53" s="1"/>
-      <c r="AX53" s="1"/>
-      <c r="AY53" s="1"/>
-      <c r="AZ53" s="1"/>
-      <c r="BA53" s="1"/>
-      <c r="BB53" s="1"/>
-      <c r="BC53" s="1"/>
-      <c r="BD53" s="1"/>
-      <c r="BE53" s="1"/>
-      <c r="BF53" s="1"/>
-      <c r="BG53" s="1"/>
-      <c r="BH53" s="1"/>
-      <c r="BI53" s="1"/>
-      <c r="BJ53" s="1"/>
-    </row>
-    <row r="54" spans="2:62" ht="66" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:30" ht="66" x14ac:dyDescent="0.3">
       <c r="B54" s="44" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C54" s="40" t="s">
         <v>69</v>
@@ -9103,15 +7012,15 @@
         <v>45646</v>
       </c>
       <c r="F54" s="42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G54" s="96"/>
-      <c r="H54" s="96"/>
-      <c r="I54" s="43">
+      <c r="G54" s="43">
         <v>0</v>
       </c>
-      <c r="J54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -9132,40 +7041,8 @@
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="1"/>
-      <c r="AG54" s="1"/>
-      <c r="AH54" s="1"/>
-      <c r="AI54" s="1"/>
-      <c r="AJ54" s="1"/>
-      <c r="AK54" s="1"/>
-      <c r="AL54" s="1"/>
-      <c r="AM54" s="1"/>
-      <c r="AN54" s="1"/>
-      <c r="AO54" s="1"/>
-      <c r="AP54" s="1"/>
-      <c r="AQ54" s="1"/>
-      <c r="AR54" s="1"/>
-      <c r="AS54" s="1"/>
-      <c r="AT54" s="1"/>
-      <c r="AU54" s="1"/>
-      <c r="AV54" s="1"/>
-      <c r="AW54" s="1"/>
-      <c r="AX54" s="1"/>
-      <c r="AY54" s="1"/>
-      <c r="AZ54" s="1"/>
-      <c r="BA54" s="1"/>
-      <c r="BB54" s="1"/>
-      <c r="BC54" s="1"/>
-      <c r="BD54" s="1"/>
-      <c r="BE54" s="1"/>
-      <c r="BF54" s="1"/>
-      <c r="BG54" s="1"/>
-      <c r="BH54" s="1"/>
-      <c r="BI54" s="1"/>
-      <c r="BJ54" s="1"/>
-    </row>
-    <row r="55" spans="2:62" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>71</v>
       </c>
@@ -9176,15 +7053,15 @@
         <v>45646</v>
       </c>
       <c r="F55" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G55" s="95"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="19">
+      <c r="G55" s="19">
         <v>0</v>
       </c>
-      <c r="J55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -9205,40 +7082,8 @@
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
-      <c r="AE55" s="1"/>
-      <c r="AF55" s="1"/>
-      <c r="AG55" s="1"/>
-      <c r="AH55" s="1"/>
-      <c r="AI55" s="1"/>
-      <c r="AJ55" s="1"/>
-      <c r="AK55" s="1"/>
-      <c r="AL55" s="1"/>
-      <c r="AM55" s="1"/>
-      <c r="AN55" s="1"/>
-      <c r="AO55" s="1"/>
-      <c r="AP55" s="1"/>
-      <c r="AQ55" s="1"/>
-      <c r="AR55" s="1"/>
-      <c r="AS55" s="1"/>
-      <c r="AT55" s="1"/>
-      <c r="AU55" s="1"/>
-      <c r="AV55" s="1"/>
-      <c r="AW55" s="1"/>
-      <c r="AX55" s="1"/>
-      <c r="AY55" s="1"/>
-      <c r="AZ55" s="1"/>
-      <c r="BA55" s="1"/>
-      <c r="BB55" s="1"/>
-      <c r="BC55" s="1"/>
-      <c r="BD55" s="1"/>
-      <c r="BE55" s="1"/>
-      <c r="BF55" s="1"/>
-      <c r="BG55" s="1"/>
-      <c r="BH55" s="1"/>
-      <c r="BI55" s="1"/>
-      <c r="BJ55" s="1"/>
-    </row>
-    <row r="56" spans="2:62" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:30" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>72</v>
       </c>
@@ -9252,15 +7097,15 @@
         <v>45646</v>
       </c>
       <c r="F56" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G56" s="95"/>
-      <c r="H56" s="95"/>
-      <c r="I56" s="19">
+      <c r="G56" s="19">
         <v>0</v>
       </c>
-      <c r="J56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -9281,40 +7126,8 @@
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
-      <c r="AG56" s="1"/>
-      <c r="AH56" s="1"/>
-      <c r="AI56" s="1"/>
-      <c r="AJ56" s="1"/>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="1"/>
-      <c r="AM56" s="1"/>
-      <c r="AN56" s="1"/>
-      <c r="AO56" s="1"/>
-      <c r="AP56" s="1"/>
-      <c r="AQ56" s="1"/>
-      <c r="AR56" s="1"/>
-      <c r="AS56" s="1"/>
-      <c r="AT56" s="1"/>
-      <c r="AU56" s="1"/>
-      <c r="AV56" s="1"/>
-      <c r="AW56" s="1"/>
-      <c r="AX56" s="1"/>
-      <c r="AY56" s="1"/>
-      <c r="AZ56" s="1"/>
-      <c r="BA56" s="1"/>
-      <c r="BB56" s="1"/>
-      <c r="BC56" s="1"/>
-      <c r="BD56" s="1"/>
-      <c r="BE56" s="1"/>
-      <c r="BF56" s="1"/>
-      <c r="BG56" s="1"/>
-      <c r="BH56" s="1"/>
-      <c r="BI56" s="1"/>
-      <c r="BJ56" s="1"/>
-    </row>
-    <row r="57" spans="2:62" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:30" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>73</v>
       </c>
@@ -9328,15 +7141,15 @@
         <v>45646</v>
       </c>
       <c r="F57" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G57" s="95"/>
-      <c r="H57" s="95"/>
-      <c r="I57" s="19">
+      <c r="G57" s="19">
         <v>0</v>
       </c>
-      <c r="J57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -9357,40 +7170,8 @@
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
-      <c r="AE57" s="1"/>
-      <c r="AF57" s="1"/>
-      <c r="AG57" s="1"/>
-      <c r="AH57" s="1"/>
-      <c r="AI57" s="1"/>
-      <c r="AJ57" s="1"/>
-      <c r="AK57" s="1"/>
-      <c r="AL57" s="1"/>
-      <c r="AM57" s="1"/>
-      <c r="AN57" s="1"/>
-      <c r="AO57" s="1"/>
-      <c r="AP57" s="1"/>
-      <c r="AQ57" s="1"/>
-      <c r="AR57" s="1"/>
-      <c r="AS57" s="1"/>
-      <c r="AT57" s="1"/>
-      <c r="AU57" s="1"/>
-      <c r="AV57" s="1"/>
-      <c r="AW57" s="1"/>
-      <c r="AX57" s="1"/>
-      <c r="AY57" s="1"/>
-      <c r="AZ57" s="1"/>
-      <c r="BA57" s="1"/>
-      <c r="BB57" s="1"/>
-      <c r="BC57" s="1"/>
-      <c r="BD57" s="1"/>
-      <c r="BE57" s="1"/>
-      <c r="BF57" s="1"/>
-      <c r="BG57" s="1"/>
-      <c r="BH57" s="1"/>
-      <c r="BI57" s="1"/>
-      <c r="BJ57" s="1"/>
-    </row>
-    <row r="58" spans="2:62" ht="37.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B58" s="6" t="s">
         <v>43</v>
       </c>
@@ -9404,15 +7185,15 @@
         <v>45646</v>
       </c>
       <c r="F58" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G58" s="95"/>
-      <c r="H58" s="95"/>
-      <c r="I58" s="19">
+      <c r="G58" s="19">
         <v>0</v>
       </c>
-      <c r="J58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -9433,40 +7214,8 @@
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
-      <c r="AE58" s="1"/>
-      <c r="AF58" s="1"/>
-      <c r="AG58" s="1"/>
-      <c r="AH58" s="1"/>
-      <c r="AI58" s="1"/>
-      <c r="AJ58" s="1"/>
-      <c r="AK58" s="1"/>
-      <c r="AL58" s="1"/>
-      <c r="AM58" s="1"/>
-      <c r="AN58" s="1"/>
-      <c r="AO58" s="1"/>
-      <c r="AP58" s="1"/>
-      <c r="AQ58" s="1"/>
-      <c r="AR58" s="1"/>
-      <c r="AS58" s="1"/>
-      <c r="AT58" s="1"/>
-      <c r="AU58" s="1"/>
-      <c r="AV58" s="1"/>
-      <c r="AW58" s="1"/>
-      <c r="AX58" s="1"/>
-      <c r="AY58" s="1"/>
-      <c r="AZ58" s="1"/>
-      <c r="BA58" s="1"/>
-      <c r="BB58" s="1"/>
-      <c r="BC58" s="1"/>
-      <c r="BD58" s="1"/>
-      <c r="BE58" s="1"/>
-      <c r="BF58" s="1"/>
-      <c r="BG58" s="1"/>
-      <c r="BH58" s="1"/>
-      <c r="BI58" s="1"/>
-      <c r="BJ58" s="1"/>
-    </row>
-    <row r="59" spans="2:62" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>44</v>
       </c>
@@ -9480,15 +7229,15 @@
         <v>45646</v>
       </c>
       <c r="F59" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G59" s="95"/>
-      <c r="H59" s="95"/>
-      <c r="I59" s="19">
+      <c r="G59" s="19">
         <v>0</v>
       </c>
-      <c r="J59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -9509,40 +7258,8 @@
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
-      <c r="AE59" s="1"/>
-      <c r="AF59" s="1"/>
-      <c r="AG59" s="1"/>
-      <c r="AH59" s="1"/>
-      <c r="AI59" s="1"/>
-      <c r="AJ59" s="1"/>
-      <c r="AK59" s="1"/>
-      <c r="AL59" s="1"/>
-      <c r="AM59" s="1"/>
-      <c r="AN59" s="1"/>
-      <c r="AO59" s="1"/>
-      <c r="AP59" s="1"/>
-      <c r="AQ59" s="1"/>
-      <c r="AR59" s="1"/>
-      <c r="AS59" s="1"/>
-      <c r="AT59" s="1"/>
-      <c r="AU59" s="1"/>
-      <c r="AV59" s="1"/>
-      <c r="AW59" s="1"/>
-      <c r="AX59" s="1"/>
-      <c r="AY59" s="1"/>
-      <c r="AZ59" s="1"/>
-      <c r="BA59" s="1"/>
-      <c r="BB59" s="1"/>
-      <c r="BC59" s="1"/>
-      <c r="BD59" s="1"/>
-      <c r="BE59" s="1"/>
-      <c r="BF59" s="1"/>
-      <c r="BG59" s="1"/>
-      <c r="BH59" s="1"/>
-      <c r="BI59" s="1"/>
-      <c r="BJ59" s="1"/>
-    </row>
-    <row r="60" spans="2:62" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="2:30" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>76</v>
       </c>
@@ -9556,15 +7273,15 @@
         <v>45646</v>
       </c>
       <c r="F60" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G60" s="95"/>
-      <c r="H60" s="95"/>
-      <c r="I60" s="19">
+      <c r="G60" s="19">
         <v>0</v>
       </c>
-      <c r="J60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -9585,42 +7302,10 @@
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
-      <c r="AE60" s="1"/>
-      <c r="AF60" s="1"/>
-      <c r="AG60" s="1"/>
-      <c r="AH60" s="1"/>
-      <c r="AI60" s="1"/>
-      <c r="AJ60" s="1"/>
-      <c r="AK60" s="1"/>
-      <c r="AL60" s="1"/>
-      <c r="AM60" s="1"/>
-      <c r="AN60" s="1"/>
-      <c r="AO60" s="1"/>
-      <c r="AP60" s="1"/>
-      <c r="AQ60" s="1"/>
-      <c r="AR60" s="1"/>
-      <c r="AS60" s="1"/>
-      <c r="AT60" s="1"/>
-      <c r="AU60" s="1"/>
-      <c r="AV60" s="1"/>
-      <c r="AW60" s="1"/>
-      <c r="AX60" s="1"/>
-      <c r="AY60" s="1"/>
-      <c r="AZ60" s="1"/>
-      <c r="BA60" s="1"/>
-      <c r="BB60" s="1"/>
-      <c r="BC60" s="1"/>
-      <c r="BD60" s="1"/>
-      <c r="BE60" s="1"/>
-      <c r="BF60" s="1"/>
-      <c r="BG60" s="1"/>
-      <c r="BH60" s="1"/>
-      <c r="BI60" s="1"/>
-      <c r="BJ60" s="1"/>
-    </row>
-    <row r="61" spans="2:62" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:30" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="12">
@@ -9633,12 +7318,12 @@
         <f>IF(E61="","",E61+1-D61)</f>
         <v>5</v>
       </c>
-      <c r="G61" s="95"/>
-      <c r="H61" s="95"/>
-      <c r="I61" s="19">
+      <c r="G61" s="19">
         <v>10</v>
       </c>
-      <c r="J61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -9659,40 +7344,8 @@
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
-      <c r="AE61" s="1"/>
-      <c r="AF61" s="1"/>
-      <c r="AG61" s="1"/>
-      <c r="AH61" s="1"/>
-      <c r="AI61" s="1"/>
-      <c r="AJ61" s="1"/>
-      <c r="AK61" s="1"/>
-      <c r="AL61" s="1"/>
-      <c r="AM61" s="1"/>
-      <c r="AN61" s="1"/>
-      <c r="AO61" s="1"/>
-      <c r="AP61" s="1"/>
-      <c r="AQ61" s="1"/>
-      <c r="AR61" s="1"/>
-      <c r="AS61" s="1"/>
-      <c r="AT61" s="1"/>
-      <c r="AU61" s="1"/>
-      <c r="AV61" s="1"/>
-      <c r="AW61" s="1"/>
-      <c r="AX61" s="1"/>
-      <c r="AY61" s="1"/>
-      <c r="AZ61" s="1"/>
-      <c r="BA61" s="1"/>
-      <c r="BB61" s="1"/>
-      <c r="BC61" s="1"/>
-      <c r="BD61" s="1"/>
-      <c r="BE61" s="1"/>
-      <c r="BF61" s="1"/>
-      <c r="BG61" s="1"/>
-      <c r="BH61" s="1"/>
-      <c r="BI61" s="1"/>
-      <c r="BJ61" s="1"/>
-    </row>
-    <row r="62" spans="2:62" ht="26.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>79</v>
       </c>
@@ -9704,15 +7357,15 @@
         <v>45650</v>
       </c>
       <c r="F62" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G62" s="95"/>
-      <c r="H62" s="95"/>
-      <c r="I62" s="19">
+      <c r="G62" s="19">
         <v>0</v>
       </c>
-      <c r="J62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -9733,40 +7386,8 @@
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
-      <c r="AE62" s="1"/>
-      <c r="AF62" s="1"/>
-      <c r="AG62" s="1"/>
-      <c r="AH62" s="1"/>
-      <c r="AI62" s="1"/>
-      <c r="AJ62" s="1"/>
-      <c r="AK62" s="1"/>
-      <c r="AL62" s="1"/>
-      <c r="AM62" s="1"/>
-      <c r="AN62" s="1"/>
-      <c r="AO62" s="1"/>
-      <c r="AP62" s="1"/>
-      <c r="AQ62" s="1"/>
-      <c r="AR62" s="1"/>
-      <c r="AS62" s="1"/>
-      <c r="AT62" s="1"/>
-      <c r="AU62" s="1"/>
-      <c r="AV62" s="1"/>
-      <c r="AW62" s="1"/>
-      <c r="AX62" s="1"/>
-      <c r="AY62" s="1"/>
-      <c r="AZ62" s="1"/>
-      <c r="BA62" s="1"/>
-      <c r="BB62" s="1"/>
-      <c r="BC62" s="1"/>
-      <c r="BD62" s="1"/>
-      <c r="BE62" s="1"/>
-      <c r="BF62" s="1"/>
-      <c r="BG62" s="1"/>
-      <c r="BH62" s="1"/>
-      <c r="BI62" s="1"/>
-      <c r="BJ62" s="1"/>
-    </row>
-    <row r="63" spans="2:62" ht="52.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="2:30" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="17" t="s">
         <v>64</v>
       </c>
@@ -9778,15 +7399,15 @@
         <v>45650</v>
       </c>
       <c r="F63" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G63" s="95"/>
-      <c r="H63" s="95"/>
-      <c r="I63" s="19">
+      <c r="G63" s="19">
         <v>0</v>
       </c>
-      <c r="J63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -9807,40 +7428,8 @@
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
       <c r="AD63" s="1"/>
-      <c r="AE63" s="1"/>
-      <c r="AF63" s="1"/>
-      <c r="AG63" s="1"/>
-      <c r="AH63" s="1"/>
-      <c r="AI63" s="1"/>
-      <c r="AJ63" s="1"/>
-      <c r="AK63" s="1"/>
-      <c r="AL63" s="1"/>
-      <c r="AM63" s="1"/>
-      <c r="AN63" s="1"/>
-      <c r="AO63" s="1"/>
-      <c r="AP63" s="1"/>
-      <c r="AQ63" s="1"/>
-      <c r="AR63" s="1"/>
-      <c r="AS63" s="1"/>
-      <c r="AT63" s="1"/>
-      <c r="AU63" s="1"/>
-      <c r="AV63" s="1"/>
-      <c r="AW63" s="1"/>
-      <c r="AX63" s="1"/>
-      <c r="AY63" s="1"/>
-      <c r="AZ63" s="1"/>
-      <c r="BA63" s="1"/>
-      <c r="BB63" s="1"/>
-      <c r="BC63" s="1"/>
-      <c r="BD63" s="1"/>
-      <c r="BE63" s="1"/>
-      <c r="BF63" s="1"/>
-      <c r="BG63" s="1"/>
-      <c r="BH63" s="1"/>
-      <c r="BI63" s="1"/>
-      <c r="BJ63" s="1"/>
-    </row>
-    <row r="64" spans="2:62" ht="26.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>78</v>
       </c>
@@ -9849,18 +7438,18 @@
         <v>45646</v>
       </c>
       <c r="E64" s="12">
-        <v>45681</v>
+        <v>45650</v>
       </c>
       <c r="F64" s="24">
-        <f t="shared" si="32"/>
-        <v>36</v>
-      </c>
-      <c r="G64" s="95"/>
-      <c r="H64" s="95"/>
-      <c r="I64" s="19">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G64" s="19">
         <v>0</v>
       </c>
-      <c r="J64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -9881,66 +7470,31 @@
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
-      <c r="AE64" s="1"/>
-      <c r="AF64" s="1"/>
-      <c r="AG64" s="1"/>
-      <c r="AH64" s="1"/>
-      <c r="AI64" s="1"/>
-      <c r="AJ64" s="1"/>
-      <c r="AK64" s="1"/>
-      <c r="AL64" s="1"/>
-      <c r="AM64" s="1"/>
-      <c r="AN64" s="1"/>
-      <c r="AO64" s="1"/>
-      <c r="AP64" s="1"/>
-      <c r="AQ64" s="1"/>
-      <c r="AR64" s="1"/>
-      <c r="AS64" s="1"/>
-      <c r="AT64" s="1"/>
-      <c r="AU64" s="1"/>
-      <c r="AV64" s="1"/>
-      <c r="AW64" s="1"/>
-      <c r="AX64" s="1"/>
-      <c r="AY64" s="1"/>
-      <c r="AZ64" s="1"/>
-      <c r="BA64" s="1"/>
-      <c r="BB64" s="1"/>
-      <c r="BC64" s="1"/>
-      <c r="BD64" s="1"/>
-      <c r="BE64" s="1"/>
-      <c r="BF64" s="1"/>
-      <c r="BG64" s="1"/>
-      <c r="BH64" s="1"/>
-      <c r="BI64" s="1"/>
-      <c r="BJ64" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="K4:AL4"/>
-    <mergeCell ref="AM4:BJ4"/>
+  <mergeCells count="9">
+    <mergeCell ref="I4:AD4"/>
+    <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="I4:I6"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:E6"/>
-    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="H4:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K7:BJ64">
+  <conditionalFormatting sqref="I7:AD64">
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>AND(K$5&gt;=$D7,K$5&lt;=$E7)</formula>
+      <formula>AND(I$5&gt;=$D7,I$5&lt;=$E7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:BJ64">
+  <conditionalFormatting sqref="I5:AD64">
     <cfRule type="expression" dxfId="0" priority="6">
-      <formula>K$5=$E$3</formula>
+      <formula>I$5=$E$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:J64">
+  <conditionalFormatting sqref="G7:H64">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -9967,16 +7521,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9989,16 +7543,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>85725</xdr:rowOff>
+                    <xdr:rowOff>66675</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10011,16 +7565,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10033,13 +7587,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10055,13 +7609,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10077,13 +7631,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>49</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>50</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10099,13 +7653,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>54</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10121,13 +7675,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10154,7 +7708,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I7:J64</xm:sqref>
+          <xm:sqref>G7:H64</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10165,12 +7719,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AI30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="N27" sqref="N27"/>
+      <selection pane="topRight" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10187,32 +7741,27 @@
     <col min="11" max="11" width="42.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="50.625" customWidth="1"/>
     <col min="13" max="13" width="65.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="53.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="63.5" style="83" bestFit="1" customWidth="1"/>
-    <col min="16" max="35" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:35" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
       <c r="D2" s="14"/>
       <c r="E2" s="22"/>
       <c r="F2" s="3"/>
-      <c r="O2" s="94" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="16">
         <f ca="1">TODAY()</f>
-        <v>45652</v>
+        <v>45650</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>3</v>
@@ -10221,7 +7770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="79"/>
       <c r="B4" s="78" t="s">
         <v>87</v>
@@ -10262,71 +7811,8 @@
       <c r="N4" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="O4" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="P4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="R4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="S4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="T4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="U4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="W4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="X4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI4" s="78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="80"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
@@ -10341,29 +7827,8 @@
       <c r="L5" s="60"/>
       <c r="M5" s="60"/>
       <c r="N5" s="60"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="60"/>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="60"/>
-      <c r="AI5" s="60"/>
-    </row>
-    <row r="6" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="81"/>
       <c r="B6" s="61"/>
       <c r="C6" s="61"/>
@@ -10378,203 +7843,96 @@
       <c r="L6" s="61"/>
       <c r="M6" s="61"/>
       <c r="N6" s="61"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="61"/>
-      <c r="AI6" s="61"/>
-    </row>
-    <row r="7" spans="1:35" ht="27" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:14" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="D7" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>93</v>
-      </c>
       <c r="E7" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H7" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="J7" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="K7" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="L7" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="M7" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="M7" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="O7" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q7" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="R7" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="S7" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="T7" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="U7" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="V7" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="W7" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="X7" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y7" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z7" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA7" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB7" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC7" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD7" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE7" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF7" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG7" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH7" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI7" s="28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" ht="360" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:14" ht="360" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G8" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="26" t="s">
-        <v>127</v>
-      </c>
       <c r="I8" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="N8" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="O8" s="88" t="s">
-        <v>196</v>
-      </c>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-    </row>
-    <row r="9" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -10585,34 +7943,12 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-    </row>
-    <row r="10" spans="1:35" s="13" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:14" s="13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10"/>
-      <c r="O10" s="89"/>
-    </row>
-    <row r="11" spans="1:35" s="13" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:14" s="13" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="79"/>
       <c r="B11" s="78" t="s">
         <v>85</v>
@@ -10653,71 +7989,8 @@
       <c r="N11" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="O11" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="P11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="R11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="S11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="T11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="U11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="V11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="W11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="X11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI11" s="78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:14" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="80"/>
       <c r="B12" s="60"/>
       <c r="C12" s="60"/>
@@ -10732,29 +8005,8 @@
       <c r="L12" s="60"/>
       <c r="M12" s="60"/>
       <c r="N12" s="60"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="60"/>
-      <c r="AH12" s="60"/>
-      <c r="AI12" s="60"/>
-    </row>
-    <row r="13" spans="1:35" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="81"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -10769,200 +8021,91 @@
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="61"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="61"/>
-      <c r="AF13" s="61"/>
-      <c r="AG13" s="61"/>
-      <c r="AH13" s="61"/>
-      <c r="AI13" s="61"/>
-    </row>
-    <row r="14" spans="1:35" s="13" customFormat="1" ht="27" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:14" s="13" customFormat="1" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>86</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F14" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="13" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>114</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="K14" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="M14" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="N14" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="O14" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="P14" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q14" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="R14" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="S14" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="T14" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="U14" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="V14" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="W14" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="X14" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y14" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z14" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA14" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB14" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC14" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD14" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE14" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF14" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG14" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH14" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI14" s="28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" s="13" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>113</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="H15" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="K15" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>138</v>
-      </c>
       <c r="M15" s="26" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="N15" s="26"/>
-      <c r="O15" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="26"/>
-    </row>
-    <row r="16" spans="1:35" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O16" s="89"/>
-    </row>
-    <row r="17" spans="1:35" s="13" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:14" s="13" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="79"/>
       <c r="B17" s="78" t="s">
         <v>87</v>
@@ -11003,71 +8146,8 @@
       <c r="N17" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="O17" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="P17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="R17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="S17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="T17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="U17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="V17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="W17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="X17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI17" s="78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="80"/>
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
@@ -11082,29 +8162,8 @@
       <c r="L18" s="60"/>
       <c r="M18" s="60"/>
       <c r="N18" s="60"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="60"/>
-      <c r="AB18" s="60"/>
-      <c r="AC18" s="60"/>
-      <c r="AD18" s="60"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="60"/>
-      <c r="AG18" s="60"/>
-      <c r="AH18" s="60"/>
-      <c r="AI18" s="60"/>
-    </row>
-    <row r="19" spans="1:35" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="81"/>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
@@ -11119,202 +8178,93 @@
       <c r="L19" s="61"/>
       <c r="M19" s="61"/>
       <c r="N19" s="61"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="61"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="61"/>
-      <c r="AE19" s="61"/>
-      <c r="AF19" s="61"/>
-      <c r="AG19" s="61"/>
-      <c r="AH19" s="61"/>
-      <c r="AI19" s="61"/>
-    </row>
-    <row r="20" spans="1:35" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="D20" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>93</v>
-      </c>
       <c r="E20" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="J20" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="J20" s="28" t="s">
+      <c r="K20" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="28" t="s">
+      <c r="L20" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="28" t="s">
+      <c r="M20" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="N20" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="M20" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="N20" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="O20" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="P20" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q20" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="R20" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="S20" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="T20" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="U20" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="V20" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="W20" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="X20" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y20" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z20" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA20" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB20" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC20" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD20" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE20" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF20" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG20" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH20" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI20" s="28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" s="13" customFormat="1" ht="264" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:14" s="13" customFormat="1" ht="264" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="M21" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="N21" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="O21" s="88" t="s">
-        <v>195</v>
-      </c>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-    </row>
-    <row r="22" spans="1:35" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O22" s="89"/>
-    </row>
-    <row r="23" spans="1:35" s="13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="79"/>
       <c r="B23" s="78" t="s">
         <v>87</v>
@@ -11355,71 +8305,8 @@
       <c r="N23" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="O23" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="P23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="R23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="S23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="T23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="U23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="V23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="W23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="X23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI23" s="78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:14" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="80"/>
       <c r="B24" s="60"/>
       <c r="C24" s="76"/>
@@ -11434,29 +8321,8 @@
       <c r="L24" s="60"/>
       <c r="M24" s="60"/>
       <c r="N24" s="60"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="60"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="60"/>
-      <c r="AA24" s="60"/>
-      <c r="AB24" s="60"/>
-      <c r="AC24" s="60"/>
-      <c r="AD24" s="60"/>
-      <c r="AE24" s="60"/>
-      <c r="AF24" s="60"/>
-      <c r="AG24" s="60"/>
-      <c r="AH24" s="60"/>
-      <c r="AI24" s="60"/>
-    </row>
-    <row r="25" spans="1:35" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:14" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="81"/>
       <c r="B25" s="61"/>
       <c r="C25" s="77"/>
@@ -11471,283 +8337,135 @@
       <c r="L25" s="61"/>
       <c r="M25" s="61"/>
       <c r="N25" s="61"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61"/>
-      <c r="V25" s="61"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="61"/>
-      <c r="AA25" s="61"/>
-      <c r="AB25" s="61"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="61"/>
-      <c r="AF25" s="61"/>
-      <c r="AG25" s="61"/>
-      <c r="AH25" s="61"/>
-      <c r="AI25" s="61"/>
-    </row>
-    <row r="26" spans="1:35" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>86</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H26" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="J26" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="J26" s="28" t="s">
+      <c r="K26" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="K26" s="28" t="s">
+      <c r="L26" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="L26" s="28" t="s">
+      <c r="M26" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="N26" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="M26" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="N26" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="O26" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="P26" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q26" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="R26" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="S26" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="T26" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="U26" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="V26" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="W26" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="X26" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y26" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z26" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA26" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB26" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC26" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD26" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE26" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF26" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG26" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH26" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI26" s="28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" s="13" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:14" s="13" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>88</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K27" s="29"/>
       <c r="L27" s="29" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="N27" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="O27" s="90"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="29"/>
-      <c r="AI27" s="29"/>
-    </row>
-    <row r="28" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:35" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="141">
-    <mergeCell ref="AH23:AH25"/>
-    <mergeCell ref="AI23:AI25"/>
-    <mergeCell ref="AC23:AC25"/>
-    <mergeCell ref="AD23:AD25"/>
-    <mergeCell ref="AE23:AE25"/>
-    <mergeCell ref="AF23:AF25"/>
-    <mergeCell ref="AG23:AG25"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="Q23:Q25"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="U23:U25"/>
-    <mergeCell ref="V23:V25"/>
-    <mergeCell ref="W23:W25"/>
-    <mergeCell ref="X23:X25"/>
-    <mergeCell ref="Y23:Y25"/>
-    <mergeCell ref="Z23:Z25"/>
-    <mergeCell ref="AA23:AA25"/>
-    <mergeCell ref="AB23:AB25"/>
-    <mergeCell ref="AH17:AH19"/>
-    <mergeCell ref="AI17:AI19"/>
-    <mergeCell ref="AC17:AC19"/>
-    <mergeCell ref="AD17:AD19"/>
-    <mergeCell ref="AE17:AE19"/>
-    <mergeCell ref="AF17:AF19"/>
-    <mergeCell ref="AG17:AG19"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="U17:U19"/>
-    <mergeCell ref="V17:V19"/>
-    <mergeCell ref="W17:W19"/>
-    <mergeCell ref="X17:X19"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="Z17:Z19"/>
-    <mergeCell ref="AA17:AA19"/>
-    <mergeCell ref="AB17:AB19"/>
-    <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="AI11:AI13"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AD11:AD13"/>
-    <mergeCell ref="AE11:AE13"/>
-    <mergeCell ref="AF11:AF13"/>
-    <mergeCell ref="AG11:AG13"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Z11:Z13"/>
-    <mergeCell ref="AA11:AA13"/>
-    <mergeCell ref="AB11:AB13"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AI4:AI6"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="AD4:AD6"/>
-    <mergeCell ref="AE4:AE6"/>
-    <mergeCell ref="AF4:AF6"/>
-    <mergeCell ref="AG4:AG6"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="Z4:Z6"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="AB4:AB6"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="R4:R6"/>
+  <mergeCells count="57">
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E23:E25"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D17:D19"/>
@@ -11764,47 +8482,6 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C23:C25"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="N23:N25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241226)-발표자료.xlsx
+++ b/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241226)-발표자료.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.User -2023IVVKP\Desktop\양현석\FED-RV-YHS\9999.개인프로젝트\01.분석설계\프로젝트 관리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.User -2023IVVKP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="8565" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="213">
   <si>
     <t>시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,18 +397,6 @@
   </si>
   <si>
     <t>특이사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Javascript 기능을 배우지 않았으므로 HTML, CSS로 형태를 갖추어놓고 추후 진도에 따라 기능 추가 하기 바람.
-2. 원본 페이지에서는 유료 폰트를 사용하고 있으므로 스타일이 비슷한 무료 폰트 사용
-3. 인트로 페이지의 경우 따로두고 제작
-4. 화면 밝기 조절은 filter: brightness 
-5. 원본에 트랜지션을 주면 양방향이 된다.
-6. 개념 재정립
- margin: 0 auto / height 는 position: absolute에서 먹히지 않는다. 내용만큼 늘어나기 때문
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -824,32 +812,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 피드백 진행 후 반영하기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2. 미디어 쿼리 추천제품 영역부터 이어서 시작</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 메인페이지 미디어 쿼리 진행
 - About us 
 - Lookbook
@@ -1597,28 +1559,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. 미디어쿼리를 미리 해야하는 내용에 따라 파트별 작성 이후 미디어쿼리 진행
-2. 자바 스크립트 진도에 따라 배우는 기능들이 있어 필요한 기능을 넣기까지 기다려야하므로 나머지 HTML,CSS, 미디어쿼리 일정을 최대한 앞당겨서 작업 진행할 것
-3. 로딩 애니메이션은 메인페이지 완성 메인페이지 미디어쿼리 이후 진행
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4. 질문(12/13 피드백 진행)
-- 밑줄 애니메이션 오버 아웃시 밑줄이 오른쪽으로 가도록 변경하기
-- 상단영역 탑메뉴 SVG 색깔 바꾸기</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <strike/>
         <sz val="15"/>
@@ -1671,6 +1611,1043 @@
     <t>1. 메인페이지 등장 애니메이션 정리
 2. SHOP 페이지 추가
 3. 장바구니 서브페이지 미디어쿼리 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 전체 화면을 싸고 있는 박스를 하나 만들어서 aspect-ratio 이용
+3. 제이쿼리 애니메이션 이용 (Lookbook 페이지는 Css 애니메이션 이용)
+4. body class 적용하기 , 발표를 곧 해야하므로 만들어져있는 함수 연결
+5. 스스로 해결 완료
+6. CSS 애니메이션 적용
+7. 발표를 곧 해야하므로 선생님께서 적용시켜주심.
+이벤트 발생 후 재발생되지 않도록 변수 제어하기
+9. 스스로 해결 완료
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 탑 상단영역 로고 SVG 색상 셋팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 탑 상단영역 로고 SVG 색상 셋팅
+2. 탑 상단영역부터 미디어 쿼리 신속하게 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[인디케이터 아이디어]
+스크롤 하면서 메인페이지 각 영역마다 왼쪽 상단에 위치를 우선적으로 알려줄 수 있는 인디케이터를 놓으면 좋겠다는 생각.
+사용하고 있는 색감들과 너무 벗어나지 않는 범위 내의 스타일이면 좋을 듯.
+페이지 스크롤 내려가면서 영역 나뉠때마다 애니메이션 주면서 인디케이터 해당 페이지에 맞게 변환하면 될 듯.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-&gt; 미디어쿼리까지 마무리하고 서브페이지 넘어가기 전에 인디케이터 디자인 진행하고 넘어갈 것. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀 파일 저장 미흡으로 인해 피드백 내용 기록되지 않음. 깃허브 올리기 전에 저장 잘 되었는지 확인하고 푸쉬해야 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 오버시 색상 전환효과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 서브페이지-Shop으로 이동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 홈페이지 최초 로딩시 쿠키 알림 노출
+2. ACCEPT 버튼 오버시 색상 전환효과
+3. 클릭시 사라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 햄버거바/Shop/로고/장바구니 순으로 배치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 스크롤시 배경 색상에 따라 총 3가지 스타일로 반응</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(GNB 스타일 단일화로 결정)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* 원본 페이지보다 네비게이션 바의 요소들의 크기를 키울 계획</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 클릭시 아래쪽 방향으로 노출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 네비게이션 바깥 배경 투명도 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. 클릭 및 클릭 해제시 버튼 전환 애니메이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. 오버시 색상 전환효과</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 하위 카테고리 양방향 오버 밑줄 애니메이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 해당 페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 서브페이지-Shop으로 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 오버시 색상 전환효과</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 일부 애니메이션만 반영됨. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 스크롤시 이미지 &gt; 제목 &gt; 내용 순으로 아래쪽에서 위쪽으로
+페이드 인-아웃 되는 등장 애니메이션(추후 반영)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 스크롤시 제품명&gt;설명&gt;View product 순으로 아래쪽에서 위쪽으로
+페이드 인-아웃 되는 등장 애니메이션(추후 반영)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 오버시 색상 전환효과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 서브페이지-Shop-제품상세로 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 오버시 색상전환 및 왼쪽에서 오른쪽으로 밑줄 효과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 서브페이지-Lookbook 이동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 오버시 색상전환 및 왼쪽에서 오른쪽으로 밑줄 효과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 서브페이지-Shop 이동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 스크롤시 제목 &gt; 내용 순으로 아래쪽에서 위쪽으로
+페이드 인-아웃 되는 등장 애니메이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(해당 프로젝트에서 반영하지 않음)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+* 이번 프로젝트에서 기사 메인&amp;서브 상세페이지는 구현하지 않음.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 오버시 이미지 중심을 기준으로 약 10% 확대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 준비중 알림 출력</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 오버시 글자 색상 전환 효과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 준비중 알림 출력</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">서브페이지-Shop-최종구매
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(일정 교육과정 진행이후 제작)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 클릭시 메인 페이지 상단으로 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(추후 수정필요)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 제품 이미지가 하나씩 위에서 아래로 내려오는 애니메이션(구현 가능한 애니메이션으로 대체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 오버시 제품이미지를 중심으로 약10% 확대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 클릭시 오른쪽에서 왼쪽으로 제품이미지 화면 노출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(화면만 제작 완료, 추후 수정 필요)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. 제품이미지 화면 바깥 화면 투명도 낮춤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. 바깥 화면 클릭시 제품 이미지 화면 닫힘(추후 반영)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">필터링
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(일정 교육과정 진행이후 제작)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 구현 가능한 부분까지 정리해서 발표자료 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-26 (화)</t>
+  </si>
+  <si>
+    <t>2024-12-27 (수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-2 (목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-3 (금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-30 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-31 (화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-10 (금)</t>
+  </si>
+  <si>
+    <t>2025-1-6 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-7 (화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-8 (수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-9 (목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-13 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-14 (화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-15 (수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-16 (목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-17 (금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-20 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-21 (화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-22 (수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-23 (목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-1-24 (금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 
+1. 첫 등장 애니메이션 이미지가 늦게 로딩되는 현상
+2. 서버에 들어가면 룩북 페이지가 이동되지 않는 현상
+3. 메인페이지 메인텍스트 아래에서 위로 올라오는 애니메이션
+4. SHOP , CONTACT 화면 비율줄이기 셋팅
+5. 여러 버튼들 클릭할 때 툭툭 잔여페이지?가 남는 현상해결
+6. 이미지 오버안에 오버하는 법
+7. 룩북 서브메뉴 광클금지 셋팅
+8. 모바일 애니메이션 쿼리 비율 셋팅?
+9. 모바일 로딩 너무 늦는것 같은데 ..
+10. 서브메뉴 양방향 트랜지션 설정하려면 .. !?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 피드백 반영 및 일정표 재정립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 프로젝트 발표
+2. 피드백 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 서브페이지 구성 및 추가
+2. 미디어 쿼리 상시 수정
+3. 발표까지 작업할 구역 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 발표자료 정리 및 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 미디어쿼리를 미리 해야하는 내용에 따라 파트별 작성 이후 미디어쿼리 진행
+2. 자바 스크립트 진도에 따라 배우는 기능들이 있어 필요한 기능을 넣기까지 기다려야하므로 나머지 HTML,CSS, 미디어쿼리 일정을 최대한 앞당겨서 작업 진행할 것
+3. 로딩 애니메이션은 메인페이지 완성 메인페이지 미디어쿼리 이후 진행
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. 질문(12/13 피드백 진행)
+- 밑줄 애니메이션 오버 아웃시 밑줄이 오른쪽으로 가도록 변경하기
+- 상단영역 탑메뉴 SVG 색깔 바꾸기</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Javascript 기능을 배우지 않았으므로 HTML, CSS로 형태를 갖추어놓고 추후 진도에 따라 기능 추가 하기 바람.
+2. 원본 페이지에서는 유료 폰트를 사용하고 있으므로 스타일이 비슷한 무료 폰트 사용
+3. 인트로 페이지의 경우 따로두고 제작
+4. 화면 밝기 조절은 filter: brightness 
+5. 원본에 트랜지션을 주면 양방향이 된다.
+6. 개념 다시 익히기
+ margin: 0 auto / height 는 position: absolute에서 먹히지 않는다. 내용만큼 늘어나기 때문
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 피드백 진행 후 반영하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 미디어 쿼리 추천제품 영역부터 이어서 시작</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 주말동안 서브페이지 최대한 구현해보고,
+월요일에 구현기능 및 영역 재정비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 월요일부터는 발표자료 작성하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. 월요일에는 피드백을 받는 것이 좋을 것 같음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. 스크롤 애니메이션 등 구현영역 축소 필요</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1688,59 +2665,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 서브페이지 구성 및 추가
-2. 미디어 쿼리 상시 수정
-3. 발표까지 작업할 구역 선정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 발표자료 정리 및 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 전체 화면을 싸고 있는 박스를 하나 만들어서 aspect-ratio 이용
-3. 제이쿼리 애니메이션 이용 (Lookbook 페이지는 Css 애니메이션 이용)
-4. body class 적용하기 , 발표를 곧 해야하므로 만들어져있는 함수 연결
-5. 스스로 해결 완료
-6. CSS 애니메이션 적용
-7. 발표를 곧 해야하므로 선생님께서 적용시켜주심.
-이벤트 발생 후 재발생되지 않도록 변수 제어하기
-9. 스스로 해결 완료
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 탑 상단영역 로고 SVG 색상 셋팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 탑 상단영역 로고 SVG 색상 셋팅
-2. 탑 상단영역부터 미디어 쿼리 신속하게 진행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[인디케이터 아이디어]
-스크롤 하면서 메인페이지 각 영역마다 왼쪽 상단에 위치를 우선적으로 알려줄 수 있는 인디케이터를 놓으면 좋겠다는 생각.
-사용하고 있는 색감들과 너무 벗어나지 않는 범위 내의 스타일이면 좋을 듯.
-페이지 스크롤 내려가면서 영역 나뉠때마다 애니메이션 주면서 인디케이터 해당 페이지에 맞게 변환하면 될 듯.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-&gt; 미디어쿼리까지 마무리하고 서브페이지 넘어가기 전에 인디케이터 디자인 진행하고 넘어갈 것. </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엑셀 파일 저장 미흡으로 인해 피드백 내용 기록되지 않음. 깃허브 올리기 전에 저장 잘 되었는지 확인하고 푸쉬해야 함.</t>
+    <t>추가 작업시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 작업종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1754,7 +2683,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1. 오버시 색상 전환효과</t>
+      <t>1. 클릭시 오른쪽 끝에서 왼쪽으로 장바구니 리스트 노출</t>
     </r>
     <r>
       <rPr>
@@ -1778,17 +2707,45 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2. 클릭시 서브페이지-Shop으로 이동</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 홈페이지 최초 로딩시 쿠키 알림 노출
-2. ACCEPT 버튼 오버시 색상 전환효과
-3. 클릭시 사라짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>2. Close 닫기 버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. + , - 기호 클릭시 상품 개수 수정(추후 반영)
+4. 장바구니 토탈 가격 안내(추후 반영)
+5. Proceed to checkout 버튼 클릭시 구매페이지 이동(추후 장바구니 교육받은 후 제작)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <r>
       <rPr>
         <strike/>
@@ -1799,7 +2756,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1. 햄버거바/Shop/로고/장바구니 순으로 배치</t>
+      <t>6. Continue shopping 버튼 클릭시 서브페이지-Shop으로 이동</t>
     </r>
     <r>
       <rPr>
@@ -1813,6 +2770,68 @@
       <t xml:space="preserve">
 </t>
     </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7. 제품명 오버시 색상 전환 및 클릭시 제품 상세페이지로 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8. 제품 이미지 클릭시 제품 상세페이지로 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9. 장바구니 리스트 화면 바깥 배경 투명도 낮춤</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <strike/>
@@ -1823,7 +2842,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2. 스크롤시 배경 색상에 따라 총 3가지 스타일로 반응</t>
+      <t>1. 제품 이미지 페이드 인-아웃-아웃 전환</t>
     </r>
     <r>
       <rPr>
@@ -1834,7 +2853,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(GNB 스타일 단일화로 결정)</t>
+      <t>(해당 프로젝트에서 적용 X)</t>
     </r>
     <r>
       <rPr>
@@ -1848,6 +2867,20 @@
       <t xml:space="preserve">
 </t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 제품명 클릭시 제품상세페이지 이동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <strike/>
@@ -1858,33 +2891,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>* 원본 페이지보다 네비게이션 바의 요소들의 크기를 키울 계획</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 제품 이미지 페이드 인-아웃-아웃 전환</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(해당 프로젝트에서 적용 X)</t>
+      <t>1. 오버시 색상 전환효과</t>
     </r>
     <r>
       <rPr>
@@ -1908,8 +2915,24 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2. 제품명 클릭시 제품상세페이지 이동</t>
-    </r>
+      <t xml:space="preserve">2. 클릭시 오른쪽 화면 끝에서 왼쪽으로 장바구니 리스트 노출
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. 장바구니에 제품 담길 때 개수 변경기능(추후 반영)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1923,7 +2946,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1. 클릭시 아래쪽 방향으로 노출</t>
+      <t>1. 오버시 왼쪽에서 오른쪽으로 밑줄 효과</t>
     </r>
     <r>
       <rPr>
@@ -1935,288 +2958,19 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 네비게이션 바깥 배경 투명도 50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3. 클릭 및 클릭 해제시 버튼 전환 애니메이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4. 오버시 색상 전환효과</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 하위 카테고리 양방향 오버 밑줄 애니메이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 해당 페이지로 이동</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 서브페이지-Shop으로 이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 오버시 색상 전환효과</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 클릭시 오른쪽 끝에서 왼쪽으로 장바구니 리스트 노출</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. Close 닫기 버튼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3. + , - 기호 클릭시 상품 개수 수정(추후 반영)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4. 장바구니 토탈 가격 안내(추후 반영)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5. Proceed to checkout 버튼 클릭시 구매페이지 이동(추후 장바구니 교육받은 후 제작)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6. Continue shopping 버튼 클릭시 서브페이지-Shop으로 이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+2. 클릭시 서브페이지-Shop-제품상세로 이동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 제품이미지 자동 페이드 인-아웃-아웃 전환 효과
+2. 미디어쿼리 수정 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 스크롤시 제목 &gt; 내용 순으로 아래쪽에서 위쪽으로
+페이드 인-아웃 되는 등장 애니메이션(추후 반영)
 </t>
     </r>
     <r>
@@ -2228,576 +2982,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7. 제품명 오버시 색상 전환 및 클릭시 제품 상세페이지로 이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8. 제품 이미지 클릭시 제품 상세페이지로 이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9. 장바구니 리스트 화면 바깥 배경 투명도 낮춤</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 색상 전환효과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 오른쪽 화면 끝에서 왼쪽으로 장바구니 리스트 노출</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">* 일부 애니메이션만 반영됨. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 스크롤시 이미지 &gt; 제목 &gt; 내용 순으로 아래쪽에서 위쪽으로
-페이드 인-아웃 되는 등장 애니메이션(추후 반영)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 스크롤시 제품명&gt;설명&gt;View product 순으로 아래쪽에서 위쪽으로
-페이드 인-아웃 되는 등장 애니메이션(추후 반영)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 색상 전환효과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 서브페이지-Shop-제품상세로 이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 왼쪽에서 오른쪽으로 밑줄 효과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2. 클릭시 서브페이지-Shop-제품상세로 이동</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 스크롤시 제목 &gt; 내용 순으로 아래쪽에서 위쪽으로
-페이드 인-아웃 되는 등장 애니메이션(추후 반영)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 색상전환 및 왼쪽에서 오른쪽으로 밑줄 효과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 서브페이지-Lookbook 이동</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 색상전환 및 왼쪽에서 오른쪽으로 밑줄 효과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 서브페이지-Shop 이동</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 제품이미지 자동 페이드 인-아웃-아웃 전환 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 스크롤시 제목 &gt; 내용 순으로 아래쪽에서 위쪽으로
-페이드 인-아웃 되는 등장 애니메이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(해당 프로젝트에서 반영하지 않음)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-* 이번 프로젝트에서 기사 메인&amp;서브 상세페이지는 구현하지 않음.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 이미지 중심을 기준으로 약 10% 확대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 준비중 알림 출력</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 글자 색상 전환 효과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 준비중 알림 출력</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">서브페이지-Shop-최종구매
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(일정 교육과정 진행이후 제작)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 클릭시 메인 페이지 상단으로 이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(추후 수정필요)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 제품 이미지가 하나씩 위에서 아래로 내려오는 애니메이션(구현 가능한 애니메이션으로 대체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 오버시 제품이미지를 중심으로 약10% 확대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 클릭시 오른쪽에서 왼쪽으로 제품이미지 화면 노출</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(화면만 제작 완료, 추후 수정 필요)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3. 제품이미지 화면 바깥 화면 투명도 낮춤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4. 바깥 화면 클릭시 제품 이미지 화면 닫힘(추후 반영)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">필터링
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(일정 교육과정 진행이후 제작)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 구현 가능한 부분까지 정리해서 발표자료 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 주말동안 서브페이지 최대한 구현해보고,
-월요일에 구현기능 및 영역 재정비
-2. 월요일부터는 발표자료 작성하기
-3. 월요일에는 피드백을 받는 것이 좋을 것 같음
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4. 스크롤 애니메이션 등 구현영역 축소 필요</t>
+      <t>2. 해당 영역 미디어쿼리 수정필요</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2812,7 +2997,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3147,8 +3332,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="30"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3161,8 +3354,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -3545,13 +3744,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3711,6 +3942,36 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3718,6 +3979,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3768,15 +4038,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3787,6 +4048,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3877,16 +4156,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>400050</xdr:rowOff>
+          <xdr:rowOff>409575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3941,16 +4220,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4005,16 +4284,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>400050</xdr:rowOff>
+          <xdr:rowOff>409575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4069,13 +4348,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4133,13 +4412,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4197,13 +4476,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4261,13 +4540,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4325,13 +4604,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4652,10 +4931,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:AD64"/>
+  <dimension ref="B1:BJ64"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AJ14" sqref="AJ14"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4666,281 +4945,537 @@
     <col min="4" max="4" width="14.25" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.875" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.25" customWidth="1"/>
-    <col min="9" max="30" width="3.625" customWidth="1"/>
+    <col min="7" max="8" width="20.875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.25" customWidth="1"/>
+    <col min="11" max="62" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:30" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="62" t="s">
+    <row r="1" spans="2:62" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:62" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="14"/>
       <c r="F2" s="22"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="2:30" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:62" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="16">
         <f ca="1">TODAY()</f>
-        <v>45650</v>
+        <v>45653</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="2:30" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="66" t="s">
+    <row r="4" spans="2:62" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="75" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4" s="53">
+      <c r="K4" s="63">
         <v>45630</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="55"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
+      <c r="AI4" s="64"/>
+      <c r="AJ4" s="64"/>
+      <c r="AK4" s="64"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="64">
+        <v>45658</v>
+      </c>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="64"/>
+      <c r="AP4" s="64"/>
+      <c r="AQ4" s="64"/>
+      <c r="AR4" s="64"/>
+      <c r="AS4" s="64"/>
+      <c r="AT4" s="64"/>
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="64"/>
+      <c r="AW4" s="64"/>
+      <c r="AX4" s="64"/>
+      <c r="AY4" s="64"/>
+      <c r="AZ4" s="64"/>
+      <c r="BA4" s="64"/>
+      <c r="BB4" s="64"/>
+      <c r="BC4" s="64"/>
+      <c r="BD4" s="64"/>
+      <c r="BE4" s="64"/>
+      <c r="BF4" s="64"/>
+      <c r="BG4" s="64"/>
+      <c r="BH4" s="64"/>
+      <c r="BI4" s="64"/>
+      <c r="BJ4" s="64"/>
     </row>
-    <row r="5" spans="2:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="67"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="20">
-        <f>I4</f>
+    <row r="5" spans="2:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="80"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="20">
+        <f>K4</f>
         <v>45630</v>
       </c>
-      <c r="J5" s="20">
-        <f>I5+1</f>
+      <c r="L5" s="20">
+        <f>K5+1</f>
         <v>45631</v>
       </c>
-      <c r="K5" s="20">
-        <f t="shared" ref="K5:AD6" si="0">J5+1</f>
+      <c r="M5" s="20">
+        <f t="shared" ref="M5:AE6" si="0">L5+1</f>
         <v>45632</v>
       </c>
-      <c r="L5" s="20">
+      <c r="N5" s="20">
         <f t="shared" si="0"/>
         <v>45633</v>
       </c>
-      <c r="M5" s="20">
+      <c r="O5" s="20">
         <f t="shared" si="0"/>
         <v>45634</v>
       </c>
-      <c r="N5" s="20">
+      <c r="P5" s="20">
         <f t="shared" si="0"/>
         <v>45635</v>
       </c>
-      <c r="O5" s="20">
+      <c r="Q5" s="20">
         <f t="shared" si="0"/>
         <v>45636</v>
       </c>
-      <c r="P5" s="20">
+      <c r="R5" s="20">
         <f t="shared" si="0"/>
         <v>45637</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="S5" s="20">
         <f t="shared" si="0"/>
         <v>45638</v>
       </c>
-      <c r="R5" s="20">
+      <c r="T5" s="20">
         <f t="shared" si="0"/>
         <v>45639</v>
       </c>
-      <c r="S5" s="20">
+      <c r="U5" s="20">
         <f t="shared" si="0"/>
         <v>45640</v>
       </c>
-      <c r="T5" s="20">
+      <c r="V5" s="20">
         <f t="shared" si="0"/>
         <v>45641</v>
       </c>
-      <c r="U5" s="20">
+      <c r="W5" s="20">
         <f t="shared" si="0"/>
         <v>45642</v>
       </c>
-      <c r="V5" s="20">
+      <c r="X5" s="20">
         <f t="shared" si="0"/>
         <v>45643</v>
       </c>
-      <c r="W5" s="20">
+      <c r="Y5" s="20">
         <f t="shared" si="0"/>
         <v>45644</v>
       </c>
-      <c r="X5" s="20">
+      <c r="Z5" s="20">
         <f t="shared" si="0"/>
         <v>45645</v>
       </c>
-      <c r="Y5" s="20">
+      <c r="AA5" s="20">
         <f t="shared" si="0"/>
         <v>45646</v>
       </c>
-      <c r="Z5" s="20">
+      <c r="AB5" s="20">
         <f t="shared" si="0"/>
         <v>45647</v>
       </c>
-      <c r="AA5" s="20">
+      <c r="AC5" s="20">
         <f t="shared" si="0"/>
         <v>45648</v>
       </c>
-      <c r="AB5" s="20">
+      <c r="AD5" s="20">
         <f t="shared" si="0"/>
         <v>45649</v>
       </c>
-      <c r="AC5" s="20">
+      <c r="AE5" s="20">
         <f t="shared" si="0"/>
         <v>45650</v>
       </c>
-      <c r="AD5" s="20">
-        <f t="shared" si="0"/>
-        <v>45651</v>
+      <c r="AF5" s="20">
+        <v>25</v>
+      </c>
+      <c r="AG5" s="20">
+        <v>26</v>
+      </c>
+      <c r="AH5" s="20">
+        <v>27</v>
+      </c>
+      <c r="AI5" s="20">
+        <v>28</v>
+      </c>
+      <c r="AJ5" s="20">
+        <v>29</v>
+      </c>
+      <c r="AK5" s="20">
+        <v>30</v>
+      </c>
+      <c r="AL5" s="20">
+        <v>31</v>
+      </c>
+      <c r="AM5" s="20">
+        <v>32</v>
+      </c>
+      <c r="AN5" s="20">
+        <v>33</v>
+      </c>
+      <c r="AO5" s="20">
+        <v>34</v>
+      </c>
+      <c r="AP5" s="20">
+        <v>35</v>
+      </c>
+      <c r="AQ5" s="20">
+        <v>36</v>
+      </c>
+      <c r="AR5" s="20">
+        <v>37</v>
+      </c>
+      <c r="AS5" s="20">
+        <v>38</v>
+      </c>
+      <c r="AT5" s="20">
+        <v>39</v>
+      </c>
+      <c r="AU5" s="20">
+        <v>40</v>
+      </c>
+      <c r="AV5" s="20">
+        <v>41</v>
+      </c>
+      <c r="AW5" s="20">
+        <v>42</v>
+      </c>
+      <c r="AX5" s="20">
+        <v>43</v>
+      </c>
+      <c r="AY5" s="20">
+        <v>44</v>
+      </c>
+      <c r="AZ5" s="20">
+        <v>45</v>
+      </c>
+      <c r="BA5" s="20">
+        <v>46</v>
+      </c>
+      <c r="BB5" s="20">
+        <v>47</v>
+      </c>
+      <c r="BC5" s="20">
+        <v>48</v>
+      </c>
+      <c r="BD5" s="20">
+        <v>49</v>
+      </c>
+      <c r="BE5" s="20">
+        <v>50</v>
+      </c>
+      <c r="BF5" s="20">
+        <v>51</v>
+      </c>
+      <c r="BG5" s="20">
+        <v>52</v>
+      </c>
+      <c r="BH5" s="20">
+        <v>53</v>
+      </c>
+      <c r="BI5" s="20">
+        <v>54</v>
+      </c>
+      <c r="BJ5" s="20">
+        <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="68"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="21">
-        <f>I5</f>
+    <row r="6" spans="2:62" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="81"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="21">
+        <f>K5</f>
         <v>45630</v>
       </c>
-      <c r="J6" s="21">
-        <f>I6+1</f>
+      <c r="L6" s="21">
+        <f>K6+1</f>
         <v>45631</v>
       </c>
-      <c r="K6" s="21">
+      <c r="M6" s="21">
         <f t="shared" si="0"/>
         <v>45632</v>
       </c>
-      <c r="L6" s="21">
+      <c r="N6" s="21">
         <f t="shared" si="0"/>
         <v>45633</v>
       </c>
-      <c r="M6" s="21">
+      <c r="O6" s="21">
         <f t="shared" si="0"/>
         <v>45634</v>
       </c>
-      <c r="N6" s="21">
+      <c r="P6" s="21">
         <f t="shared" si="0"/>
         <v>45635</v>
       </c>
-      <c r="O6" s="21">
+      <c r="Q6" s="21">
         <f t="shared" si="0"/>
         <v>45636</v>
       </c>
-      <c r="P6" s="21">
+      <c r="R6" s="21">
         <f t="shared" si="0"/>
         <v>45637</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="S6" s="21">
         <f t="shared" si="0"/>
         <v>45638</v>
       </c>
-      <c r="R6" s="21">
+      <c r="T6" s="21">
         <f t="shared" si="0"/>
         <v>45639</v>
       </c>
-      <c r="S6" s="21">
+      <c r="U6" s="21">
         <f t="shared" si="0"/>
         <v>45640</v>
       </c>
-      <c r="T6" s="21">
+      <c r="V6" s="21">
         <f t="shared" si="0"/>
         <v>45641</v>
       </c>
-      <c r="U6" s="21">
+      <c r="W6" s="21">
         <f t="shared" si="0"/>
         <v>45642</v>
       </c>
-      <c r="V6" s="21">
+      <c r="X6" s="21">
         <f t="shared" si="0"/>
         <v>45643</v>
       </c>
-      <c r="W6" s="21">
+      <c r="Y6" s="21">
         <f t="shared" si="0"/>
         <v>45644</v>
       </c>
-      <c r="X6" s="21">
+      <c r="Z6" s="21">
         <f t="shared" si="0"/>
         <v>45645</v>
       </c>
-      <c r="Y6" s="21">
+      <c r="AA6" s="21">
         <f t="shared" si="0"/>
         <v>45646</v>
       </c>
-      <c r="Z6" s="21">
+      <c r="AB6" s="21">
         <f t="shared" si="0"/>
         <v>45647</v>
       </c>
-      <c r="AA6" s="21">
+      <c r="AC6" s="21">
         <f t="shared" si="0"/>
         <v>45648</v>
       </c>
-      <c r="AB6" s="21">
+      <c r="AD6" s="21">
         <f t="shared" si="0"/>
         <v>45649</v>
       </c>
-      <c r="AC6" s="21">
+      <c r="AE6" s="21">
         <f t="shared" si="0"/>
         <v>45650</v>
       </c>
-      <c r="AD6" s="21">
-        <f t="shared" si="0"/>
+      <c r="AF6" s="21">
+        <f t="shared" ref="AF6" si="1">AE6+1</f>
         <v>45651</v>
       </c>
+      <c r="AG6" s="21">
+        <f t="shared" ref="AG6" si="2">AF6+1</f>
+        <v>45652</v>
+      </c>
+      <c r="AH6" s="21">
+        <f t="shared" ref="AH6" si="3">AG6+1</f>
+        <v>45653</v>
+      </c>
+      <c r="AI6" s="21">
+        <f t="shared" ref="AI6" si="4">AH6+1</f>
+        <v>45654</v>
+      </c>
+      <c r="AJ6" s="21">
+        <f t="shared" ref="AJ6" si="5">AI6+1</f>
+        <v>45655</v>
+      </c>
+      <c r="AK6" s="21">
+        <f t="shared" ref="AK6" si="6">AJ6+1</f>
+        <v>45656</v>
+      </c>
+      <c r="AL6" s="21">
+        <f t="shared" ref="AL6" si="7">AK6+1</f>
+        <v>45657</v>
+      </c>
+      <c r="AM6" s="21">
+        <f t="shared" ref="AM6" si="8">AL6+1</f>
+        <v>45658</v>
+      </c>
+      <c r="AN6" s="21">
+        <f t="shared" ref="AN6" si="9">AM6+1</f>
+        <v>45659</v>
+      </c>
+      <c r="AO6" s="21">
+        <f t="shared" ref="AO6" si="10">AN6+1</f>
+        <v>45660</v>
+      </c>
+      <c r="AP6" s="21">
+        <f t="shared" ref="AP6" si="11">AO6+1</f>
+        <v>45661</v>
+      </c>
+      <c r="AQ6" s="21">
+        <f t="shared" ref="AQ6" si="12">AP6+1</f>
+        <v>45662</v>
+      </c>
+      <c r="AR6" s="21">
+        <f t="shared" ref="AR6" si="13">AQ6+1</f>
+        <v>45663</v>
+      </c>
+      <c r="AS6" s="21">
+        <f t="shared" ref="AS6" si="14">AR6+1</f>
+        <v>45664</v>
+      </c>
+      <c r="AT6" s="21">
+        <f t="shared" ref="AT6" si="15">AS6+1</f>
+        <v>45665</v>
+      </c>
+      <c r="AU6" s="21">
+        <f t="shared" ref="AU6" si="16">AT6+1</f>
+        <v>45666</v>
+      </c>
+      <c r="AV6" s="21">
+        <f t="shared" ref="AV6" si="17">AU6+1</f>
+        <v>45667</v>
+      </c>
+      <c r="AW6" s="21">
+        <f t="shared" ref="AW6" si="18">AV6+1</f>
+        <v>45668</v>
+      </c>
+      <c r="AX6" s="21">
+        <f t="shared" ref="AX6" si="19">AW6+1</f>
+        <v>45669</v>
+      </c>
+      <c r="AY6" s="21">
+        <f t="shared" ref="AY6" si="20">AX6+1</f>
+        <v>45670</v>
+      </c>
+      <c r="AZ6" s="21">
+        <f t="shared" ref="AZ6" si="21">AY6+1</f>
+        <v>45671</v>
+      </c>
+      <c r="BA6" s="21">
+        <f t="shared" ref="BA6" si="22">AZ6+1</f>
+        <v>45672</v>
+      </c>
+      <c r="BB6" s="21">
+        <f t="shared" ref="BB6" si="23">BA6+1</f>
+        <v>45673</v>
+      </c>
+      <c r="BC6" s="21">
+        <f t="shared" ref="BC6" si="24">BB6+1</f>
+        <v>45674</v>
+      </c>
+      <c r="BD6" s="21">
+        <f t="shared" ref="BD6" si="25">BC6+1</f>
+        <v>45675</v>
+      </c>
+      <c r="BE6" s="21">
+        <f t="shared" ref="BE6" si="26">BD6+1</f>
+        <v>45676</v>
+      </c>
+      <c r="BF6" s="21">
+        <f t="shared" ref="BF6" si="27">BE6+1</f>
+        <v>45677</v>
+      </c>
+      <c r="BG6" s="21">
+        <f t="shared" ref="BG6" si="28">BF6+1</f>
+        <v>45678</v>
+      </c>
+      <c r="BH6" s="21">
+        <f t="shared" ref="BH6" si="29">BG6+1</f>
+        <v>45679</v>
+      </c>
+      <c r="BI6" s="21">
+        <f t="shared" ref="BI6" si="30">BH6+1</f>
+        <v>45680</v>
+      </c>
+      <c r="BJ6" s="21">
+        <f t="shared" ref="BJ6" si="31">BI6+1</f>
+        <v>45681</v>
+      </c>
     </row>
-    <row r="7" spans="2:30" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:62" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -4955,15 +5490,15 @@
         <f>IF(E7="","",E7+1-D7)</f>
         <v>6</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="18">
         <v>70</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="31"/>
+      <c r="K7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -4983,13 +5518,45 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="2"/>
     </row>
-    <row r="8" spans="2:30" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:62" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D8" s="12">
         <v>45630</v>
@@ -4998,15 +5565,19 @@
         <v>45635</v>
       </c>
       <c r="F8" s="24">
-        <f t="shared" ref="F8:F64" si="1">IF(E8="","",E8+1-D8)</f>
+        <f t="shared" ref="F8:F64" si="32">IF(E8="","",E8+1-D8)</f>
         <v>6</v>
       </c>
-      <c r="G8" s="19">
-        <v>50</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="G8" s="59">
+        <v>45660</v>
+      </c>
+      <c r="H8" s="59">
+        <v>45663</v>
+      </c>
+      <c r="I8" s="19">
+        <v>100</v>
+      </c>
+      <c r="J8" s="19"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -5027,13 +5598,45 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
     </row>
-    <row r="9" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="D9" s="12">
         <v>45630</v>
@@ -5042,15 +5645,19 @@
         <v>45635</v>
       </c>
       <c r="F9" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="59">
+        <v>45660</v>
+      </c>
+      <c r="H9" s="59">
+        <v>45663</v>
+      </c>
+      <c r="I9" s="19">
         <v>50</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -5071,13 +5678,45 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
     </row>
-    <row r="10" spans="2:30" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:62" ht="66" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D10" s="12">
         <v>45630</v>
@@ -5086,15 +5725,15 @@
         <v>45635</v>
       </c>
       <c r="F10" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="19">
         <v>100</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -5115,13 +5754,45 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
     </row>
-    <row r="11" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D11" s="12">
         <v>45630</v>
@@ -5130,15 +5801,15 @@
         <v>45635</v>
       </c>
       <c r="F11" s="24">
-        <f t="shared" ref="F11" si="2">IF(E11="","",E11+1-D11)</f>
+        <f t="shared" ref="F11" si="33">IF(E11="","",E11+1-D11)</f>
         <v>6</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="19">
         <v>100</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -5159,13 +5830,45 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
     </row>
-    <row r="12" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D12" s="12">
         <v>45630</v>
@@ -5174,15 +5877,15 @@
         <v>45635</v>
       </c>
       <c r="F12" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="19">
         <v>100</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -5203,12 +5906,44 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
     </row>
-    <row r="13" spans="2:30" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:62" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="46" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="12">
@@ -5218,15 +5953,15 @@
         <v>45635</v>
       </c>
       <c r="F13" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="19">
         <v>100</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -5247,13 +5982,45 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
     </row>
-    <row r="14" spans="2:30" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:62" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="D14" s="12">
         <v>45630</v>
@@ -5262,15 +6029,19 @@
         <v>45635</v>
       </c>
       <c r="F14" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="59">
+        <v>45660</v>
+      </c>
+      <c r="H14" s="59">
+        <v>45663</v>
+      </c>
+      <c r="I14" s="19">
         <v>50</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="19"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -5291,13 +6062,45 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
     </row>
-    <row r="15" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:62" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="D15" s="12">
         <v>45630</v>
@@ -5306,15 +6109,19 @@
         <v>45635</v>
       </c>
       <c r="F15" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="G15" s="19">
-        <v>100</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="G15" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="H15" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="I15" s="19">
+        <v>75</v>
+      </c>
+      <c r="J15" s="19"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -5335,8 +6142,40 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
     </row>
-    <row r="16" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:62" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
@@ -5350,15 +6189,15 @@
         <v>45638</v>
       </c>
       <c r="F16" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="19">
         <v>70</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="19"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -5379,13 +6218,45 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
     </row>
-    <row r="17" spans="2:30" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:62" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D17" s="12">
         <v>45636</v>
@@ -5394,15 +6265,19 @@
         <v>45638</v>
       </c>
       <c r="F17" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="59">
+        <v>45663</v>
+      </c>
+      <c r="H17" s="59">
+        <v>45664</v>
+      </c>
+      <c r="I17" s="19">
         <v>70</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="19"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -5423,13 +6298,45 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
     </row>
-    <row r="18" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D18" s="12">
         <v>45636</v>
@@ -5438,15 +6345,15 @@
         <v>45638</v>
       </c>
       <c r="F18" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G18" s="19">
-        <v>50</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="19">
+        <v>100</v>
+      </c>
+      <c r="J18" s="19"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -5467,13 +6374,45 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="1"/>
     </row>
-    <row r="19" spans="2:30" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:62" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B19" s="37" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D19" s="12">
         <v>45636</v>
@@ -5482,15 +6421,19 @@
         <v>45638</v>
       </c>
       <c r="F19" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="59">
+        <v>45663</v>
+      </c>
+      <c r="H19" s="59">
+        <v>45664</v>
+      </c>
+      <c r="I19" s="19">
         <v>0</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="19"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -5511,13 +6454,45 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
     </row>
-    <row r="20" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D20" s="12">
         <v>45636</v>
@@ -5526,15 +6501,19 @@
         <v>45638</v>
       </c>
       <c r="F20" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="59">
+        <v>45664</v>
+      </c>
+      <c r="H20" s="59">
+        <v>45665</v>
+      </c>
+      <c r="I20" s="19">
         <v>50</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="19"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -5555,13 +6534,45 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
     </row>
-    <row r="21" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D21" s="12">
         <v>45636</v>
@@ -5570,15 +6581,19 @@
         <v>45638</v>
       </c>
       <c r="F21" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="59">
+        <v>45664</v>
+      </c>
+      <c r="H21" s="59">
+        <v>45665</v>
+      </c>
+      <c r="I21" s="19">
         <v>50</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="19"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -5599,13 +6614,45 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
     </row>
-    <row r="22" spans="2:30" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:62" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D22" s="12">
         <v>45636</v>
@@ -5614,15 +6661,19 @@
         <v>45638</v>
       </c>
       <c r="F22" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="59">
+        <v>45664</v>
+      </c>
+      <c r="H22" s="59">
+        <v>45665</v>
+      </c>
+      <c r="I22" s="19">
         <v>50</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="19"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -5643,13 +6694,45 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="1"/>
     </row>
-    <row r="23" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="D23" s="12">
         <v>45636</v>
@@ -5658,15 +6741,19 @@
         <v>45638</v>
       </c>
       <c r="F23" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="59">
+        <v>45664</v>
+      </c>
+      <c r="H23" s="59">
+        <v>45665</v>
+      </c>
+      <c r="I23" s="19">
         <v>50</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="19"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -5687,8 +6774,40 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
     </row>
-    <row r="24" spans="2:30" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:62" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>20</v>
       </c>
@@ -5702,15 +6821,19 @@
         <v>45638</v>
       </c>
       <c r="F24" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="59">
+        <v>45664</v>
+      </c>
+      <c r="H24" s="59">
+        <v>45665</v>
+      </c>
+      <c r="I24" s="19">
         <v>50</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="19"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -5731,13 +6854,45 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1"/>
     </row>
-    <row r="25" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:62" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="D25" s="12">
         <v>45636</v>
@@ -5746,15 +6901,19 @@
         <v>45638</v>
       </c>
       <c r="F25" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="59">
+        <v>45665</v>
+      </c>
+      <c r="H25" s="59">
+        <v>45666</v>
+      </c>
+      <c r="I25" s="19">
         <v>50</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="19"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -5775,13 +6934,45 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
     </row>
-    <row r="26" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D26" s="12">
         <v>45636</v>
@@ -5790,15 +6981,15 @@
         <v>45638</v>
       </c>
       <c r="F26" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="19">
         <v>100</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="19"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -5819,13 +7010,45 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
     </row>
-    <row r="27" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D27" s="12">
         <v>45636</v>
@@ -5834,15 +7057,15 @@
         <v>45638</v>
       </c>
       <c r="F27" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="19">
         <v>100</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="19"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -5863,13 +7086,45 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="1"/>
     </row>
-    <row r="28" spans="2:30" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="D28" s="12">
         <v>45636</v>
@@ -5878,15 +7133,19 @@
         <v>45638</v>
       </c>
       <c r="F28" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G28" s="19">
-        <v>50</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="G28" s="59">
+        <v>45665</v>
+      </c>
+      <c r="H28" s="59">
+        <v>45666</v>
+      </c>
+      <c r="I28" s="19">
+        <v>90</v>
+      </c>
+      <c r="J28" s="19"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -5907,13 +7166,45 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1"/>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="1"/>
     </row>
-    <row r="29" spans="2:30" ht="66" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:62" ht="66" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D29" s="12">
         <v>45636</v>
@@ -5922,15 +7213,15 @@
         <v>45638</v>
       </c>
       <c r="F29" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="19">
         <v>75</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="19"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -5951,13 +7242,45 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="1"/>
     </row>
-    <row r="30" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D30" s="12">
         <v>45636</v>
@@ -5966,15 +7289,15 @@
         <v>45638</v>
       </c>
       <c r="F30" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="19">
         <v>75</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="19"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -5995,13 +7318,45 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
     </row>
-    <row r="31" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:62" ht="33" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D31" s="12">
         <v>45636</v>
@@ -6010,15 +7365,15 @@
         <v>45638</v>
       </c>
       <c r="F31" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="19">
         <v>75</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="J31" s="19"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -6039,8 +7394,40 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
     </row>
-    <row r="32" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:62" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>12</v>
       </c>
@@ -6052,15 +7439,15 @@
         <v>45638</v>
       </c>
       <c r="F32" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="19">
         <v>100</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="19"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -6081,8 +7468,40 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="1"/>
     </row>
-    <row r="33" spans="2:30" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:62" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>28</v>
       </c>
@@ -6096,15 +7515,15 @@
         <v>45638</v>
       </c>
       <c r="F33" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="19">
         <v>100</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="J33" s="19"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -6125,13 +7544,45 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
     </row>
-    <row r="34" spans="2:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:62" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D34" s="12">
         <v>45636</v>
@@ -6140,15 +7591,15 @@
         <v>45638</v>
       </c>
       <c r="F34" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="19">
         <v>75</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="19"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -6169,13 +7620,45 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
     </row>
-    <row r="35" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:62" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D35" s="12">
         <v>45639</v>
@@ -6184,15 +7667,15 @@
         <v>45642</v>
       </c>
       <c r="F35" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="19">
         <v>75</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="19"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -6213,13 +7696,45 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
     </row>
-    <row r="36" spans="2:30" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:62" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D36" s="12">
         <v>45639</v>
@@ -6228,15 +7743,15 @@
         <v>45642</v>
       </c>
       <c r="F36" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="19">
         <v>50</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="19"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -6257,8 +7772,40 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1"/>
     </row>
-    <row r="37" spans="2:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:62" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>42</v>
       </c>
@@ -6272,15 +7819,15 @@
         <v>45642</v>
       </c>
       <c r="F37" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="19">
         <v>100</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="19"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -6301,8 +7848,40 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
+      <c r="BI37" s="1"/>
+      <c r="BJ37" s="1"/>
     </row>
-    <row r="38" spans="2:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:62" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>33</v>
       </c>
@@ -6314,15 +7893,15 @@
         <v>45642</v>
       </c>
       <c r="F38" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="19">
         <v>0</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="19"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -6343,8 +7922,40 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="1"/>
     </row>
-    <row r="39" spans="2:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:62" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>32</v>
       </c>
@@ -6358,15 +7969,15 @@
         <v>45642</v>
       </c>
       <c r="F39" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="19">
         <v>0</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="J39" s="19"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -6387,8 +7998,40 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="1"/>
     </row>
-    <row r="40" spans="2:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:62" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>34</v>
       </c>
@@ -6402,15 +8045,15 @@
         <v>45642</v>
       </c>
       <c r="F40" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="19">
         <v>0</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="19"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -6431,8 +8074,40 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="1"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="1"/>
     </row>
-    <row r="41" spans="2:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:62" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>35</v>
       </c>
@@ -6446,15 +8121,15 @@
         <v>45642</v>
       </c>
       <c r="F41" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="19">
         <v>0</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="19"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -6475,8 +8150,40 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1"/>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="1"/>
     </row>
-    <row r="42" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:62" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>31</v>
       </c>
@@ -6490,15 +8197,15 @@
         <v>45644</v>
       </c>
       <c r="F42" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="19">
         <v>0</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="J42" s="19"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -6519,10 +8226,42 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1"/>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1"/>
+      <c r="AZ42" s="1"/>
+      <c r="BA42" s="1"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="1"/>
+      <c r="BE42" s="1"/>
+      <c r="BF42" s="1"/>
+      <c r="BG42" s="1"/>
+      <c r="BH42" s="1"/>
+      <c r="BI42" s="1"/>
+      <c r="BJ42" s="1"/>
     </row>
-    <row r="43" spans="2:30" ht="45" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:62" ht="45" x14ac:dyDescent="0.3">
       <c r="B43" s="51" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C43" s="39"/>
       <c r="D43" s="12">
@@ -6532,15 +8271,15 @@
         <v>45644</v>
       </c>
       <c r="F43" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="19">
         <v>0</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="J43" s="19"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -6561,8 +8300,40 @@
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="1"/>
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="1"/>
+      <c r="BH43" s="1"/>
+      <c r="BI43" s="1"/>
+      <c r="BJ43" s="1"/>
     </row>
-    <row r="44" spans="2:30" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:62" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="50" t="s">
         <v>36</v>
       </c>
@@ -6576,15 +8347,15 @@
         <v>45644</v>
       </c>
       <c r="F44" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="19">
         <v>0</v>
       </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="J44" s="19"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -6605,8 +8376,40 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1"/>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="1"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
+      <c r="BE44" s="1"/>
+      <c r="BF44" s="1"/>
+      <c r="BG44" s="1"/>
+      <c r="BH44" s="1"/>
+      <c r="BI44" s="1"/>
+      <c r="BJ44" s="1"/>
     </row>
-    <row r="45" spans="2:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:62" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="50" t="s">
         <v>37</v>
       </c>
@@ -6620,15 +8423,15 @@
         <v>45644</v>
       </c>
       <c r="F45" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="19">
         <v>0</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="J45" s="19"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -6649,8 +8452,40 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="1"/>
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="1"/>
+      <c r="BH45" s="1"/>
+      <c r="BI45" s="1"/>
+      <c r="BJ45" s="1"/>
     </row>
-    <row r="46" spans="2:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:62" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>38</v>
       </c>
@@ -6662,15 +8497,15 @@
         <v>45644</v>
       </c>
       <c r="F46" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="19">
         <v>0</v>
       </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="J46" s="19"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -6691,8 +8526,40 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1"/>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="1"/>
+      <c r="AX46" s="1"/>
+      <c r="AY46" s="1"/>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="1"/>
+      <c r="BB46" s="1"/>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="1"/>
+      <c r="BE46" s="1"/>
+      <c r="BF46" s="1"/>
+      <c r="BG46" s="1"/>
+      <c r="BH46" s="1"/>
+      <c r="BI46" s="1"/>
+      <c r="BJ46" s="1"/>
     </row>
-    <row r="47" spans="2:30" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:62" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>40</v>
       </c>
@@ -6706,15 +8573,15 @@
         <v>45644</v>
       </c>
       <c r="F47" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="19">
         <v>0</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="J47" s="19"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -6735,8 +8602,40 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="1"/>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="1"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="1"/>
+      <c r="BD47" s="1"/>
+      <c r="BE47" s="1"/>
+      <c r="BF47" s="1"/>
+      <c r="BG47" s="1"/>
+      <c r="BH47" s="1"/>
+      <c r="BI47" s="1"/>
+      <c r="BJ47" s="1"/>
     </row>
-    <row r="48" spans="2:30" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:62" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>39</v>
       </c>
@@ -6750,15 +8649,15 @@
         <v>45644</v>
       </c>
       <c r="F48" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="19">
         <v>0</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="J48" s="19"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -6779,8 +8678,40 @@
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1"/>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
+      <c r="BD48" s="1"/>
+      <c r="BE48" s="1"/>
+      <c r="BF48" s="1"/>
+      <c r="BG48" s="1"/>
+      <c r="BH48" s="1"/>
+      <c r="BI48" s="1"/>
+      <c r="BJ48" s="1"/>
     </row>
-    <row r="49" spans="2:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:62" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>41</v>
       </c>
@@ -6794,15 +8725,15 @@
         <v>45644</v>
       </c>
       <c r="F49" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="19">
         <v>0</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="J49" s="19"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -6823,8 +8754,40 @@
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="1"/>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="1"/>
+      <c r="BB49" s="1"/>
+      <c r="BC49" s="1"/>
+      <c r="BD49" s="1"/>
+      <c r="BE49" s="1"/>
+      <c r="BF49" s="1"/>
+      <c r="BG49" s="1"/>
+      <c r="BH49" s="1"/>
+      <c r="BI49" s="1"/>
+      <c r="BJ49" s="1"/>
     </row>
-    <row r="50" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:62" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B50" s="52" t="s">
         <v>47</v>
       </c>
@@ -6836,15 +8799,15 @@
         <v>45644</v>
       </c>
       <c r="F50" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="19">
         <v>0</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="J50" s="19"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -6865,8 +8828,40 @@
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+      <c r="AT50" s="1"/>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="1"/>
+      <c r="AX50" s="1"/>
+      <c r="AY50" s="1"/>
+      <c r="AZ50" s="1"/>
+      <c r="BA50" s="1"/>
+      <c r="BB50" s="1"/>
+      <c r="BC50" s="1"/>
+      <c r="BD50" s="1"/>
+      <c r="BE50" s="1"/>
+      <c r="BF50" s="1"/>
+      <c r="BG50" s="1"/>
+      <c r="BH50" s="1"/>
+      <c r="BI50" s="1"/>
+      <c r="BJ50" s="1"/>
     </row>
-    <row r="51" spans="2:30" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:62" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>65</v>
       </c>
@@ -6880,15 +8875,15 @@
         <v>45644</v>
       </c>
       <c r="F51" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="19">
         <v>0</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="J51" s="19"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -6909,8 +8904,40 @@
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="1"/>
+      <c r="BD51" s="1"/>
+      <c r="BE51" s="1"/>
+      <c r="BF51" s="1"/>
+      <c r="BG51" s="1"/>
+      <c r="BH51" s="1"/>
+      <c r="BI51" s="1"/>
+      <c r="BJ51" s="1"/>
     </row>
-    <row r="52" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:62" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>48</v>
       </c>
@@ -6924,15 +8951,15 @@
         <v>45644</v>
       </c>
       <c r="F52" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="19">
         <v>0</v>
       </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="J52" s="19"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -6953,8 +8980,40 @@
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
+      <c r="BD52" s="1"/>
+      <c r="BE52" s="1"/>
+      <c r="BF52" s="1"/>
+      <c r="BG52" s="1"/>
+      <c r="BH52" s="1"/>
+      <c r="BI52" s="1"/>
+      <c r="BJ52" s="1"/>
     </row>
-    <row r="53" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:62" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>49</v>
       </c>
@@ -6968,15 +9027,15 @@
         <v>45644</v>
       </c>
       <c r="F53" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="19">
         <v>0</v>
       </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="J53" s="19"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -6997,10 +9056,42 @@
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+      <c r="AT53" s="1"/>
+      <c r="AU53" s="1"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="1"/>
+      <c r="AX53" s="1"/>
+      <c r="AY53" s="1"/>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="1"/>
+      <c r="BB53" s="1"/>
+      <c r="BC53" s="1"/>
+      <c r="BD53" s="1"/>
+      <c r="BE53" s="1"/>
+      <c r="BF53" s="1"/>
+      <c r="BG53" s="1"/>
+      <c r="BH53" s="1"/>
+      <c r="BI53" s="1"/>
+      <c r="BJ53" s="1"/>
     </row>
-    <row r="54" spans="2:30" ht="66" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:62" ht="66" x14ac:dyDescent="0.3">
       <c r="B54" s="44" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C54" s="40" t="s">
         <v>69</v>
@@ -7012,15 +9103,15 @@
         <v>45646</v>
       </c>
       <c r="F54" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G54" s="43">
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="43">
         <v>0</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="J54" s="19"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -7041,8 +9132,40 @@
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1"/>
+      <c r="AO54" s="1"/>
+      <c r="AP54" s="1"/>
+      <c r="AQ54" s="1"/>
+      <c r="AR54" s="1"/>
+      <c r="AS54" s="1"/>
+      <c r="AT54" s="1"/>
+      <c r="AU54" s="1"/>
+      <c r="AV54" s="1"/>
+      <c r="AW54" s="1"/>
+      <c r="AX54" s="1"/>
+      <c r="AY54" s="1"/>
+      <c r="AZ54" s="1"/>
+      <c r="BA54" s="1"/>
+      <c r="BB54" s="1"/>
+      <c r="BC54" s="1"/>
+      <c r="BD54" s="1"/>
+      <c r="BE54" s="1"/>
+      <c r="BF54" s="1"/>
+      <c r="BG54" s="1"/>
+      <c r="BH54" s="1"/>
+      <c r="BI54" s="1"/>
+      <c r="BJ54" s="1"/>
     </row>
-    <row r="55" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:62" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>71</v>
       </c>
@@ -7053,15 +9176,15 @@
         <v>45646</v>
       </c>
       <c r="F55" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="19">
         <v>0</v>
       </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="J55" s="19"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -7082,8 +9205,40 @@
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
+      <c r="AO55" s="1"/>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+      <c r="AT55" s="1"/>
+      <c r="AU55" s="1"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="1"/>
+      <c r="AX55" s="1"/>
+      <c r="AY55" s="1"/>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="1"/>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1"/>
+      <c r="BD55" s="1"/>
+      <c r="BE55" s="1"/>
+      <c r="BF55" s="1"/>
+      <c r="BG55" s="1"/>
+      <c r="BH55" s="1"/>
+      <c r="BI55" s="1"/>
+      <c r="BJ55" s="1"/>
     </row>
-    <row r="56" spans="2:30" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:62" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>72</v>
       </c>
@@ -7097,15 +9252,15 @@
         <v>45646</v>
       </c>
       <c r="F56" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="19">
         <v>0</v>
       </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="J56" s="19"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -7126,8 +9281,40 @@
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="1"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="1"/>
+      <c r="AO56" s="1"/>
+      <c r="AP56" s="1"/>
+      <c r="AQ56" s="1"/>
+      <c r="AR56" s="1"/>
+      <c r="AS56" s="1"/>
+      <c r="AT56" s="1"/>
+      <c r="AU56" s="1"/>
+      <c r="AV56" s="1"/>
+      <c r="AW56" s="1"/>
+      <c r="AX56" s="1"/>
+      <c r="AY56" s="1"/>
+      <c r="AZ56" s="1"/>
+      <c r="BA56" s="1"/>
+      <c r="BB56" s="1"/>
+      <c r="BC56" s="1"/>
+      <c r="BD56" s="1"/>
+      <c r="BE56" s="1"/>
+      <c r="BF56" s="1"/>
+      <c r="BG56" s="1"/>
+      <c r="BH56" s="1"/>
+      <c r="BI56" s="1"/>
+      <c r="BJ56" s="1"/>
     </row>
-    <row r="57" spans="2:30" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:62" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>73</v>
       </c>
@@ -7141,15 +9328,15 @@
         <v>45646</v>
       </c>
       <c r="F57" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="19">
         <v>0</v>
       </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="J57" s="19"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -7170,8 +9357,40 @@
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="1"/>
+      <c r="AM57" s="1"/>
+      <c r="AN57" s="1"/>
+      <c r="AO57" s="1"/>
+      <c r="AP57" s="1"/>
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="1"/>
+      <c r="AT57" s="1"/>
+      <c r="AU57" s="1"/>
+      <c r="AV57" s="1"/>
+      <c r="AW57" s="1"/>
+      <c r="AX57" s="1"/>
+      <c r="AY57" s="1"/>
+      <c r="AZ57" s="1"/>
+      <c r="BA57" s="1"/>
+      <c r="BB57" s="1"/>
+      <c r="BC57" s="1"/>
+      <c r="BD57" s="1"/>
+      <c r="BE57" s="1"/>
+      <c r="BF57" s="1"/>
+      <c r="BG57" s="1"/>
+      <c r="BH57" s="1"/>
+      <c r="BI57" s="1"/>
+      <c r="BJ57" s="1"/>
     </row>
-    <row r="58" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:62" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B58" s="6" t="s">
         <v>43</v>
       </c>
@@ -7185,15 +9404,15 @@
         <v>45646</v>
       </c>
       <c r="F58" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="19">
         <v>0</v>
       </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="J58" s="19"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -7214,8 +9433,40 @@
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="1"/>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="1"/>
+      <c r="AO58" s="1"/>
+      <c r="AP58" s="1"/>
+      <c r="AQ58" s="1"/>
+      <c r="AR58" s="1"/>
+      <c r="AS58" s="1"/>
+      <c r="AT58" s="1"/>
+      <c r="AU58" s="1"/>
+      <c r="AV58" s="1"/>
+      <c r="AW58" s="1"/>
+      <c r="AX58" s="1"/>
+      <c r="AY58" s="1"/>
+      <c r="AZ58" s="1"/>
+      <c r="BA58" s="1"/>
+      <c r="BB58" s="1"/>
+      <c r="BC58" s="1"/>
+      <c r="BD58" s="1"/>
+      <c r="BE58" s="1"/>
+      <c r="BF58" s="1"/>
+      <c r="BG58" s="1"/>
+      <c r="BH58" s="1"/>
+      <c r="BI58" s="1"/>
+      <c r="BJ58" s="1"/>
     </row>
-    <row r="59" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:62" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>44</v>
       </c>
@@ -7229,15 +9480,15 @@
         <v>45646</v>
       </c>
       <c r="F59" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="19">
         <v>0</v>
       </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="J59" s="19"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -7258,8 +9509,40 @@
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="1"/>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="1"/>
+      <c r="AO59" s="1"/>
+      <c r="AP59" s="1"/>
+      <c r="AQ59" s="1"/>
+      <c r="AR59" s="1"/>
+      <c r="AS59" s="1"/>
+      <c r="AT59" s="1"/>
+      <c r="AU59" s="1"/>
+      <c r="AV59" s="1"/>
+      <c r="AW59" s="1"/>
+      <c r="AX59" s="1"/>
+      <c r="AY59" s="1"/>
+      <c r="AZ59" s="1"/>
+      <c r="BA59" s="1"/>
+      <c r="BB59" s="1"/>
+      <c r="BC59" s="1"/>
+      <c r="BD59" s="1"/>
+      <c r="BE59" s="1"/>
+      <c r="BF59" s="1"/>
+      <c r="BG59" s="1"/>
+      <c r="BH59" s="1"/>
+      <c r="BI59" s="1"/>
+      <c r="BJ59" s="1"/>
     </row>
-    <row r="60" spans="2:30" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:62" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>76</v>
       </c>
@@ -7273,15 +9556,15 @@
         <v>45646</v>
       </c>
       <c r="F60" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="G60" s="19">
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="19">
         <v>0</v>
       </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="J60" s="19"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -7302,10 +9585,42 @@
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="1"/>
+      <c r="AO60" s="1"/>
+      <c r="AP60" s="1"/>
+      <c r="AQ60" s="1"/>
+      <c r="AR60" s="1"/>
+      <c r="AS60" s="1"/>
+      <c r="AT60" s="1"/>
+      <c r="AU60" s="1"/>
+      <c r="AV60" s="1"/>
+      <c r="AW60" s="1"/>
+      <c r="AX60" s="1"/>
+      <c r="AY60" s="1"/>
+      <c r="AZ60" s="1"/>
+      <c r="BA60" s="1"/>
+      <c r="BB60" s="1"/>
+      <c r="BC60" s="1"/>
+      <c r="BD60" s="1"/>
+      <c r="BE60" s="1"/>
+      <c r="BF60" s="1"/>
+      <c r="BG60" s="1"/>
+      <c r="BH60" s="1"/>
+      <c r="BI60" s="1"/>
+      <c r="BJ60" s="1"/>
     </row>
-    <row r="61" spans="2:30" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:62" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="12">
@@ -7318,12 +9633,12 @@
         <f>IF(E61="","",E61+1-D61)</f>
         <v>5</v>
       </c>
-      <c r="G61" s="19">
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="19">
         <v>10</v>
       </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="J61" s="19"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -7344,8 +9659,40 @@
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="1"/>
+      <c r="AI61" s="1"/>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="1"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="1"/>
+      <c r="AO61" s="1"/>
+      <c r="AP61" s="1"/>
+      <c r="AQ61" s="1"/>
+      <c r="AR61" s="1"/>
+      <c r="AS61" s="1"/>
+      <c r="AT61" s="1"/>
+      <c r="AU61" s="1"/>
+      <c r="AV61" s="1"/>
+      <c r="AW61" s="1"/>
+      <c r="AX61" s="1"/>
+      <c r="AY61" s="1"/>
+      <c r="AZ61" s="1"/>
+      <c r="BA61" s="1"/>
+      <c r="BB61" s="1"/>
+      <c r="BC61" s="1"/>
+      <c r="BD61" s="1"/>
+      <c r="BE61" s="1"/>
+      <c r="BF61" s="1"/>
+      <c r="BG61" s="1"/>
+      <c r="BH61" s="1"/>
+      <c r="BI61" s="1"/>
+      <c r="BJ61" s="1"/>
     </row>
-    <row r="62" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:62" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>79</v>
       </c>
@@ -7357,15 +9704,15 @@
         <v>45650</v>
       </c>
       <c r="F62" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
-      <c r="G62" s="19">
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="19">
         <v>0</v>
       </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="J62" s="19"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -7386,8 +9733,40 @@
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1"/>
+      <c r="AH62" s="1"/>
+      <c r="AI62" s="1"/>
+      <c r="AJ62" s="1"/>
+      <c r="AK62" s="1"/>
+      <c r="AL62" s="1"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="1"/>
+      <c r="AO62" s="1"/>
+      <c r="AP62" s="1"/>
+      <c r="AQ62" s="1"/>
+      <c r="AR62" s="1"/>
+      <c r="AS62" s="1"/>
+      <c r="AT62" s="1"/>
+      <c r="AU62" s="1"/>
+      <c r="AV62" s="1"/>
+      <c r="AW62" s="1"/>
+      <c r="AX62" s="1"/>
+      <c r="AY62" s="1"/>
+      <c r="AZ62" s="1"/>
+      <c r="BA62" s="1"/>
+      <c r="BB62" s="1"/>
+      <c r="BC62" s="1"/>
+      <c r="BD62" s="1"/>
+      <c r="BE62" s="1"/>
+      <c r="BF62" s="1"/>
+      <c r="BG62" s="1"/>
+      <c r="BH62" s="1"/>
+      <c r="BI62" s="1"/>
+      <c r="BJ62" s="1"/>
     </row>
-    <row r="63" spans="2:30" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:62" ht="52.5" x14ac:dyDescent="0.3">
       <c r="B63" s="17" t="s">
         <v>64</v>
       </c>
@@ -7399,15 +9778,15 @@
         <v>45650</v>
       </c>
       <c r="F63" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
-      <c r="G63" s="19">
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="19">
         <v>0</v>
       </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="J63" s="19"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -7428,8 +9807,40 @@
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
       <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="1"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+      <c r="AT63" s="1"/>
+      <c r="AU63" s="1"/>
+      <c r="AV63" s="1"/>
+      <c r="AW63" s="1"/>
+      <c r="AX63" s="1"/>
+      <c r="AY63" s="1"/>
+      <c r="AZ63" s="1"/>
+      <c r="BA63" s="1"/>
+      <c r="BB63" s="1"/>
+      <c r="BC63" s="1"/>
+      <c r="BD63" s="1"/>
+      <c r="BE63" s="1"/>
+      <c r="BF63" s="1"/>
+      <c r="BG63" s="1"/>
+      <c r="BH63" s="1"/>
+      <c r="BI63" s="1"/>
+      <c r="BJ63" s="1"/>
     </row>
-    <row r="64" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:62" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>78</v>
       </c>
@@ -7438,18 +9849,18 @@
         <v>45646</v>
       </c>
       <c r="E64" s="12">
-        <v>45650</v>
+        <v>45681</v>
       </c>
       <c r="F64" s="24">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G64" s="19">
+        <f t="shared" si="32"/>
+        <v>36</v>
+      </c>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="19">
         <v>0</v>
       </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="J64" s="19"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -7470,31 +9881,66 @@
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="1"/>
+      <c r="AO64" s="1"/>
+      <c r="AP64" s="1"/>
+      <c r="AQ64" s="1"/>
+      <c r="AR64" s="1"/>
+      <c r="AS64" s="1"/>
+      <c r="AT64" s="1"/>
+      <c r="AU64" s="1"/>
+      <c r="AV64" s="1"/>
+      <c r="AW64" s="1"/>
+      <c r="AX64" s="1"/>
+      <c r="AY64" s="1"/>
+      <c r="AZ64" s="1"/>
+      <c r="BA64" s="1"/>
+      <c r="BB64" s="1"/>
+      <c r="BC64" s="1"/>
+      <c r="BD64" s="1"/>
+      <c r="BE64" s="1"/>
+      <c r="BF64" s="1"/>
+      <c r="BG64" s="1"/>
+      <c r="BH64" s="1"/>
+      <c r="BI64" s="1"/>
+      <c r="BJ64" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="I4:AD4"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
+  <mergeCells count="12">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:E6"/>
+    <mergeCell ref="K4:AL4"/>
+    <mergeCell ref="AM4:BJ4"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:H6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I7:AD64">
+  <conditionalFormatting sqref="K7:BJ64">
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>AND(I$5&gt;=$D7,I$5&lt;=$E7)</formula>
+      <formula>AND(K$5&gt;=$D7,K$5&lt;=$E7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:AD64">
+  <conditionalFormatting sqref="K5:BJ64">
     <cfRule type="expression" dxfId="0" priority="6">
-      <formula>I$5=$E$3</formula>
+      <formula>K$5=$E$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:H64">
+  <conditionalFormatting sqref="I7:J64">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -7521,16 +9967,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:rowOff>409575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7543,16 +9989,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:rowOff>85725</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7565,16 +10011,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:rowOff>409575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7587,13 +10033,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7609,13 +10055,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7631,13 +10077,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>49</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>50</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7653,13 +10099,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>54</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7675,13 +10121,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7708,7 +10154,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G7:H64</xm:sqref>
+          <xm:sqref>I7:J64</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7719,12 +10165,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:AI30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="M27" sqref="M27"/>
+      <selection pane="topRight" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7741,27 +10187,32 @@
     <col min="11" max="11" width="42.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="50.625" customWidth="1"/>
     <col min="13" max="13" width="65.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39" customWidth="1"/>
+    <col min="14" max="14" width="53.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="63.5" style="53" bestFit="1" customWidth="1"/>
+    <col min="16" max="35" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+    <row r="1" spans="1:35" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:35" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="14"/>
       <c r="E2" s="22"/>
       <c r="F2" s="3"/>
+      <c r="O2" s="58" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="16">
         <f ca="1">TODAY()</f>
-        <v>45650</v>
+        <v>45653</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>3</v>
@@ -7770,169 +10221,360 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="79"/>
-      <c r="B4" s="78" t="s">
+    <row r="4" spans="1:35" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="95"/>
+      <c r="B4" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="M4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="N4" s="78" t="s">
+      <c r="D4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="S4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="T4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="W4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="X4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI4" s="88" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
+    <row r="5" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="96"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="73"/>
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73"/>
     </row>
-    <row r="6" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="81"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
+    <row r="6" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="97"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="74"/>
+      <c r="AH6" s="74"/>
+      <c r="AI6" s="74"/>
     </row>
-    <row r="7" spans="1:14" ht="27" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q7" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="R7" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="U7" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="V7" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W7" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="X7" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y7" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z7" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA7" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB7" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC7" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD7" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE7" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF7" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG7" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH7" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI7" s="28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="360" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="28" t="s">
+      <c r="B8" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>118</v>
-      </c>
+      <c r="G8" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="O8" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
     </row>
-    <row r="8" spans="1:14" ht="360" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="M8" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="N8" s="26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -7943,488 +10585,1085 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
     </row>
-    <row r="10" spans="1:14" s="13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" s="13" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10"/>
+      <c r="O10" s="56"/>
     </row>
-    <row r="11" spans="1:14" s="13" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="79"/>
-      <c r="B11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="N11" s="78" t="s">
+    <row r="11" spans="1:35" s="13" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="95"/>
+      <c r="B11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="S11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="T11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="U11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="V11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="W11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="X11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH11" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI11" s="88" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="80"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
+    <row r="12" spans="1:35" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="96"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="73"/>
+      <c r="AH12" s="73"/>
+      <c r="AI12" s="73"/>
     </row>
-    <row r="13" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="81"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
+    <row r="13" spans="1:35" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="97"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="74"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="74"/>
+      <c r="AF13" s="74"/>
+      <c r="AG13" s="74"/>
+      <c r="AH13" s="74"/>
+      <c r="AI13" s="74"/>
     </row>
-    <row r="14" spans="1:14" s="13" customFormat="1" ht="27" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" s="13" customFormat="1" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>86</v>
       </c>
       <c r="B14" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>92</v>
-      </c>
       <c r="D14" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="H14" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K14" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="M14" s="28" t="s">
+      <c r="N14" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="N14" s="28" t="s">
-        <v>118</v>
+      <c r="O14" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q14" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="S14" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="T14" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="U14" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="V14" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W14" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="X14" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y14" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z14" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA14" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB14" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC14" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD14" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE14" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF14" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG14" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH14" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI14" s="28" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="13" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" s="13" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H15" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="N15" s="26"/>
+      <c r="O15" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+    </row>
+    <row r="16" spans="1:35" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O16" s="56"/>
+    </row>
+    <row r="17" spans="1:35" s="13" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="95"/>
+      <c r="B17" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="O17" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="R17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="S17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="T17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="U17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="V17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="W17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="X17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI17" s="88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="96"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="73"/>
+      <c r="AC18" s="73"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="73"/>
+      <c r="AG18" s="73"/>
+      <c r="AH18" s="73"/>
+      <c r="AI18" s="73"/>
+    </row>
+    <row r="19" spans="1:35" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="97"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="74"/>
+      <c r="V19" s="74"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="74"/>
+      <c r="Y19" s="74"/>
+      <c r="Z19" s="74"/>
+      <c r="AA19" s="74"/>
+      <c r="AB19" s="74"/>
+      <c r="AC19" s="74"/>
+      <c r="AD19" s="74"/>
+      <c r="AE19" s="74"/>
+      <c r="AF19" s="74"/>
+      <c r="AG19" s="74"/>
+      <c r="AH19" s="74"/>
+      <c r="AI19" s="74"/>
+    </row>
+    <row r="20" spans="1:35" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="O20" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q20" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="R20" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="S20" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="T20" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="U20" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="V20" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W20" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="X20" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y20" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z20" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA20" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB20" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC20" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD20" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE20" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF20" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG20" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH20" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI20" s="28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" s="13" customFormat="1" ht="264" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="I15" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="K15" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="M15" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="N15" s="26"/>
-    </row>
-    <row r="16" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:14" s="13" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="79"/>
-      <c r="B17" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="M17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="N17" s="78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="80"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-    </row>
-    <row r="19" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="81"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-    </row>
-    <row r="20" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K20" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="N20" s="28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="13" customFormat="1" ht="264" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>143</v>
-      </c>
       <c r="G21" s="30" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="M21" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="N21" s="26" t="s">
-        <v>151</v>
-      </c>
+      <c r="L21" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
     </row>
-    <row r="22" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="79"/>
-      <c r="B23" s="78" t="s">
+    <row r="22" spans="1:35" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O22" s="56"/>
+    </row>
+    <row r="23" spans="1:35" s="13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="95"/>
+      <c r="B23" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="78" t="s">
+      <c r="D23" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="J23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="K23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="L23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="M23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="N23" s="78" t="s">
+      <c r="E23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="R23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="S23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="T23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="U23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="V23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="W23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="X23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH23" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI23" s="88" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="80"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
+    <row r="24" spans="1:35" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="96"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="73"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="73"/>
+      <c r="AB24" s="73"/>
+      <c r="AC24" s="73"/>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="73"/>
+      <c r="AF24" s="73"/>
+      <c r="AG24" s="73"/>
+      <c r="AH24" s="73"/>
+      <c r="AI24" s="73"/>
     </row>
-    <row r="25" spans="1:14" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="81"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
+    <row r="25" spans="1:35" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="97"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="74"/>
+      <c r="X25" s="74"/>
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="74"/>
+      <c r="AE25" s="74"/>
+      <c r="AF25" s="74"/>
+      <c r="AG25" s="74"/>
+      <c r="AH25" s="74"/>
+      <c r="AI25" s="74"/>
     </row>
-    <row r="26" spans="1:14" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>86</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="28" t="s">
-        <v>94</v>
-      </c>
       <c r="E26" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="H26" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="M26" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="H26" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K26" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="L26" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="M26" s="28" t="s">
+      <c r="N26" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="N26" s="28" t="s">
-        <v>118</v>
+      <c r="O26" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q26" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="R26" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="S26" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="T26" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="U26" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="V26" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W26" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="X26" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y26" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z26" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA26" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB26" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC26" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD26" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE26" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF26" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG26" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH26" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI26" s="28" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="13" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" s="13" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>88</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K27" s="29"/>
       <c r="L27" s="29" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="N27" s="29" t="s">
-        <v>183</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="O27" s="57"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
     </row>
-    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:35" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="141">
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="M17:M19"/>
@@ -8433,6 +11672,10 @@
     <mergeCell ref="N11:N13"/>
     <mergeCell ref="N17:N19"/>
     <mergeCell ref="N23:N25"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J23:J25"/>
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="K17:K19"/>
@@ -8441,14 +11684,6 @@
     <mergeCell ref="L11:L13"/>
     <mergeCell ref="L17:L19"/>
     <mergeCell ref="L23:L25"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J23:J25"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="G17:G19"/>
@@ -8457,6 +11692,10 @@
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="H17:H19"/>
     <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I23:I25"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="F17:F19"/>
@@ -8482,6 +11721,90 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C23:C25"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="AE4:AE6"/>
+    <mergeCell ref="AF4:AF6"/>
+    <mergeCell ref="AG4:AG6"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="Z4:Z6"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="AI11:AI13"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AD11:AD13"/>
+    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="AF11:AF13"/>
+    <mergeCell ref="AG11:AG13"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="AB11:AB13"/>
+    <mergeCell ref="AH17:AH19"/>
+    <mergeCell ref="AI17:AI19"/>
+    <mergeCell ref="AC17:AC19"/>
+    <mergeCell ref="AD17:AD19"/>
+    <mergeCell ref="AE17:AE19"/>
+    <mergeCell ref="AF17:AF19"/>
+    <mergeCell ref="AG17:AG19"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="V17:V19"/>
+    <mergeCell ref="W17:W19"/>
+    <mergeCell ref="X17:X19"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="Z17:Z19"/>
+    <mergeCell ref="AA17:AA19"/>
+    <mergeCell ref="AB17:AB19"/>
+    <mergeCell ref="AH23:AH25"/>
+    <mergeCell ref="AI23:AI25"/>
+    <mergeCell ref="AC23:AC25"/>
+    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="AE23:AE25"/>
+    <mergeCell ref="AF23:AF25"/>
+    <mergeCell ref="AG23:AG25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="U23:U25"/>
+    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="W23:W25"/>
+    <mergeCell ref="X23:X25"/>
+    <mergeCell ref="Y23:Y25"/>
+    <mergeCell ref="Z23:Z25"/>
+    <mergeCell ref="AA23:AA25"/>
+    <mergeCell ref="AB23:AB25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241226)-발표자료.xlsx
+++ b/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241226)-발표자료.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.User -2023IVVKP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.User -2023IVVKP\Desktop\양현석\FED-RV-YHS\9999.개인프로젝트\01.분석설계\프로젝트 관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3972,42 +3972,6 @@
     <xf numFmtId="14" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4038,6 +4002,42 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4050,13 +4050,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4068,16 +4071,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4953,11 +4953,11 @@
   <sheetData>
     <row r="1" spans="2:62" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:62" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="14"/>
       <c r="F2" s="22"/>
       <c r="G2" s="14"/>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="E3" s="16">
         <f ca="1">TODAY()</f>
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>3</v>
@@ -4984,99 +4984,99 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="2:62" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="82" t="s">
         <v>105</v>
       </c>
       <c r="J4" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="76">
         <v>45630</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="64"/>
-      <c r="AI4" s="64"/>
-      <c r="AJ4" s="64"/>
-      <c r="AK4" s="64"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="64">
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="78"/>
+      <c r="AM4" s="77">
         <v>45658</v>
       </c>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="64"/>
-      <c r="AP4" s="64"/>
-      <c r="AQ4" s="64"/>
-      <c r="AR4" s="64"/>
-      <c r="AS4" s="64"/>
-      <c r="AT4" s="64"/>
-      <c r="AU4" s="64"/>
-      <c r="AV4" s="64"/>
-      <c r="AW4" s="64"/>
-      <c r="AX4" s="64"/>
-      <c r="AY4" s="64"/>
-      <c r="AZ4" s="64"/>
-      <c r="BA4" s="64"/>
-      <c r="BB4" s="64"/>
-      <c r="BC4" s="64"/>
-      <c r="BD4" s="64"/>
-      <c r="BE4" s="64"/>
-      <c r="BF4" s="64"/>
-      <c r="BG4" s="64"/>
-      <c r="BH4" s="64"/>
-      <c r="BI4" s="64"/>
-      <c r="BJ4" s="64"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="77"/>
+      <c r="AX4" s="77"/>
+      <c r="AY4" s="77"/>
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="77"/>
+      <c r="BB4" s="77"/>
+      <c r="BC4" s="77"/>
+      <c r="BD4" s="77"/>
+      <c r="BE4" s="77"/>
+      <c r="BF4" s="77"/>
+      <c r="BG4" s="77"/>
+      <c r="BH4" s="77"/>
+      <c r="BI4" s="77"/>
+      <c r="BJ4" s="77"/>
     </row>
     <row r="5" spans="2:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="80"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="73"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="83"/>
       <c r="J5" s="86"/>
       <c r="K5" s="20">
         <f>K4</f>
@@ -5257,14 +5257,14 @@
       </c>
     </row>
     <row r="6" spans="2:62" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="81"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="74"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="84"/>
       <c r="J6" s="87"/>
       <c r="K6" s="21">
         <f>K5</f>
@@ -9916,11 +9916,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
     <mergeCell ref="K4:AL4"/>
     <mergeCell ref="AM4:BJ4"/>
     <mergeCell ref="G4:G6"/>
@@ -9928,6 +9923,11 @@
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="J4:J6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K7:BJ64">
@@ -10170,7 +10170,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="N27" sqref="N27"/>
+      <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10194,11 +10194,11 @@
   <sheetData>
     <row r="1" spans="1:35" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:35" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="14"/>
       <c r="E2" s="22"/>
       <c r="F2" s="3"/>
@@ -10212,7 +10212,7 @@
       </c>
       <c r="D3" s="16">
         <f ca="1">TODAY()</f>
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>3</v>
@@ -10222,7 +10222,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="88" t="s">
         <v>87</v>
       </c>
@@ -10262,7 +10262,7 @@
       <c r="N4" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="O4" s="92" t="s">
+      <c r="O4" s="93" t="s">
         <v>85</v>
       </c>
       <c r="P4" s="88" t="s">
@@ -10327,78 +10327,78 @@
       </c>
     </row>
     <row r="5" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="73"/>
-      <c r="AA5" s="73"/>
-      <c r="AB5" s="73"/>
-      <c r="AC5" s="73"/>
-      <c r="AD5" s="73"/>
-      <c r="AE5" s="73"/>
-      <c r="AF5" s="73"/>
-      <c r="AG5" s="73"/>
-      <c r="AH5" s="73"/>
-      <c r="AI5" s="73"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="83"/>
+      <c r="AH5" s="83"/>
+      <c r="AI5" s="83"/>
     </row>
     <row r="6" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="97"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="74"/>
-      <c r="AB6" s="74"/>
-      <c r="AC6" s="74"/>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="74"/>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="74"/>
-      <c r="AH6" s="74"/>
-      <c r="AI6" s="74"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="84"/>
+      <c r="AH6" s="84"/>
+      <c r="AI6" s="84"/>
     </row>
     <row r="7" spans="1:35" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
@@ -10613,7 +10613,7 @@
       <c r="O10" s="56"/>
     </row>
     <row r="11" spans="1:35" s="13" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="95"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="88" t="s">
         <v>85</v>
       </c>
@@ -10653,7 +10653,7 @@
       <c r="N11" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="O11" s="92" t="s">
+      <c r="O11" s="93" t="s">
         <v>85</v>
       </c>
       <c r="P11" s="88" t="s">
@@ -10718,78 +10718,78 @@
       </c>
     </row>
     <row r="12" spans="1:35" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="96"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="73"/>
-      <c r="AB12" s="73"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="73"/>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="73"/>
-      <c r="AH12" s="73"/>
-      <c r="AI12" s="73"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="83"/>
+      <c r="AC12" s="83"/>
+      <c r="AD12" s="83"/>
+      <c r="AE12" s="83"/>
+      <c r="AF12" s="83"/>
+      <c r="AG12" s="83"/>
+      <c r="AH12" s="83"/>
+      <c r="AI12" s="83"/>
     </row>
     <row r="13" spans="1:35" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="97"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="74"/>
-      <c r="AA13" s="74"/>
-      <c r="AB13" s="74"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="74"/>
-      <c r="AE13" s="74"/>
-      <c r="AF13" s="74"/>
-      <c r="AG13" s="74"/>
-      <c r="AH13" s="74"/>
-      <c r="AI13" s="74"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="84"/>
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="84"/>
+      <c r="AE13" s="84"/>
+      <c r="AF13" s="84"/>
+      <c r="AG13" s="84"/>
+      <c r="AH13" s="84"/>
+      <c r="AI13" s="84"/>
     </row>
     <row r="14" spans="1:35" s="13" customFormat="1" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
@@ -10963,7 +10963,7 @@
       <c r="O16" s="56"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="95"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="88" t="s">
         <v>87</v>
       </c>
@@ -11003,7 +11003,7 @@
       <c r="N17" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="O17" s="89" t="s">
+      <c r="O17" s="96" t="s">
         <v>85</v>
       </c>
       <c r="P17" s="88" t="s">
@@ -11068,78 +11068,78 @@
       </c>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="96"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="73"/>
-      <c r="AB18" s="73"/>
-      <c r="AC18" s="73"/>
-      <c r="AD18" s="73"/>
-      <c r="AE18" s="73"/>
-      <c r="AF18" s="73"/>
-      <c r="AG18" s="73"/>
-      <c r="AH18" s="73"/>
-      <c r="AI18" s="73"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="83"/>
+      <c r="AC18" s="83"/>
+      <c r="AD18" s="83"/>
+      <c r="AE18" s="83"/>
+      <c r="AF18" s="83"/>
+      <c r="AG18" s="83"/>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="83"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="97"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="74"/>
-      <c r="Y19" s="74"/>
-      <c r="Z19" s="74"/>
-      <c r="AA19" s="74"/>
-      <c r="AB19" s="74"/>
-      <c r="AC19" s="74"/>
-      <c r="AD19" s="74"/>
-      <c r="AE19" s="74"/>
-      <c r="AF19" s="74"/>
-      <c r="AG19" s="74"/>
-      <c r="AH19" s="74"/>
-      <c r="AI19" s="74"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="84"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="84"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="84"/>
+      <c r="Y19" s="84"/>
+      <c r="Z19" s="84"/>
+      <c r="AA19" s="84"/>
+      <c r="AB19" s="84"/>
+      <c r="AC19" s="84"/>
+      <c r="AD19" s="84"/>
+      <c r="AE19" s="84"/>
+      <c r="AF19" s="84"/>
+      <c r="AG19" s="84"/>
+      <c r="AH19" s="84"/>
+      <c r="AI19" s="84"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
@@ -11315,11 +11315,11 @@
       <c r="O22" s="56"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="95"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="92" t="s">
         <v>87</v>
       </c>
       <c r="D23" s="88" t="s">
@@ -11355,7 +11355,7 @@
       <c r="N23" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="O23" s="89" t="s">
+      <c r="O23" s="96" t="s">
         <v>85</v>
       </c>
       <c r="P23" s="88" t="s">
@@ -11420,78 +11420,78 @@
       </c>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="96"/>
-      <c r="B24" s="73"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="86"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="73"/>
-      <c r="Z24" s="73"/>
-      <c r="AA24" s="73"/>
-      <c r="AB24" s="73"/>
-      <c r="AC24" s="73"/>
-      <c r="AD24" s="73"/>
-      <c r="AE24" s="73"/>
-      <c r="AF24" s="73"/>
-      <c r="AG24" s="73"/>
-      <c r="AH24" s="73"/>
-      <c r="AI24" s="73"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="83"/>
+      <c r="Z24" s="83"/>
+      <c r="AA24" s="83"/>
+      <c r="AB24" s="83"/>
+      <c r="AC24" s="83"/>
+      <c r="AD24" s="83"/>
+      <c r="AE24" s="83"/>
+      <c r="AF24" s="83"/>
+      <c r="AG24" s="83"/>
+      <c r="AH24" s="83"/>
+      <c r="AI24" s="83"/>
     </row>
     <row r="25" spans="1:35" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="97"/>
-      <c r="B25" s="74"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="87"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="74"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="74"/>
-      <c r="X25" s="74"/>
-      <c r="Y25" s="74"/>
-      <c r="Z25" s="74"/>
-      <c r="AA25" s="74"/>
-      <c r="AB25" s="74"/>
-      <c r="AC25" s="74"/>
-      <c r="AD25" s="74"/>
-      <c r="AE25" s="74"/>
-      <c r="AF25" s="74"/>
-      <c r="AG25" s="74"/>
-      <c r="AH25" s="74"/>
-      <c r="AI25" s="74"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="84"/>
+      <c r="V25" s="84"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="84"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="84"/>
+      <c r="AA25" s="84"/>
+      <c r="AB25" s="84"/>
+      <c r="AC25" s="84"/>
+      <c r="AD25" s="84"/>
+      <c r="AE25" s="84"/>
+      <c r="AF25" s="84"/>
+      <c r="AG25" s="84"/>
+      <c r="AH25" s="84"/>
+      <c r="AI25" s="84"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
@@ -11664,84 +11664,48 @@
     <row r="30" spans="1:35" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AI4:AI6"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="AD4:AD6"/>
-    <mergeCell ref="AE4:AE6"/>
-    <mergeCell ref="AF4:AF6"/>
-    <mergeCell ref="AG4:AG6"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="Z4:Z6"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="AH23:AH25"/>
+    <mergeCell ref="AI23:AI25"/>
+    <mergeCell ref="AC23:AC25"/>
+    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="AE23:AE25"/>
+    <mergeCell ref="AF23:AF25"/>
+    <mergeCell ref="AG23:AG25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="U23:U25"/>
+    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="W23:W25"/>
+    <mergeCell ref="X23:X25"/>
+    <mergeCell ref="Y23:Y25"/>
+    <mergeCell ref="Z23:Z25"/>
+    <mergeCell ref="AA23:AA25"/>
+    <mergeCell ref="AB23:AB25"/>
+    <mergeCell ref="AH17:AH19"/>
+    <mergeCell ref="AI17:AI19"/>
+    <mergeCell ref="AC17:AC19"/>
+    <mergeCell ref="AD17:AD19"/>
+    <mergeCell ref="AE17:AE19"/>
+    <mergeCell ref="AF17:AF19"/>
+    <mergeCell ref="AG17:AG19"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="V17:V19"/>
+    <mergeCell ref="W17:W19"/>
+    <mergeCell ref="X17:X19"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="Z17:Z19"/>
+    <mergeCell ref="AA17:AA19"/>
+    <mergeCell ref="AB17:AB19"/>
     <mergeCell ref="AH11:AH13"/>
     <mergeCell ref="AI11:AI13"/>
     <mergeCell ref="AC11:AC13"/>
@@ -11763,48 +11727,84 @@
     <mergeCell ref="Z11:Z13"/>
     <mergeCell ref="AA11:AA13"/>
     <mergeCell ref="AB11:AB13"/>
-    <mergeCell ref="AH17:AH19"/>
-    <mergeCell ref="AI17:AI19"/>
-    <mergeCell ref="AC17:AC19"/>
-    <mergeCell ref="AD17:AD19"/>
-    <mergeCell ref="AE17:AE19"/>
-    <mergeCell ref="AF17:AF19"/>
-    <mergeCell ref="AG17:AG19"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="U17:U19"/>
-    <mergeCell ref="V17:V19"/>
-    <mergeCell ref="W17:W19"/>
-    <mergeCell ref="X17:X19"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="Z17:Z19"/>
-    <mergeCell ref="AA17:AA19"/>
-    <mergeCell ref="AB17:AB19"/>
-    <mergeCell ref="AH23:AH25"/>
-    <mergeCell ref="AI23:AI25"/>
-    <mergeCell ref="AC23:AC25"/>
-    <mergeCell ref="AD23:AD25"/>
-    <mergeCell ref="AE23:AE25"/>
-    <mergeCell ref="AF23:AF25"/>
-    <mergeCell ref="AG23:AG25"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="Q23:Q25"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="U23:U25"/>
-    <mergeCell ref="V23:V25"/>
-    <mergeCell ref="W23:W25"/>
-    <mergeCell ref="X23:X25"/>
-    <mergeCell ref="Y23:Y25"/>
-    <mergeCell ref="Z23:Z25"/>
-    <mergeCell ref="AA23:AA25"/>
-    <mergeCell ref="AB23:AB25"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="AE4:AE6"/>
+    <mergeCell ref="AF4:AF6"/>
+    <mergeCell ref="AG4:AG6"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="Z4:Z6"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L23:L25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
